--- a/config/default/forms/app/child_assessment.xlsx
+++ b/config/default/forms/app/child_assessment.xlsx
@@ -8136,7 +8136,7 @@
       </c>
       <c r="C2" s="51" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-03_16-43</v>
+        <v>2020-12-04_11-56</v>
       </c>
       <c r="D2" s="52" t="s">
         <v>166</v>

--- a/config/default/forms/app/child_assessment.xlsx
+++ b/config/default/forms/app/child_assessment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="516">
   <si>
     <t>type</t>
   </si>
@@ -676,10 +676,19 @@
     <t>selected(${__show_diagnosis}, 'yes')</t>
   </si>
   <si>
+    <t>selected(${__show_diagnosis}, 'yes') and
+selected(${cough_yes_no}, 'yes')</t>
+  </si>
+  <si>
     <t>li</t>
   </si>
   <si>
-    <t>selected(${malaria_results}, 'positive')</t>
+    <t>selected(${__show_diagnosis}, 'yes') and
+selected(${diarrhea_yes_no}, 'yes')</t>
+  </si>
+  <si>
+    <t>selected(${__show_diagnosis}, 'yes') and
+selected(${malaria_results}, 'positive')</t>
   </si>
   <si>
     <t>Refer urgently to Health facility&lt;i class="fa fa-exclamation-triangle"&gt;&lt;/i&gt;</t>
@@ -727,12 +736,18 @@
 ${patient_age_in_months} &lt;= 6</t>
   </si>
   <si>
+    <t>mauc_treatement_1</t>
+  </si>
+  <si>
     <t>Counsel care giver on Feeding or Refer for supplementary feeding program, if available</t>
   </si>
   <si>
     <t>selected(${__any_danger}, 'no') and 
 selected(${malnutrition_muac_color}, 'yellow') and
 ${patient_age_in_months} &gt;= 6</t>
+  </si>
+  <si>
+    <t>malaria_treatement_1</t>
   </si>
   <si>
     <t>TBD Malaria AL Treat with {{Treatment}}
@@ -747,6 +762,9 @@
 ${patient_age_in_months} &lt;= 6 </t>
   </si>
   <si>
+    <t>malaria_treatement_2</t>
+  </si>
+  <si>
     <t>TBD Malaria AL Treat with {{Treatment}}
 {{Dose}}
 {{2 times a day}}
@@ -759,6 +777,9 @@
 ${patient_age_in_months} &lt;= 36 </t>
   </si>
   <si>
+    <t>malaria_treatement_3</t>
+  </si>
+  <si>
     <t>TBD Malaria AL Treat with {{Treatment}}
 {{Dose}}
 {{2 times a day}}
@@ -771,6 +792,9 @@
 ${patient_age_in_years} &lt;= 5 </t>
   </si>
   <si>
+    <t>malaria_treatement_4</t>
+  </si>
+  <si>
     <t>TBD Malaria Paracetamol Treat with {{Treatment}}
 {{Dose}}
 {{3 times a day}}
@@ -783,9 +807,15 @@
 ${patient_age_in_months} &lt;= 12 </t>
   </si>
   <si>
+    <t>malaria_treatement_5</t>
+  </si>
+  <si>
     <t>selected(${__receive_malaria_treatment}, 'yes') and
 ${patient_age_in_years} &gt;= 1 and
 ${patient_age_in_years} &lt;= 5</t>
+  </si>
+  <si>
+    <t>fever_treatement_1</t>
   </si>
   <si>
     <t>TBD Fever Paracetamol Treat with {{Treatment}}
@@ -800,9 +830,15 @@
 ${patient_age_in_months} &lt;= 12</t>
   </si>
   <si>
+    <t>fever_treatement_2</t>
+  </si>
+  <si>
     <t>selected(${__receive_fever_treatment},'yes') and
 ${patient_age_in_years} &gt;= 1 and
 ${patient_age_in_years} &lt;= 5</t>
+  </si>
+  <si>
+    <t>diarrhea_treatement_1</t>
   </si>
   <si>
     <t>TBD Diarrhea ORS Treat with {{Treatment}}
@@ -816,6 +852,9 @@
 ${patient_age_in_months} &lt; 24</t>
   </si>
   <si>
+    <t>diarrhea_treatement_2</t>
+  </si>
+  <si>
     <t>TBD Diarrhea ORS Treat with {{Treatment}}
 {{Dose}}
 {{ after every loose stool}}
@@ -824,6 +863,9 @@
   <si>
     <t>selected(${__receive_diarrhea_treatment}, 'yes') and
 ${patient_age_in_months} &gt;= 24</t>
+  </si>
+  <si>
+    <t>diarrhea_treatement_3</t>
   </si>
   <si>
     <t>TBD Diarrhea Zinc Treat with {{Treatment}}
@@ -838,6 +880,9 @@
 ${patient_age_in_months} &lt;= 6</t>
   </si>
   <si>
+    <t>diarrhea_treatement_4</t>
+  </si>
+  <si>
     <t>TBD Diarrhea Zinc Treat with {{Treatment}}
 {{1 tablet}}
 {{1 times a day}}
@@ -850,6 +895,40 @@
 ${patient_age_in_years} &lt;= 5</t>
   </si>
   <si>
+    <t>pneumonia_treatement_1</t>
+  </si>
+  <si>
+    <t>TBD Pneumonia Amoxicillin tablet DOSE HERE</t>
+  </si>
+  <si>
+    <t>selected(${__receive_pneumonia_treatment}, 'yes') and
+${patient_age_in_months} &gt;= 2 and
+${patient_age_in_months} &lt;= 12</t>
+  </si>
+  <si>
+    <t>pneumonia_treatement_2</t>
+  </si>
+  <si>
+    <t>TBD Pneumonia Amoxicillin tablet  DOSE HERE</t>
+  </si>
+  <si>
+    <t>selected(${__receive_pneumonia_treatment}, 'yes') and
+${patient_age_in_years} &gt; 1 and
+${patient_age_in_years} &lt;= 12</t>
+  </si>
+  <si>
+    <t>pneumonia_treatement_3</t>
+  </si>
+  <si>
+    <t>TBD Pneumonia Amoxicillin syrup DOSE HERE</t>
+  </si>
+  <si>
+    <t>pneumonia_treatement_4</t>
+  </si>
+  <si>
+    <t>TBD Pneumonia Amoxicillin syrup  DOSE HERE</t>
+  </si>
+  <si>
     <t>Important Instructions treatment&lt;i class="fa fa-medkit"&gt;&lt;/i&gt;</t>
   </si>
   <si>
@@ -881,16 +960,43 @@
  any sign that the child is getting sicker</t>
   </si>
   <si>
+    <t>mauc_instruct_1</t>
+  </si>
+  <si>
     <t>TBD MUAC</t>
   </si>
   <si>
+    <t>malaria_instruct_1</t>
+  </si>
+  <si>
     <t>TBD Malaria AL</t>
   </si>
   <si>
+    <t>malaria_instruct_2</t>
+  </si>
+  <si>
+    <t>malaria_instruct_3</t>
+  </si>
+  <si>
+    <t>malaria_instruct_4</t>
+  </si>
+  <si>
     <t>TBD Malaria Paracetamol</t>
   </si>
   <si>
+    <t>malaria_instruct_5</t>
+  </si>
+  <si>
+    <t>fever_instruct_1</t>
+  </si>
+  <si>
     <t>TBD Fever Paracetamol</t>
+  </si>
+  <si>
+    <t>fever_instruct_2</t>
+  </si>
+  <si>
+    <t>diarrhea_instruct_1</t>
   </si>
   <si>
     <t>TBD Diarrhea ORS</t>
@@ -901,12 +1007,39 @@
 ${patient_age_in_months} &lt;= 24</t>
   </si>
   <si>
+    <t>diarrhea_instruct_2</t>
+  </si>
+  <si>
+    <t>diarrhea_instruct_3</t>
+  </si>
+  <si>
     <t>TBD Diarrhea Zinc</t>
+  </si>
+  <si>
+    <t>diarrhea_instruct_4</t>
   </si>
   <si>
     <t>selected(${__receive_diarrhea_treatment}, 'yes') and
 ${patient_age_in_months} &gt;= 6 and
 ${patient_age_in_years} &lt;= 5</t>
+  </si>
+  <si>
+    <t>pneumonia_instruct_1</t>
+  </si>
+  <si>
+    <t>TBD Pneumonia Amoxicillin tablet</t>
+  </si>
+  <si>
+    <t>pneumonia_instruct_2</t>
+  </si>
+  <si>
+    <t>pneumonia_instruct_3</t>
+  </si>
+  <si>
+    <t>TBD Pneumonia Amoxicillin syrup</t>
+  </si>
+  <si>
+    <t>pneumonia_instruct_4</t>
   </si>
   <si>
     <t>Follow Up Tasks&lt;I class="fa fa-flag"&gt;&lt;/i&gt;</t>
@@ -1056,9 +1189,12 @@
   </si>
   <si>
     <t>if(
-    selected(${cough_yes_no}, 'yes') or
-    selected(${diarrhea_yes_no}, 'yes') or
-    selected(${malaria_results}, 'positive')
+    selected(${__any_danger}, 'no')  and
+    (
+       selected(${cough_yes_no}, 'yes') or
+       selected(${diarrhea_yes_no}, 'yes') or
+       selected(${malaria_results}, 'positive')
+    )
     ,"yes", "no"
  )</t>
   </si>
@@ -7180,10 +7316,10 @@
       <c r="I106" s="41"/>
       <c r="J106" s="40"/>
       <c r="K106" s="42" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="L106" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M106" s="46"/>
       <c r="N106" s="46"/>
@@ -7229,10 +7365,10 @@
       <c r="I107" s="41"/>
       <c r="J107" s="40"/>
       <c r="K107" s="42" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="L107" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M107" s="46"/>
       <c r="N107" s="46"/>
@@ -7278,10 +7414,10 @@
       <c r="I108" s="41"/>
       <c r="J108" s="40"/>
       <c r="K108" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="L108" s="42" t="s">
         <v>220</v>
-      </c>
-      <c r="L108" s="42" t="s">
-        <v>219</v>
       </c>
       <c r="M108" s="46"/>
       <c r="N108" s="46"/>
@@ -7317,7 +7453,7 @@
       </c>
       <c r="B109" s="44"/>
       <c r="C109" s="45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D109" s="46"/>
       <c r="E109" s="44"/>
@@ -7327,10 +7463,10 @@
       <c r="I109" s="46"/>
       <c r="J109" s="44"/>
       <c r="K109" s="45" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L109" s="45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M109" s="46"/>
       <c r="N109" s="46"/>
@@ -7365,10 +7501,10 @@
         <v>82</v>
       </c>
       <c r="B110" s="42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D110" s="41"/>
       <c r="E110" s="40"/>
@@ -7380,7 +7516,7 @@
         <v>85</v>
       </c>
       <c r="K110" s="42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L110" s="41"/>
       <c r="M110" s="41"/>
@@ -7417,7 +7553,7 @@
       </c>
       <c r="B111" s="44"/>
       <c r="C111" s="45" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D111" s="46"/>
       <c r="E111" s="44"/>
@@ -7427,7 +7563,7 @@
       <c r="I111" s="46"/>
       <c r="J111" s="44"/>
       <c r="K111" s="45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L111" s="45" t="s">
         <v>209</v>
@@ -7465,10 +7601,10 @@
         <v>87</v>
       </c>
       <c r="B112" s="42" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C112" s="51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D112" s="46"/>
       <c r="E112" s="44"/>
@@ -7478,9 +7614,11 @@
       <c r="I112" s="46"/>
       <c r="J112" s="44"/>
       <c r="K112" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="L112" s="45"/>
+        <v>232</v>
+      </c>
+      <c r="L112" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M112" s="46"/>
       <c r="N112" s="46"/>
       <c r="O112" s="46"/>
@@ -7514,10 +7652,10 @@
         <v>87</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C113" s="51" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D113" s="41"/>
       <c r="E113" s="40"/>
@@ -7527,9 +7665,11 @@
       <c r="I113" s="41"/>
       <c r="J113" s="40"/>
       <c r="K113" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="L113" s="45"/>
+        <v>235</v>
+      </c>
+      <c r="L113" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M113" s="46"/>
       <c r="N113" s="46"/>
       <c r="O113" s="46"/>
@@ -7562,9 +7702,11 @@
       <c r="A114" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B114" s="40"/>
+      <c r="B114" s="42" t="s">
+        <v>236</v>
+      </c>
       <c r="C114" s="51" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D114" s="41"/>
       <c r="E114" s="40"/>
@@ -7574,9 +7716,11 @@
       <c r="I114" s="41"/>
       <c r="J114" s="40"/>
       <c r="K114" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="L114" s="45"/>
+        <v>238</v>
+      </c>
+      <c r="L114" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M114" s="46"/>
       <c r="N114" s="46"/>
       <c r="O114" s="46"/>
@@ -7609,9 +7753,11 @@
       <c r="A115" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B115" s="40"/>
+      <c r="B115" s="42" t="s">
+        <v>239</v>
+      </c>
       <c r="C115" s="42" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D115" s="41"/>
       <c r="E115" s="40"/>
@@ -7621,9 +7767,11 @@
       <c r="I115" s="41"/>
       <c r="J115" s="40"/>
       <c r="K115" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="L115" s="45"/>
+        <v>241</v>
+      </c>
+      <c r="L115" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M115" s="46"/>
       <c r="N115" s="46"/>
       <c r="O115" s="46"/>
@@ -7656,9 +7804,11 @@
       <c r="A116" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B116" s="40"/>
+      <c r="B116" s="42" t="s">
+        <v>242</v>
+      </c>
       <c r="C116" s="42" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D116" s="41"/>
       <c r="E116" s="40"/>
@@ -7668,9 +7818,11 @@
       <c r="I116" s="41"/>
       <c r="J116" s="40"/>
       <c r="K116" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="L116" s="45"/>
+        <v>244</v>
+      </c>
+      <c r="L116" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M116" s="46"/>
       <c r="N116" s="46"/>
       <c r="O116" s="46"/>
@@ -7703,9 +7855,11 @@
       <c r="A117" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="40"/>
+      <c r="B117" s="42" t="s">
+        <v>245</v>
+      </c>
       <c r="C117" s="42" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="40"/>
@@ -7715,9 +7869,11 @@
       <c r="I117" s="41"/>
       <c r="J117" s="40"/>
       <c r="K117" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="L117" s="45"/>
+        <v>247</v>
+      </c>
+      <c r="L117" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M117" s="46"/>
       <c r="N117" s="46"/>
       <c r="O117" s="46"/>
@@ -7750,9 +7906,11 @@
       <c r="A118" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B118" s="40"/>
+      <c r="B118" s="42" t="s">
+        <v>248</v>
+      </c>
       <c r="C118" s="42" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D118" s="41"/>
       <c r="E118" s="40"/>
@@ -7762,9 +7920,11 @@
       <c r="I118" s="41"/>
       <c r="J118" s="40"/>
       <c r="K118" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="L118" s="45"/>
+        <v>250</v>
+      </c>
+      <c r="L118" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M118" s="46"/>
       <c r="N118" s="46"/>
       <c r="O118" s="46"/>
@@ -7797,9 +7957,11 @@
       <c r="A119" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B119" s="40"/>
+      <c r="B119" s="42" t="s">
+        <v>251</v>
+      </c>
       <c r="C119" s="42" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D119" s="41"/>
       <c r="E119" s="40"/>
@@ -7809,9 +7971,11 @@
       <c r="I119" s="41"/>
       <c r="J119" s="40"/>
       <c r="K119" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="L119" s="45"/>
+        <v>252</v>
+      </c>
+      <c r="L119" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M119" s="46"/>
       <c r="N119" s="46"/>
       <c r="O119" s="46"/>
@@ -7844,9 +8008,11 @@
       <c r="A120" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B120" s="40"/>
+      <c r="B120" s="42" t="s">
+        <v>253</v>
+      </c>
       <c r="C120" s="42" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D120" s="41"/>
       <c r="E120" s="40"/>
@@ -7856,9 +8022,11 @@
       <c r="I120" s="41"/>
       <c r="J120" s="40"/>
       <c r="K120" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="L120" s="45"/>
+        <v>255</v>
+      </c>
+      <c r="L120" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M120" s="46"/>
       <c r="N120" s="46"/>
       <c r="O120" s="46"/>
@@ -7891,9 +8059,11 @@
       <c r="A121" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B121" s="40"/>
+      <c r="B121" s="42" t="s">
+        <v>256</v>
+      </c>
       <c r="C121" s="42" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D121" s="41"/>
       <c r="E121" s="40"/>
@@ -7903,9 +8073,11 @@
       <c r="I121" s="41"/>
       <c r="J121" s="40"/>
       <c r="K121" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="L121" s="45"/>
+        <v>257</v>
+      </c>
+      <c r="L121" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M121" s="46"/>
       <c r="N121" s="46"/>
       <c r="O121" s="46"/>
@@ -7938,9 +8110,11 @@
       <c r="A122" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B122" s="40"/>
+      <c r="B122" s="42" t="s">
+        <v>258</v>
+      </c>
       <c r="C122" s="42" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D122" s="41"/>
       <c r="E122" s="40"/>
@@ -7950,9 +8124,11 @@
       <c r="I122" s="41"/>
       <c r="J122" s="40"/>
       <c r="K122" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="L122" s="45"/>
+        <v>260</v>
+      </c>
+      <c r="L122" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M122" s="46"/>
       <c r="N122" s="46"/>
       <c r="O122" s="46"/>
@@ -7985,9 +8161,11 @@
       <c r="A123" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B123" s="40"/>
+      <c r="B123" s="42" t="s">
+        <v>261</v>
+      </c>
       <c r="C123" s="42" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D123" s="41"/>
       <c r="E123" s="40"/>
@@ -7997,9 +8175,11 @@
       <c r="I123" s="41"/>
       <c r="J123" s="40"/>
       <c r="K123" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="L123" s="45"/>
+        <v>263</v>
+      </c>
+      <c r="L123" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M123" s="46"/>
       <c r="N123" s="46"/>
       <c r="O123" s="46"/>
@@ -8032,9 +8212,11 @@
       <c r="A124" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B124" s="40"/>
+      <c r="B124" s="42" t="s">
+        <v>264</v>
+      </c>
       <c r="C124" s="42" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D124" s="41"/>
       <c r="E124" s="40"/>
@@ -8044,9 +8226,11 @@
       <c r="I124" s="41"/>
       <c r="J124" s="40"/>
       <c r="K124" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="L124" s="45"/>
+        <v>266</v>
+      </c>
+      <c r="L124" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M124" s="46"/>
       <c r="N124" s="46"/>
       <c r="O124" s="46"/>
@@ -8079,9 +8263,11 @@
       <c r="A125" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="40"/>
+      <c r="B125" s="42" t="s">
+        <v>267</v>
+      </c>
       <c r="C125" s="42" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D125" s="41"/>
       <c r="E125" s="40"/>
@@ -8091,9 +8277,11 @@
       <c r="I125" s="41"/>
       <c r="J125" s="40"/>
       <c r="K125" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="L125" s="45"/>
+        <v>269</v>
+      </c>
+      <c r="L125" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M125" s="46"/>
       <c r="N125" s="46"/>
       <c r="O125" s="46"/>
@@ -8123,24 +8311,26 @@
       <c r="AM125" s="47"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="44" t="s">
+      <c r="A126" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B126" s="44"/>
-      <c r="C126" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="D126" s="46"/>
-      <c r="E126" s="44"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="44"/>
-      <c r="K126" s="44"/>
-      <c r="L126" s="45" t="s">
-        <v>209</v>
-      </c>
+      <c r="B126" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="D126" s="41"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="L126" s="45"/>
       <c r="M126" s="46"/>
       <c r="N126" s="46"/>
       <c r="O126" s="46"/>
@@ -8174,24 +8364,22 @@
         <v>87</v>
       </c>
       <c r="B127" s="42" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="D127" s="46"/>
-      <c r="E127" s="44"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="46"/>
-      <c r="J127" s="44"/>
-      <c r="K127" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="L127" s="42" t="s">
-        <v>219</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D127" s="41"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="L127" s="45"/>
       <c r="M127" s="46"/>
       <c r="N127" s="46"/>
       <c r="O127" s="46"/>
@@ -8225,10 +8413,10 @@
         <v>87</v>
       </c>
       <c r="B128" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="C128" s="52" t="s">
-        <v>260</v>
+        <v>276</v>
+      </c>
+      <c r="C128" s="42" t="s">
+        <v>277</v>
       </c>
       <c r="D128" s="41"/>
       <c r="E128" s="40"/>
@@ -8237,12 +8425,10 @@
       <c r="H128" s="41"/>
       <c r="I128" s="41"/>
       <c r="J128" s="40"/>
-      <c r="K128" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="L128" s="42" t="s">
-        <v>219</v>
-      </c>
+      <c r="K128" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="L128" s="45"/>
       <c r="M128" s="46"/>
       <c r="N128" s="46"/>
       <c r="O128" s="46"/>
@@ -8276,10 +8462,10 @@
         <v>87</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="C129" s="51" t="s">
-        <v>262</v>
+        <v>278</v>
+      </c>
+      <c r="C129" s="42" t="s">
+        <v>279</v>
       </c>
       <c r="D129" s="41"/>
       <c r="E129" s="40"/>
@@ -8288,12 +8474,10 @@
       <c r="H129" s="41"/>
       <c r="I129" s="41"/>
       <c r="J129" s="40"/>
-      <c r="K129" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="L129" s="42" t="s">
-        <v>219</v>
-      </c>
+      <c r="K129" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="L129" s="45"/>
       <c r="M129" s="46"/>
       <c r="N129" s="46"/>
       <c r="O129" s="46"/>
@@ -8323,27 +8507,25 @@
       <c r="AM129" s="47"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="42" t="s">
+      <c r="A130" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B130" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="C130" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="D130" s="41"/>
-      <c r="E130" s="40"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="40"/>
-      <c r="K130" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="L130" s="42" t="s">
-        <v>219</v>
+      <c r="B130" s="44"/>
+      <c r="C130" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="D130" s="46"/>
+      <c r="E130" s="44"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="H130" s="46"/>
+      <c r="I130" s="46"/>
+      <c r="J130" s="44"/>
+      <c r="K130" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="L130" s="45" t="s">
+        <v>209</v>
       </c>
       <c r="M130" s="46"/>
       <c r="N130" s="46"/>
@@ -8377,22 +8559,24 @@
       <c r="A131" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B131" s="40"/>
+      <c r="B131" s="42" t="s">
+        <v>281</v>
+      </c>
       <c r="C131" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="D131" s="41"/>
-      <c r="E131" s="40"/>
-      <c r="F131" s="41"/>
-      <c r="G131" s="41"/>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="40"/>
+        <v>282</v>
+      </c>
+      <c r="D131" s="46"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="46"/>
+      <c r="I131" s="46"/>
+      <c r="J131" s="44"/>
       <c r="K131" s="42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L131" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M131" s="46"/>
       <c r="N131" s="46"/>
@@ -8426,9 +8610,11 @@
       <c r="A132" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B132" s="40"/>
-      <c r="C132" s="42" t="s">
-        <v>266</v>
+      <c r="B132" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C132" s="52" t="s">
+        <v>284</v>
       </c>
       <c r="D132" s="41"/>
       <c r="E132" s="40"/>
@@ -8438,10 +8624,10 @@
       <c r="I132" s="41"/>
       <c r="J132" s="40"/>
       <c r="K132" s="42" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L132" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M132" s="46"/>
       <c r="N132" s="46"/>
@@ -8475,9 +8661,11 @@
       <c r="A133" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B133" s="40"/>
-      <c r="C133" s="42" t="s">
-        <v>266</v>
+      <c r="B133" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C133" s="51" t="s">
+        <v>286</v>
       </c>
       <c r="D133" s="41"/>
       <c r="E133" s="40"/>
@@ -8487,10 +8675,10 @@
       <c r="I133" s="41"/>
       <c r="J133" s="40"/>
       <c r="K133" s="42" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L133" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M133" s="46"/>
       <c r="N133" s="46"/>
@@ -8524,9 +8712,11 @@
       <c r="A134" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B134" s="40"/>
+      <c r="B134" s="42" t="s">
+        <v>287</v>
+      </c>
       <c r="C134" s="42" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="D134" s="41"/>
       <c r="E134" s="40"/>
@@ -8536,10 +8726,10 @@
       <c r="I134" s="41"/>
       <c r="J134" s="40"/>
       <c r="K134" s="42" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L134" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M134" s="46"/>
       <c r="N134" s="46"/>
@@ -8573,9 +8763,11 @@
       <c r="A135" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="40"/>
+      <c r="B135" s="42" t="s">
+        <v>289</v>
+      </c>
       <c r="C135" s="42" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="D135" s="41"/>
       <c r="E135" s="40"/>
@@ -8585,10 +8777,10 @@
       <c r="I135" s="41"/>
       <c r="J135" s="40"/>
       <c r="K135" s="42" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L135" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M135" s="46"/>
       <c r="N135" s="46"/>
@@ -8622,9 +8814,11 @@
       <c r="A136" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B136" s="40"/>
+      <c r="B136" s="42" t="s">
+        <v>291</v>
+      </c>
       <c r="C136" s="42" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="D136" s="41"/>
       <c r="E136" s="40"/>
@@ -8634,20 +8828,18 @@
       <c r="I136" s="41"/>
       <c r="J136" s="40"/>
       <c r="K136" s="42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L136" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="M136" s="40"/>
-      <c r="N136" s="41"/>
-      <c r="O136" s="41"/>
-      <c r="P136" s="41"/>
-      <c r="Q136" s="41"/>
-      <c r="R136" s="40"/>
-      <c r="S136" s="42" t="s">
-        <v>243</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M136" s="46"/>
+      <c r="N136" s="46"/>
+      <c r="O136" s="46"/>
+      <c r="P136" s="46"/>
+      <c r="Q136" s="46"/>
+      <c r="R136" s="46"/>
+      <c r="S136" s="46"/>
       <c r="T136" s="46"/>
       <c r="U136" s="46"/>
       <c r="V136" s="46"/>
@@ -8673,9 +8865,11 @@
       <c r="A137" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B137" s="40"/>
+      <c r="B137" s="42" t="s">
+        <v>293</v>
+      </c>
       <c r="C137" s="42" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="D137" s="41"/>
       <c r="E137" s="40"/>
@@ -8685,18 +8879,18 @@
       <c r="I137" s="41"/>
       <c r="J137" s="40"/>
       <c r="K137" s="42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L137" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="M137" s="40"/>
-      <c r="N137" s="41"/>
-      <c r="O137" s="41"/>
-      <c r="P137" s="41"/>
-      <c r="Q137" s="41"/>
-      <c r="R137" s="40"/>
-      <c r="S137" s="42"/>
+        <v>220</v>
+      </c>
+      <c r="M137" s="46"/>
+      <c r="N137" s="46"/>
+      <c r="O137" s="46"/>
+      <c r="P137" s="46"/>
+      <c r="Q137" s="46"/>
+      <c r="R137" s="46"/>
+      <c r="S137" s="46"/>
       <c r="T137" s="46"/>
       <c r="U137" s="46"/>
       <c r="V137" s="46"/>
@@ -8722,9 +8916,11 @@
       <c r="A138" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B138" s="40"/>
+      <c r="B138" s="42" t="s">
+        <v>294</v>
+      </c>
       <c r="C138" s="42" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="D138" s="41"/>
       <c r="E138" s="40"/>
@@ -8737,15 +8933,15 @@
         <v>247</v>
       </c>
       <c r="L138" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="M138" s="40"/>
-      <c r="N138" s="41"/>
-      <c r="O138" s="41"/>
-      <c r="P138" s="41"/>
-      <c r="Q138" s="41"/>
-      <c r="R138" s="40"/>
-      <c r="S138" s="42"/>
+        <v>220</v>
+      </c>
+      <c r="M138" s="46"/>
+      <c r="N138" s="46"/>
+      <c r="O138" s="46"/>
+      <c r="P138" s="46"/>
+      <c r="Q138" s="46"/>
+      <c r="R138" s="46"/>
+      <c r="S138" s="46"/>
       <c r="T138" s="46"/>
       <c r="U138" s="46"/>
       <c r="V138" s="46"/>
@@ -8771,9 +8967,11 @@
       <c r="A139" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B139" s="40"/>
+      <c r="B139" s="42" t="s">
+        <v>295</v>
+      </c>
       <c r="C139" s="42" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="D139" s="41"/>
       <c r="E139" s="40"/>
@@ -8783,18 +8981,18 @@
       <c r="I139" s="41"/>
       <c r="J139" s="40"/>
       <c r="K139" s="42" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="L139" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="M139" s="40"/>
-      <c r="N139" s="41"/>
-      <c r="O139" s="41"/>
-      <c r="P139" s="41"/>
-      <c r="Q139" s="41"/>
-      <c r="R139" s="40"/>
-      <c r="S139" s="42"/>
+        <v>220</v>
+      </c>
+      <c r="M139" s="46"/>
+      <c r="N139" s="46"/>
+      <c r="O139" s="46"/>
+      <c r="P139" s="46"/>
+      <c r="Q139" s="46"/>
+      <c r="R139" s="46"/>
+      <c r="S139" s="46"/>
       <c r="T139" s="46"/>
       <c r="U139" s="46"/>
       <c r="V139" s="46"/>
@@ -8820,9 +9018,11 @@
       <c r="A140" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B140" s="40"/>
+      <c r="B140" s="42" t="s">
+        <v>297</v>
+      </c>
       <c r="C140" s="42" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="D140" s="41"/>
       <c r="E140" s="40"/>
@@ -8832,10 +9032,10 @@
       <c r="I140" s="41"/>
       <c r="J140" s="40"/>
       <c r="K140" s="42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L140" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M140" s="40"/>
       <c r="N140" s="41"/>
@@ -8843,7 +9043,9 @@
       <c r="P140" s="41"/>
       <c r="Q140" s="41"/>
       <c r="R140" s="40"/>
-      <c r="S140" s="42"/>
+      <c r="S140" s="42" t="s">
+        <v>250</v>
+      </c>
       <c r="T140" s="46"/>
       <c r="U140" s="46"/>
       <c r="V140" s="46"/>
@@ -8869,9 +9071,11 @@
       <c r="A141" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B141" s="40"/>
+      <c r="B141" s="42" t="s">
+        <v>298</v>
+      </c>
       <c r="C141" s="42" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="D141" s="41"/>
       <c r="E141" s="40"/>
@@ -8881,10 +9085,10 @@
       <c r="I141" s="41"/>
       <c r="J141" s="40"/>
       <c r="K141" s="42" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L141" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M141" s="40"/>
       <c r="N141" s="41"/>
@@ -8918,9 +9122,11 @@
       <c r="A142" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B142" s="40"/>
+      <c r="B142" s="42" t="s">
+        <v>300</v>
+      </c>
       <c r="C142" s="42" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="D142" s="41"/>
       <c r="E142" s="40"/>
@@ -8930,10 +9136,10 @@
       <c r="I142" s="41"/>
       <c r="J142" s="40"/>
       <c r="K142" s="42" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L142" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M142" s="40"/>
       <c r="N142" s="41"/>
@@ -8964,9 +9170,15 @@
       <c r="AM142" s="47"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="40"/>
-      <c r="B143" s="40"/>
-      <c r="C143" s="40"/>
+      <c r="A143" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B143" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C143" s="42" t="s">
+        <v>302</v>
+      </c>
       <c r="D143" s="41"/>
       <c r="E143" s="40"/>
       <c r="F143" s="41"/>
@@ -8974,8 +9186,12 @@
       <c r="H143" s="41"/>
       <c r="I143" s="41"/>
       <c r="J143" s="40"/>
-      <c r="K143" s="42"/>
-      <c r="L143" s="41"/>
+      <c r="K143" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="L143" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="M143" s="40"/>
       <c r="N143" s="41"/>
       <c r="O143" s="41"/>
@@ -9005,31 +9221,35 @@
       <c r="AM143" s="47"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="44" t="s">
+      <c r="A144" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B144" s="44"/>
-      <c r="C144" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="D144" s="46"/>
-      <c r="E144" s="44"/>
-      <c r="F144" s="46"/>
-      <c r="G144" s="46"/>
-      <c r="H144" s="46"/>
-      <c r="I144" s="46"/>
-      <c r="J144" s="44"/>
-      <c r="K144" s="44"/>
-      <c r="L144" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="M144" s="46"/>
-      <c r="N144" s="46"/>
-      <c r="O144" s="46"/>
-      <c r="P144" s="46"/>
-      <c r="Q144" s="46"/>
-      <c r="R144" s="46"/>
-      <c r="S144" s="46"/>
+      <c r="B144" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="C144" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="D144" s="41"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="41"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="L144" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="M144" s="40"/>
+      <c r="N144" s="41"/>
+      <c r="O144" s="41"/>
+      <c r="P144" s="41"/>
+      <c r="Q144" s="41"/>
+      <c r="R144" s="40"/>
+      <c r="S144" s="42"/>
       <c r="T144" s="46"/>
       <c r="U144" s="46"/>
       <c r="V144" s="46"/>
@@ -9052,12 +9272,14 @@
       <c r="AM144" s="47"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="40" t="s">
+      <c r="A145" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B145" s="40"/>
+      <c r="B145" s="42" t="s">
+        <v>305</v>
+      </c>
       <c r="C145" s="42" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="D145" s="41"/>
       <c r="E145" s="40"/>
@@ -9066,44 +9288,50 @@
       <c r="H145" s="41"/>
       <c r="I145" s="41"/>
       <c r="J145" s="40"/>
-      <c r="K145" s="42"/>
-      <c r="L145" s="41"/>
-      <c r="M145" s="41"/>
+      <c r="K145" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="L145" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="M145" s="40"/>
       <c r="N145" s="41"/>
       <c r="O145" s="41"/>
       <c r="P145" s="41"/>
       <c r="Q145" s="41"/>
-      <c r="R145" s="41"/>
-      <c r="S145" s="41"/>
-      <c r="T145" s="41"/>
-      <c r="U145" s="41"/>
-      <c r="V145" s="41"/>
-      <c r="W145" s="41"/>
-      <c r="X145" s="41"/>
-      <c r="Y145" s="41"/>
-      <c r="Z145" s="41"/>
-      <c r="AA145" s="41"/>
-      <c r="AB145" s="41"/>
-      <c r="AC145" s="41"/>
-      <c r="AD145" s="41"/>
-      <c r="AE145" s="41"/>
-      <c r="AF145" s="43"/>
-      <c r="AG145" s="43"/>
-      <c r="AH145" s="43"/>
-      <c r="AI145" s="43"/>
-      <c r="AJ145" s="43"/>
-      <c r="AK145" s="43"/>
-      <c r="AL145" s="43"/>
-      <c r="AM145" s="43"/>
+      <c r="R145" s="40"/>
+      <c r="S145" s="42"/>
+      <c r="T145" s="46"/>
+      <c r="U145" s="46"/>
+      <c r="V145" s="46"/>
+      <c r="W145" s="46"/>
+      <c r="X145" s="46"/>
+      <c r="Y145" s="46"/>
+      <c r="Z145" s="46"/>
+      <c r="AA145" s="46"/>
+      <c r="AB145" s="46"/>
+      <c r="AC145" s="46"/>
+      <c r="AD145" s="46"/>
+      <c r="AE145" s="46"/>
+      <c r="AF145" s="47"/>
+      <c r="AG145" s="47"/>
+      <c r="AH145" s="47"/>
+      <c r="AI145" s="47"/>
+      <c r="AJ145" s="47"/>
+      <c r="AK145" s="47"/>
+      <c r="AL145" s="47"/>
+      <c r="AM145" s="47"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="42" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B146" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="C146" s="40"/>
+        <v>307</v>
+      </c>
+      <c r="C146" s="42" t="s">
+        <v>306</v>
+      </c>
       <c r="D146" s="41"/>
       <c r="E146" s="40"/>
       <c r="F146" s="41"/>
@@ -9111,471 +9339,459 @@
       <c r="H146" s="41"/>
       <c r="I146" s="41"/>
       <c r="J146" s="40"/>
-      <c r="K146" s="40"/>
-      <c r="L146" s="41"/>
-      <c r="M146" s="41"/>
+      <c r="K146" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="L146" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="M146" s="40"/>
       <c r="N146" s="41"/>
       <c r="O146" s="41"/>
       <c r="P146" s="41"/>
       <c r="Q146" s="41"/>
-      <c r="R146" s="41"/>
-      <c r="S146" s="41"/>
-      <c r="T146" s="41"/>
-      <c r="U146" s="41"/>
-      <c r="V146" s="41"/>
-      <c r="W146" s="41"/>
-      <c r="X146" s="41"/>
-      <c r="Y146" s="41"/>
-      <c r="Z146" s="41"/>
-      <c r="AA146" s="41"/>
-      <c r="AB146" s="41"/>
-      <c r="AC146" s="41"/>
-      <c r="AD146" s="41"/>
-      <c r="AE146" s="41"/>
-      <c r="AF146" s="43"/>
-      <c r="AG146" s="43"/>
-      <c r="AH146" s="43"/>
-      <c r="AI146" s="43"/>
-      <c r="AJ146" s="43"/>
-      <c r="AK146" s="43"/>
-      <c r="AL146" s="43"/>
-      <c r="AM146" s="43"/>
+      <c r="R146" s="40"/>
+      <c r="S146" s="42"/>
+      <c r="T146" s="46"/>
+      <c r="U146" s="46"/>
+      <c r="V146" s="46"/>
+      <c r="W146" s="46"/>
+      <c r="X146" s="46"/>
+      <c r="Y146" s="46"/>
+      <c r="Z146" s="46"/>
+      <c r="AA146" s="46"/>
+      <c r="AB146" s="46"/>
+      <c r="AC146" s="46"/>
+      <c r="AD146" s="46"/>
+      <c r="AE146" s="46"/>
+      <c r="AF146" s="47"/>
+      <c r="AG146" s="47"/>
+      <c r="AH146" s="47"/>
+      <c r="AI146" s="47"/>
+      <c r="AJ146" s="47"/>
+      <c r="AK146" s="47"/>
+      <c r="AL146" s="47"/>
+      <c r="AM146" s="47"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="18"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="10"/>
-      <c r="N147" s="10"/>
-      <c r="O147" s="10"/>
-      <c r="P147" s="10"/>
-      <c r="Q147" s="10"/>
-      <c r="R147" s="10"/>
-      <c r="S147" s="10"/>
-      <c r="T147" s="10"/>
-      <c r="U147" s="10"/>
-      <c r="V147" s="10"/>
-      <c r="W147" s="10"/>
-      <c r="X147" s="10"/>
-      <c r="Y147" s="10"/>
-      <c r="Z147" s="10"/>
-      <c r="AA147" s="10"/>
-      <c r="AB147" s="10"/>
-      <c r="AC147" s="10"/>
-      <c r="AD147" s="10"/>
-      <c r="AE147" s="10"/>
-      <c r="AF147" s="19"/>
-      <c r="AG147" s="19"/>
-      <c r="AH147" s="19"/>
-      <c r="AI147" s="19"/>
-      <c r="AJ147" s="19"/>
-      <c r="AK147" s="19"/>
-      <c r="AL147" s="19"/>
-      <c r="AM147" s="19"/>
+      <c r="A147" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B147" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="C147" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="D147" s="41"/>
+      <c r="E147" s="40"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="40"/>
+      <c r="K147" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="L147" s="41"/>
+      <c r="M147" s="40"/>
+      <c r="N147" s="41"/>
+      <c r="O147" s="41"/>
+      <c r="P147" s="41"/>
+      <c r="Q147" s="41"/>
+      <c r="R147" s="40"/>
+      <c r="S147" s="42"/>
+      <c r="T147" s="46"/>
+      <c r="U147" s="46"/>
+      <c r="V147" s="46"/>
+      <c r="W147" s="46"/>
+      <c r="X147" s="46"/>
+      <c r="Y147" s="46"/>
+      <c r="Z147" s="46"/>
+      <c r="AA147" s="46"/>
+      <c r="AB147" s="46"/>
+      <c r="AC147" s="46"/>
+      <c r="AD147" s="46"/>
+      <c r="AE147" s="46"/>
+      <c r="AF147" s="47"/>
+      <c r="AG147" s="47"/>
+      <c r="AH147" s="47"/>
+      <c r="AI147" s="47"/>
+      <c r="AJ147" s="47"/>
+      <c r="AK147" s="47"/>
+      <c r="AL147" s="47"/>
+      <c r="AM147" s="47"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="19"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="19"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="11"/>
-      <c r="N148" s="11"/>
-      <c r="O148" s="11"/>
-      <c r="P148" s="11"/>
-      <c r="Q148" s="11"/>
-      <c r="R148" s="11"/>
-      <c r="S148" s="11"/>
-      <c r="T148" s="11"/>
-      <c r="U148" s="11"/>
-      <c r="V148" s="11"/>
-      <c r="W148" s="11"/>
-      <c r="X148" s="11"/>
-      <c r="Y148" s="11"/>
-      <c r="Z148" s="11"/>
-      <c r="AA148" s="11"/>
-      <c r="AB148" s="11"/>
-      <c r="AC148" s="11"/>
-      <c r="AD148" s="11"/>
-      <c r="AE148" s="11"/>
-      <c r="AF148" s="19"/>
-      <c r="AG148" s="19"/>
-      <c r="AH148" s="19"/>
-      <c r="AI148" s="19"/>
-      <c r="AJ148" s="19"/>
-      <c r="AK148" s="19"/>
-      <c r="AL148" s="19"/>
-      <c r="AM148" s="19"/>
+      <c r="A148" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B148" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="C148" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="D148" s="41"/>
+      <c r="E148" s="40"/>
+      <c r="F148" s="41"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="41"/>
+      <c r="J148" s="40"/>
+      <c r="K148" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="L148" s="41"/>
+      <c r="M148" s="40"/>
+      <c r="N148" s="41"/>
+      <c r="O148" s="41"/>
+      <c r="P148" s="41"/>
+      <c r="Q148" s="41"/>
+      <c r="R148" s="40"/>
+      <c r="S148" s="42"/>
+      <c r="T148" s="46"/>
+      <c r="U148" s="46"/>
+      <c r="V148" s="46"/>
+      <c r="W148" s="46"/>
+      <c r="X148" s="46"/>
+      <c r="Y148" s="46"/>
+      <c r="Z148" s="46"/>
+      <c r="AA148" s="46"/>
+      <c r="AB148" s="46"/>
+      <c r="AC148" s="46"/>
+      <c r="AD148" s="46"/>
+      <c r="AE148" s="46"/>
+      <c r="AF148" s="47"/>
+      <c r="AG148" s="47"/>
+      <c r="AH148" s="47"/>
+      <c r="AI148" s="47"/>
+      <c r="AJ148" s="47"/>
+      <c r="AK148" s="47"/>
+      <c r="AL148" s="47"/>
+      <c r="AM148" s="47"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="C149" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D149" s="55"/>
-      <c r="E149" s="54"/>
-      <c r="F149" s="54"/>
-      <c r="G149" s="55"/>
-      <c r="H149" s="55"/>
-      <c r="I149" s="55"/>
-      <c r="J149" s="55"/>
-      <c r="K149" s="54"/>
-      <c r="L149" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="M149" s="55"/>
-      <c r="N149" s="55"/>
-      <c r="O149" s="55"/>
-      <c r="P149" s="55"/>
-      <c r="Q149" s="55"/>
-      <c r="R149" s="55"/>
-      <c r="S149" s="55"/>
-      <c r="T149" s="55"/>
-      <c r="U149" s="55"/>
-      <c r="V149" s="55"/>
-      <c r="W149" s="55"/>
-      <c r="X149" s="55"/>
-      <c r="Y149" s="55"/>
-      <c r="Z149" s="55"/>
-      <c r="AA149" s="55"/>
-      <c r="AB149" s="55"/>
-      <c r="AC149" s="55"/>
-      <c r="AD149" s="55"/>
-      <c r="AE149" s="55"/>
-      <c r="AF149" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG149" s="54"/>
-      <c r="AH149" s="54"/>
-      <c r="AI149" s="54"/>
-      <c r="AJ149" s="54"/>
-      <c r="AK149" s="19"/>
-      <c r="AL149" s="19"/>
-      <c r="AM149" s="19"/>
+      <c r="A149" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B149" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C149" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D149" s="41"/>
+      <c r="E149" s="40"/>
+      <c r="F149" s="41"/>
+      <c r="G149" s="41"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="41"/>
+      <c r="J149" s="40"/>
+      <c r="K149" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="L149" s="41"/>
+      <c r="M149" s="40"/>
+      <c r="N149" s="41"/>
+      <c r="O149" s="41"/>
+      <c r="P149" s="41"/>
+      <c r="Q149" s="41"/>
+      <c r="R149" s="40"/>
+      <c r="S149" s="42"/>
+      <c r="T149" s="46"/>
+      <c r="U149" s="46"/>
+      <c r="V149" s="46"/>
+      <c r="W149" s="46"/>
+      <c r="X149" s="46"/>
+      <c r="Y149" s="46"/>
+      <c r="Z149" s="46"/>
+      <c r="AA149" s="46"/>
+      <c r="AB149" s="46"/>
+      <c r="AC149" s="46"/>
+      <c r="AD149" s="46"/>
+      <c r="AE149" s="46"/>
+      <c r="AF149" s="47"/>
+      <c r="AG149" s="47"/>
+      <c r="AH149" s="47"/>
+      <c r="AI149" s="47"/>
+      <c r="AJ149" s="47"/>
+      <c r="AK149" s="47"/>
+      <c r="AL149" s="47"/>
+      <c r="AM149" s="47"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B150" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="C150" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D150" s="55"/>
-      <c r="E150" s="54"/>
-      <c r="F150" s="54"/>
-      <c r="G150" s="55"/>
-      <c r="H150" s="55"/>
-      <c r="I150" s="55"/>
-      <c r="J150" s="55"/>
-      <c r="K150" s="54"/>
-      <c r="L150" s="54"/>
-      <c r="M150" s="55"/>
-      <c r="N150" s="55"/>
-      <c r="O150" s="55"/>
-      <c r="P150" s="55"/>
-      <c r="Q150" s="55"/>
-      <c r="R150" s="55"/>
-      <c r="S150" s="55"/>
-      <c r="T150" s="55"/>
-      <c r="U150" s="57" t="s">
-        <v>278</v>
-      </c>
-      <c r="V150" s="55"/>
-      <c r="W150" s="55"/>
-      <c r="X150" s="55"/>
-      <c r="Y150" s="55"/>
-      <c r="Z150" s="55"/>
-      <c r="AA150" s="55"/>
-      <c r="AB150" s="55"/>
-      <c r="AC150" s="55"/>
-      <c r="AD150" s="55"/>
-      <c r="AE150" s="55"/>
-      <c r="AF150" s="54"/>
-      <c r="AG150" s="54"/>
-      <c r="AH150" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="AI150" s="59"/>
-      <c r="AJ150" s="54"/>
-      <c r="AK150" s="19"/>
-      <c r="AL150" s="19"/>
-      <c r="AM150" s="19"/>
+      <c r="A150" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B150" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C150" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D150" s="41"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="41"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="41"/>
+      <c r="J150" s="40"/>
+      <c r="K150" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="L150" s="41"/>
+      <c r="M150" s="40"/>
+      <c r="N150" s="41"/>
+      <c r="O150" s="41"/>
+      <c r="P150" s="41"/>
+      <c r="Q150" s="41"/>
+      <c r="R150" s="40"/>
+      <c r="S150" s="42"/>
+      <c r="T150" s="46"/>
+      <c r="U150" s="46"/>
+      <c r="V150" s="46"/>
+      <c r="W150" s="46"/>
+      <c r="X150" s="46"/>
+      <c r="Y150" s="46"/>
+      <c r="Z150" s="46"/>
+      <c r="AA150" s="46"/>
+      <c r="AB150" s="46"/>
+      <c r="AC150" s="46"/>
+      <c r="AD150" s="46"/>
+      <c r="AE150" s="46"/>
+      <c r="AF150" s="47"/>
+      <c r="AG150" s="47"/>
+      <c r="AH150" s="47"/>
+      <c r="AI150" s="47"/>
+      <c r="AJ150" s="47"/>
+      <c r="AK150" s="47"/>
+      <c r="AL150" s="47"/>
+      <c r="AM150" s="47"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B151" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="C151" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D151" s="55"/>
-      <c r="E151" s="54"/>
-      <c r="F151" s="54"/>
-      <c r="G151" s="55"/>
-      <c r="H151" s="55"/>
-      <c r="I151" s="55"/>
-      <c r="J151" s="55"/>
-      <c r="K151" s="54"/>
-      <c r="L151" s="54"/>
-      <c r="M151" s="55"/>
-      <c r="N151" s="55"/>
-      <c r="O151" s="55"/>
-      <c r="P151" s="55"/>
-      <c r="Q151" s="55"/>
-      <c r="R151" s="55"/>
-      <c r="S151" s="55"/>
-      <c r="T151" s="55"/>
-      <c r="U151" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="V151" s="55"/>
-      <c r="W151" s="55"/>
-      <c r="X151" s="55"/>
-      <c r="Y151" s="55"/>
-      <c r="Z151" s="55"/>
-      <c r="AA151" s="55"/>
-      <c r="AB151" s="55"/>
-      <c r="AC151" s="55"/>
-      <c r="AD151" s="55"/>
-      <c r="AE151" s="55"/>
-      <c r="AF151" s="54"/>
-      <c r="AG151" s="54"/>
-      <c r="AH151" s="54"/>
-      <c r="AI151" s="54"/>
-      <c r="AJ151" s="54"/>
-      <c r="AK151" s="19"/>
-      <c r="AL151" s="19"/>
-      <c r="AM151" s="19"/>
+      <c r="A151" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B151" s="44"/>
+      <c r="C151" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="D151" s="46"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="46"/>
+      <c r="G151" s="46"/>
+      <c r="H151" s="46"/>
+      <c r="I151" s="46"/>
+      <c r="J151" s="44"/>
+      <c r="K151" s="44"/>
+      <c r="L151" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="M151" s="46"/>
+      <c r="N151" s="46"/>
+      <c r="O151" s="46"/>
+      <c r="P151" s="46"/>
+      <c r="Q151" s="46"/>
+      <c r="R151" s="46"/>
+      <c r="S151" s="46"/>
+      <c r="T151" s="46"/>
+      <c r="U151" s="46"/>
+      <c r="V151" s="46"/>
+      <c r="W151" s="46"/>
+      <c r="X151" s="46"/>
+      <c r="Y151" s="46"/>
+      <c r="Z151" s="46"/>
+      <c r="AA151" s="46"/>
+      <c r="AB151" s="46"/>
+      <c r="AC151" s="46"/>
+      <c r="AD151" s="46"/>
+      <c r="AE151" s="46"/>
+      <c r="AF151" s="47"/>
+      <c r="AG151" s="47"/>
+      <c r="AH151" s="47"/>
+      <c r="AI151" s="47"/>
+      <c r="AJ151" s="47"/>
+      <c r="AK151" s="47"/>
+      <c r="AL151" s="47"/>
+      <c r="AM151" s="47"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B152" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="C152" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D152" s="55"/>
-      <c r="E152" s="54"/>
-      <c r="F152" s="54"/>
-      <c r="G152" s="55"/>
-      <c r="H152" s="55"/>
-      <c r="I152" s="55"/>
-      <c r="J152" s="55"/>
-      <c r="K152" s="54"/>
-      <c r="L152" s="54"/>
-      <c r="M152" s="55"/>
-      <c r="N152" s="55"/>
-      <c r="O152" s="55"/>
-      <c r="P152" s="55"/>
-      <c r="Q152" s="55"/>
-      <c r="R152" s="55"/>
-      <c r="S152" s="55"/>
-      <c r="T152" s="55"/>
-      <c r="U152" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="V152" s="55"/>
-      <c r="W152" s="55"/>
-      <c r="X152" s="55"/>
-      <c r="Y152" s="55"/>
-      <c r="Z152" s="55"/>
-      <c r="AA152" s="55"/>
-      <c r="AB152" s="55"/>
-      <c r="AC152" s="55"/>
-      <c r="AD152" s="55"/>
-      <c r="AE152" s="55"/>
-      <c r="AF152" s="54"/>
-      <c r="AG152" s="54"/>
-      <c r="AH152" s="54"/>
-      <c r="AI152" s="54"/>
-      <c r="AJ152" s="54"/>
-      <c r="AK152" s="19"/>
-      <c r="AL152" s="19"/>
-      <c r="AM152" s="19"/>
+      <c r="A152" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B152" s="40"/>
+      <c r="C152" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="D152" s="41"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="41"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="41"/>
+      <c r="J152" s="40"/>
+      <c r="K152" s="42"/>
+      <c r="L152" s="41"/>
+      <c r="M152" s="41"/>
+      <c r="N152" s="41"/>
+      <c r="O152" s="41"/>
+      <c r="P152" s="41"/>
+      <c r="Q152" s="41"/>
+      <c r="R152" s="41"/>
+      <c r="S152" s="41"/>
+      <c r="T152" s="41"/>
+      <c r="U152" s="41"/>
+      <c r="V152" s="41"/>
+      <c r="W152" s="41"/>
+      <c r="X152" s="41"/>
+      <c r="Y152" s="41"/>
+      <c r="Z152" s="41"/>
+      <c r="AA152" s="41"/>
+      <c r="AB152" s="41"/>
+      <c r="AC152" s="41"/>
+      <c r="AD152" s="41"/>
+      <c r="AE152" s="41"/>
+      <c r="AF152" s="43"/>
+      <c r="AG152" s="43"/>
+      <c r="AH152" s="43"/>
+      <c r="AI152" s="43"/>
+      <c r="AJ152" s="43"/>
+      <c r="AK152" s="43"/>
+      <c r="AL152" s="43"/>
+      <c r="AM152" s="43"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B153" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="C153" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D153" s="55"/>
-      <c r="E153" s="54"/>
-      <c r="F153" s="54"/>
-      <c r="G153" s="55"/>
-      <c r="H153" s="55"/>
-      <c r="I153" s="55"/>
-      <c r="J153" s="55"/>
-      <c r="K153" s="54"/>
-      <c r="L153" s="54"/>
-      <c r="M153" s="55"/>
-      <c r="N153" s="55"/>
-      <c r="O153" s="55"/>
-      <c r="P153" s="55"/>
-      <c r="Q153" s="55"/>
-      <c r="R153" s="55"/>
-      <c r="S153" s="55"/>
-      <c r="T153" s="55"/>
-      <c r="U153" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="V153" s="55"/>
-      <c r="W153" s="55"/>
-      <c r="X153" s="55"/>
-      <c r="Y153" s="55"/>
-      <c r="Z153" s="55"/>
-      <c r="AA153" s="55"/>
-      <c r="AB153" s="55"/>
-      <c r="AC153" s="55"/>
-      <c r="AD153" s="55"/>
-      <c r="AE153" s="55"/>
-      <c r="AF153" s="54"/>
-      <c r="AG153" s="54"/>
-      <c r="AH153" s="54"/>
-      <c r="AI153" s="54"/>
-      <c r="AJ153" s="54"/>
-      <c r="AK153" s="19"/>
-      <c r="AL153" s="19"/>
-      <c r="AM153" s="19"/>
+      <c r="A153" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153" s="42"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="40"/>
+      <c r="F153" s="41"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="41"/>
+      <c r="J153" s="40"/>
+      <c r="K153" s="40"/>
+      <c r="L153" s="41"/>
+      <c r="M153" s="41"/>
+      <c r="N153" s="41"/>
+      <c r="O153" s="41"/>
+      <c r="P153" s="41"/>
+      <c r="Q153" s="41"/>
+      <c r="R153" s="41"/>
+      <c r="S153" s="41"/>
+      <c r="T153" s="41"/>
+      <c r="U153" s="41"/>
+      <c r="V153" s="41"/>
+      <c r="W153" s="41"/>
+      <c r="X153" s="41"/>
+      <c r="Y153" s="41"/>
+      <c r="Z153" s="41"/>
+      <c r="AA153" s="41"/>
+      <c r="AB153" s="41"/>
+      <c r="AC153" s="41"/>
+      <c r="AD153" s="41"/>
+      <c r="AE153" s="41"/>
+      <c r="AF153" s="43"/>
+      <c r="AG153" s="43"/>
+      <c r="AH153" s="43"/>
+      <c r="AI153" s="43"/>
+      <c r="AJ153" s="43"/>
+      <c r="AK153" s="43"/>
+      <c r="AL153" s="43"/>
+      <c r="AM153" s="43"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B154" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="C154" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D154" s="55"/>
-      <c r="E154" s="54"/>
-      <c r="F154" s="54"/>
-      <c r="G154" s="55"/>
-      <c r="H154" s="55"/>
-      <c r="I154" s="55"/>
-      <c r="J154" s="55"/>
-      <c r="K154" s="54"/>
-      <c r="L154" s="54"/>
-      <c r="M154" s="55"/>
-      <c r="N154" s="55"/>
-      <c r="O154" s="55"/>
-      <c r="P154" s="55"/>
-      <c r="Q154" s="55"/>
-      <c r="R154" s="55"/>
-      <c r="S154" s="55"/>
-      <c r="T154" s="55"/>
-      <c r="U154" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="V154" s="55"/>
-      <c r="W154" s="55"/>
-      <c r="X154" s="55"/>
-      <c r="Y154" s="55"/>
-      <c r="Z154" s="55"/>
-      <c r="AA154" s="55"/>
-      <c r="AB154" s="55"/>
-      <c r="AC154" s="55"/>
-      <c r="AD154" s="55"/>
-      <c r="AE154" s="55"/>
-      <c r="AF154" s="54"/>
-      <c r="AG154" s="54"/>
-      <c r="AH154" s="54"/>
-      <c r="AI154" s="54"/>
-      <c r="AJ154" s="54"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="10"/>
+      <c r="N154" s="10"/>
+      <c r="O154" s="10"/>
+      <c r="P154" s="10"/>
+      <c r="Q154" s="10"/>
+      <c r="R154" s="10"/>
+      <c r="S154" s="10"/>
+      <c r="T154" s="10"/>
+      <c r="U154" s="10"/>
+      <c r="V154" s="10"/>
+      <c r="W154" s="10"/>
+      <c r="X154" s="10"/>
+      <c r="Y154" s="10"/>
+      <c r="Z154" s="10"/>
+      <c r="AA154" s="10"/>
+      <c r="AB154" s="10"/>
+      <c r="AC154" s="10"/>
+      <c r="AD154" s="10"/>
+      <c r="AE154" s="10"/>
+      <c r="AF154" s="19"/>
+      <c r="AG154" s="19"/>
+      <c r="AH154" s="19"/>
+      <c r="AI154" s="19"/>
+      <c r="AJ154" s="19"/>
       <c r="AK154" s="19"/>
       <c r="AL154" s="19"/>
       <c r="AM154" s="19"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B155" s="56" t="s">
-        <v>288</v>
-      </c>
-      <c r="C155" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D155" s="55"/>
-      <c r="E155" s="54"/>
-      <c r="F155" s="54"/>
-      <c r="G155" s="55"/>
-      <c r="H155" s="55"/>
-      <c r="I155" s="55"/>
-      <c r="J155" s="55"/>
-      <c r="K155" s="54"/>
-      <c r="L155" s="54"/>
-      <c r="M155" s="55"/>
-      <c r="N155" s="55"/>
-      <c r="O155" s="55"/>
-      <c r="P155" s="55"/>
-      <c r="Q155" s="55"/>
-      <c r="R155" s="55"/>
-      <c r="S155" s="55"/>
-      <c r="T155" s="55"/>
-      <c r="U155" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="V155" s="55"/>
-      <c r="W155" s="55"/>
-      <c r="X155" s="55"/>
-      <c r="Y155" s="55"/>
-      <c r="Z155" s="55"/>
-      <c r="AA155" s="55"/>
-      <c r="AB155" s="55"/>
-      <c r="AC155" s="55"/>
-      <c r="AD155" s="55"/>
-      <c r="AE155" s="55"/>
-      <c r="AF155" s="54"/>
-      <c r="AG155" s="54"/>
-      <c r="AH155" s="54"/>
-      <c r="AI155" s="54"/>
-      <c r="AJ155" s="54"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
+      <c r="Q155" s="11"/>
+      <c r="R155" s="11"/>
+      <c r="S155" s="11"/>
+      <c r="T155" s="11"/>
+      <c r="U155" s="11"/>
+      <c r="V155" s="11"/>
+      <c r="W155" s="11"/>
+      <c r="X155" s="11"/>
+      <c r="Y155" s="11"/>
+      <c r="Z155" s="11"/>
+      <c r="AA155" s="11"/>
+      <c r="AB155" s="11"/>
+      <c r="AC155" s="11"/>
+      <c r="AD155" s="11"/>
+      <c r="AE155" s="11"/>
+      <c r="AF155" s="19"/>
+      <c r="AG155" s="19"/>
+      <c r="AH155" s="19"/>
+      <c r="AI155" s="19"/>
+      <c r="AJ155" s="19"/>
       <c r="AK155" s="19"/>
       <c r="AL155" s="19"/>
       <c r="AM155" s="19"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B156" s="61" t="s">
-        <v>290</v>
+      <c r="A156" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" s="53" t="s">
+        <v>318</v>
       </c>
       <c r="C156" s="54" t="s">
         <v>72</v>
@@ -9588,7 +9804,9 @@
       <c r="I156" s="55"/>
       <c r="J156" s="55"/>
       <c r="K156" s="54"/>
-      <c r="L156" s="54"/>
+      <c r="L156" s="54" t="s">
+        <v>39</v>
+      </c>
       <c r="M156" s="55"/>
       <c r="N156" s="55"/>
       <c r="O156" s="55"/>
@@ -9597,9 +9815,7 @@
       <c r="R156" s="55"/>
       <c r="S156" s="55"/>
       <c r="T156" s="55"/>
-      <c r="U156" s="57" t="s">
-        <v>291</v>
-      </c>
+      <c r="U156" s="55"/>
       <c r="V156" s="55"/>
       <c r="W156" s="55"/>
       <c r="X156" s="55"/>
@@ -9610,7 +9826,9 @@
       <c r="AC156" s="55"/>
       <c r="AD156" s="55"/>
       <c r="AE156" s="55"/>
-      <c r="AF156" s="54"/>
+      <c r="AF156" s="54" t="s">
+        <v>39</v>
+      </c>
       <c r="AG156" s="54"/>
       <c r="AH156" s="54"/>
       <c r="AI156" s="54"/>
@@ -9620,11 +9838,11 @@
       <c r="AM156" s="19"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="60" t="s">
+      <c r="A157" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B157" s="61" t="s">
-        <v>292</v>
+      <c r="B157" s="56" t="s">
+        <v>319</v>
       </c>
       <c r="C157" s="54" t="s">
         <v>72</v>
@@ -9647,7 +9865,7 @@
       <c r="S157" s="55"/>
       <c r="T157" s="55"/>
       <c r="U157" s="57" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="V157" s="55"/>
       <c r="W157" s="55"/>
@@ -9661,19 +9879,21 @@
       <c r="AE157" s="55"/>
       <c r="AF157" s="54"/>
       <c r="AG157" s="54"/>
-      <c r="AH157" s="54"/>
-      <c r="AI157" s="54"/>
+      <c r="AH157" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI157" s="59"/>
       <c r="AJ157" s="54"/>
       <c r="AK157" s="19"/>
       <c r="AL157" s="19"/>
       <c r="AM157" s="19"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="60" t="s">
+      <c r="A158" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="61" t="s">
-        <v>294</v>
+      <c r="B158" s="56" t="s">
+        <v>322</v>
       </c>
       <c r="C158" s="54" t="s">
         <v>72</v>
@@ -9696,7 +9916,7 @@
       <c r="S158" s="55"/>
       <c r="T158" s="55"/>
       <c r="U158" s="57" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="V158" s="55"/>
       <c r="W158" s="55"/>
@@ -9718,11 +9938,11 @@
       <c r="AM158" s="19"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="60" t="s">
+      <c r="A159" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B159" s="61" t="s">
-        <v>296</v>
+      <c r="B159" s="56" t="s">
+        <v>324</v>
       </c>
       <c r="C159" s="54" t="s">
         <v>72</v>
@@ -9745,7 +9965,7 @@
       <c r="S159" s="55"/>
       <c r="T159" s="55"/>
       <c r="U159" s="57" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="V159" s="55"/>
       <c r="W159" s="55"/>
@@ -9767,11 +9987,11 @@
       <c r="AM159" s="19"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="60" t="s">
+      <c r="A160" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="61" t="s">
-        <v>298</v>
+      <c r="B160" s="56" t="s">
+        <v>326</v>
       </c>
       <c r="C160" s="54" t="s">
         <v>72</v>
@@ -9794,7 +10014,7 @@
       <c r="S160" s="55"/>
       <c r="T160" s="55"/>
       <c r="U160" s="57" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="V160" s="55"/>
       <c r="W160" s="55"/>
@@ -9816,11 +10036,11 @@
       <c r="AM160" s="19"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="60" t="s">
+      <c r="A161" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B161" s="61" t="s">
-        <v>300</v>
+      <c r="B161" s="56" t="s">
+        <v>328</v>
       </c>
       <c r="C161" s="54" t="s">
         <v>72</v>
@@ -9843,7 +10063,7 @@
       <c r="S161" s="55"/>
       <c r="T161" s="55"/>
       <c r="U161" s="57" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="V161" s="55"/>
       <c r="W161" s="55"/>
@@ -9865,13 +10085,15 @@
       <c r="AM161" s="19"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B162" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="C162" s="54"/>
+      <c r="A162" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B162" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="C162" s="54" t="s">
+        <v>72</v>
+      </c>
       <c r="D162" s="55"/>
       <c r="E162" s="54"/>
       <c r="F162" s="54"/>
@@ -9889,7 +10111,9 @@
       <c r="R162" s="55"/>
       <c r="S162" s="55"/>
       <c r="T162" s="55"/>
-      <c r="U162" s="55"/>
+      <c r="U162" s="57" t="s">
+        <v>331</v>
+      </c>
       <c r="V162" s="55"/>
       <c r="W162" s="55"/>
       <c r="X162" s="55"/>
@@ -9910,287 +10134,338 @@
       <c r="AM162" s="19"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="18"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="10"/>
-      <c r="N163" s="10"/>
-      <c r="O163" s="10"/>
-      <c r="P163" s="10"/>
-      <c r="Q163" s="10"/>
-      <c r="R163" s="10"/>
-      <c r="S163" s="10"/>
-      <c r="T163" s="10"/>
-      <c r="V163" s="10"/>
-      <c r="W163" s="10"/>
-      <c r="X163" s="10"/>
-      <c r="Y163" s="10"/>
-      <c r="Z163" s="10"/>
-      <c r="AA163" s="10"/>
-      <c r="AB163" s="10"/>
-      <c r="AC163" s="10"/>
-      <c r="AD163" s="10"/>
-      <c r="AE163" s="10"/>
-      <c r="AF163" s="19"/>
-      <c r="AG163" s="19"/>
-      <c r="AH163" s="19"/>
-      <c r="AI163" s="19"/>
-      <c r="AJ163" s="19"/>
+      <c r="A163" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B163" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="C163" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D163" s="55"/>
+      <c r="E163" s="54"/>
+      <c r="F163" s="54"/>
+      <c r="G163" s="55"/>
+      <c r="H163" s="55"/>
+      <c r="I163" s="55"/>
+      <c r="J163" s="55"/>
+      <c r="K163" s="54"/>
+      <c r="L163" s="54"/>
+      <c r="M163" s="55"/>
+      <c r="N163" s="55"/>
+      <c r="O163" s="55"/>
+      <c r="P163" s="55"/>
+      <c r="Q163" s="55"/>
+      <c r="R163" s="55"/>
+      <c r="S163" s="55"/>
+      <c r="T163" s="55"/>
+      <c r="U163" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="V163" s="55"/>
+      <c r="W163" s="55"/>
+      <c r="X163" s="55"/>
+      <c r="Y163" s="55"/>
+      <c r="Z163" s="55"/>
+      <c r="AA163" s="55"/>
+      <c r="AB163" s="55"/>
+      <c r="AC163" s="55"/>
+      <c r="AD163" s="55"/>
+      <c r="AE163" s="55"/>
+      <c r="AF163" s="54"/>
+      <c r="AG163" s="54"/>
+      <c r="AH163" s="54"/>
+      <c r="AI163" s="54"/>
+      <c r="AJ163" s="54"/>
       <c r="AK163" s="19"/>
       <c r="AL163" s="19"/>
       <c r="AM163" s="19"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="10"/>
-      <c r="K164" s="18"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="10"/>
-      <c r="N164" s="10"/>
-      <c r="O164" s="10"/>
-      <c r="P164" s="10"/>
-      <c r="Q164" s="10"/>
-      <c r="R164" s="10"/>
-      <c r="S164" s="10"/>
-      <c r="T164" s="10"/>
-      <c r="U164" s="10"/>
-      <c r="V164" s="10"/>
-      <c r="W164" s="10"/>
-      <c r="X164" s="10"/>
-      <c r="Y164" s="10"/>
-      <c r="Z164" s="10"/>
-      <c r="AA164" s="10"/>
-      <c r="AB164" s="10"/>
-      <c r="AC164" s="10"/>
-      <c r="AD164" s="10"/>
-      <c r="AE164" s="10"/>
-      <c r="AF164" s="19"/>
-      <c r="AG164" s="19"/>
-      <c r="AH164" s="19"/>
-      <c r="AI164" s="19"/>
-      <c r="AJ164" s="19"/>
+      <c r="A164" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B164" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="C164" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D164" s="55"/>
+      <c r="E164" s="54"/>
+      <c r="F164" s="54"/>
+      <c r="G164" s="55"/>
+      <c r="H164" s="55"/>
+      <c r="I164" s="55"/>
+      <c r="J164" s="55"/>
+      <c r="K164" s="54"/>
+      <c r="L164" s="54"/>
+      <c r="M164" s="55"/>
+      <c r="N164" s="55"/>
+      <c r="O164" s="55"/>
+      <c r="P164" s="55"/>
+      <c r="Q164" s="55"/>
+      <c r="R164" s="55"/>
+      <c r="S164" s="55"/>
+      <c r="T164" s="55"/>
+      <c r="U164" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="V164" s="55"/>
+      <c r="W164" s="55"/>
+      <c r="X164" s="55"/>
+      <c r="Y164" s="55"/>
+      <c r="Z164" s="55"/>
+      <c r="AA164" s="55"/>
+      <c r="AB164" s="55"/>
+      <c r="AC164" s="55"/>
+      <c r="AD164" s="55"/>
+      <c r="AE164" s="55"/>
+      <c r="AF164" s="54"/>
+      <c r="AG164" s="54"/>
+      <c r="AH164" s="54"/>
+      <c r="AI164" s="54"/>
+      <c r="AJ164" s="54"/>
       <c r="AK164" s="19"/>
       <c r="AL164" s="19"/>
       <c r="AM164" s="19"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="10"/>
-      <c r="I165" s="10"/>
-      <c r="J165" s="10"/>
-      <c r="K165" s="18"/>
-      <c r="L165" s="18"/>
-      <c r="M165" s="10"/>
-      <c r="N165" s="10"/>
-      <c r="O165" s="10"/>
-      <c r="P165" s="10"/>
-      <c r="Q165" s="10"/>
-      <c r="R165" s="10"/>
-      <c r="S165" s="10"/>
-      <c r="T165" s="10"/>
-      <c r="U165" s="10"/>
-      <c r="V165" s="10"/>
-      <c r="W165" s="10"/>
-      <c r="X165" s="10"/>
-      <c r="Y165" s="10"/>
-      <c r="Z165" s="10"/>
-      <c r="AA165" s="10"/>
-      <c r="AB165" s="10"/>
-      <c r="AC165" s="10"/>
-      <c r="AD165" s="10"/>
-      <c r="AE165" s="10"/>
-      <c r="AF165" s="19"/>
-      <c r="AG165" s="19"/>
-      <c r="AH165" s="19"/>
-      <c r="AI165" s="19"/>
-      <c r="AJ165" s="19"/>
+      <c r="A165" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B165" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C165" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D165" s="55"/>
+      <c r="E165" s="54"/>
+      <c r="F165" s="54"/>
+      <c r="G165" s="55"/>
+      <c r="H165" s="55"/>
+      <c r="I165" s="55"/>
+      <c r="J165" s="55"/>
+      <c r="K165" s="54"/>
+      <c r="L165" s="54"/>
+      <c r="M165" s="55"/>
+      <c r="N165" s="55"/>
+      <c r="O165" s="55"/>
+      <c r="P165" s="55"/>
+      <c r="Q165" s="55"/>
+      <c r="R165" s="55"/>
+      <c r="S165" s="55"/>
+      <c r="T165" s="55"/>
+      <c r="U165" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="V165" s="55"/>
+      <c r="W165" s="55"/>
+      <c r="X165" s="55"/>
+      <c r="Y165" s="55"/>
+      <c r="Z165" s="55"/>
+      <c r="AA165" s="55"/>
+      <c r="AB165" s="55"/>
+      <c r="AC165" s="55"/>
+      <c r="AD165" s="55"/>
+      <c r="AE165" s="55"/>
+      <c r="AF165" s="54"/>
+      <c r="AG165" s="54"/>
+      <c r="AH165" s="54"/>
+      <c r="AI165" s="54"/>
+      <c r="AJ165" s="54"/>
       <c r="AK165" s="19"/>
       <c r="AL165" s="19"/>
       <c r="AM165" s="19"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="18"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="10"/>
-      <c r="I166" s="10"/>
-      <c r="J166" s="10"/>
-      <c r="K166" s="18"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="10"/>
-      <c r="N166" s="10"/>
-      <c r="O166" s="10"/>
-      <c r="P166" s="10"/>
-      <c r="Q166" s="10"/>
-      <c r="R166" s="10"/>
-      <c r="S166" s="10"/>
-      <c r="T166" s="10"/>
-      <c r="U166" s="10"/>
-      <c r="V166" s="10"/>
-      <c r="W166" s="10"/>
-      <c r="X166" s="10"/>
-      <c r="Y166" s="10"/>
-      <c r="Z166" s="10"/>
-      <c r="AA166" s="10"/>
-      <c r="AB166" s="10"/>
-      <c r="AC166" s="10"/>
-      <c r="AD166" s="10"/>
-      <c r="AE166" s="10"/>
-      <c r="AF166" s="19"/>
-      <c r="AG166" s="19"/>
-      <c r="AH166" s="19"/>
-      <c r="AI166" s="19"/>
-      <c r="AJ166" s="19"/>
+      <c r="A166" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B166" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="C166" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D166" s="55"/>
+      <c r="E166" s="54"/>
+      <c r="F166" s="54"/>
+      <c r="G166" s="55"/>
+      <c r="H166" s="55"/>
+      <c r="I166" s="55"/>
+      <c r="J166" s="55"/>
+      <c r="K166" s="54"/>
+      <c r="L166" s="54"/>
+      <c r="M166" s="55"/>
+      <c r="N166" s="55"/>
+      <c r="O166" s="55"/>
+      <c r="P166" s="55"/>
+      <c r="Q166" s="55"/>
+      <c r="R166" s="55"/>
+      <c r="S166" s="55"/>
+      <c r="T166" s="55"/>
+      <c r="U166" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="V166" s="55"/>
+      <c r="W166" s="55"/>
+      <c r="X166" s="55"/>
+      <c r="Y166" s="55"/>
+      <c r="Z166" s="55"/>
+      <c r="AA166" s="55"/>
+      <c r="AB166" s="55"/>
+      <c r="AC166" s="55"/>
+      <c r="AD166" s="55"/>
+      <c r="AE166" s="55"/>
+      <c r="AF166" s="54"/>
+      <c r="AG166" s="54"/>
+      <c r="AH166" s="54"/>
+      <c r="AI166" s="54"/>
+      <c r="AJ166" s="54"/>
       <c r="AK166" s="19"/>
       <c r="AL166" s="19"/>
       <c r="AM166" s="19"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="18"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="10"/>
-      <c r="J167" s="10"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="10"/>
-      <c r="N167" s="10"/>
-      <c r="O167" s="10"/>
-      <c r="P167" s="10"/>
-      <c r="Q167" s="10"/>
-      <c r="R167" s="10"/>
-      <c r="S167" s="10"/>
-      <c r="T167" s="10"/>
-      <c r="U167" s="10"/>
-      <c r="V167" s="10"/>
-      <c r="W167" s="10"/>
-      <c r="X167" s="10"/>
-      <c r="Y167" s="10"/>
-      <c r="Z167" s="10"/>
-      <c r="AA167" s="10"/>
-      <c r="AB167" s="10"/>
-      <c r="AC167" s="10"/>
-      <c r="AD167" s="10"/>
-      <c r="AE167" s="10"/>
-      <c r="AF167" s="19"/>
-      <c r="AG167" s="19"/>
-      <c r="AH167" s="19"/>
-      <c r="AI167" s="19"/>
-      <c r="AJ167" s="19"/>
+      <c r="A167" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B167" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C167" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D167" s="55"/>
+      <c r="E167" s="54"/>
+      <c r="F167" s="54"/>
+      <c r="G167" s="55"/>
+      <c r="H167" s="55"/>
+      <c r="I167" s="55"/>
+      <c r="J167" s="55"/>
+      <c r="K167" s="54"/>
+      <c r="L167" s="54"/>
+      <c r="M167" s="55"/>
+      <c r="N167" s="55"/>
+      <c r="O167" s="55"/>
+      <c r="P167" s="55"/>
+      <c r="Q167" s="55"/>
+      <c r="R167" s="55"/>
+      <c r="S167" s="55"/>
+      <c r="T167" s="55"/>
+      <c r="U167" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="V167" s="55"/>
+      <c r="W167" s="55"/>
+      <c r="X167" s="55"/>
+      <c r="Y167" s="55"/>
+      <c r="Z167" s="55"/>
+      <c r="AA167" s="55"/>
+      <c r="AB167" s="55"/>
+      <c r="AC167" s="55"/>
+      <c r="AD167" s="55"/>
+      <c r="AE167" s="55"/>
+      <c r="AF167" s="54"/>
+      <c r="AG167" s="54"/>
+      <c r="AH167" s="54"/>
+      <c r="AI167" s="54"/>
+      <c r="AJ167" s="54"/>
       <c r="AK167" s="19"/>
       <c r="AL167" s="19"/>
       <c r="AM167" s="19"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="18"/>
-      <c r="B168" s="18"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="10"/>
-      <c r="H168" s="10"/>
-      <c r="I168" s="10"/>
-      <c r="J168" s="10"/>
-      <c r="K168" s="18"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="10"/>
-      <c r="N168" s="10"/>
-      <c r="O168" s="10"/>
-      <c r="P168" s="10"/>
-      <c r="Q168" s="10"/>
-      <c r="R168" s="10"/>
-      <c r="S168" s="10"/>
-      <c r="T168" s="10"/>
-      <c r="U168" s="10"/>
-      <c r="V168" s="10"/>
-      <c r="W168" s="10"/>
-      <c r="X168" s="10"/>
-      <c r="Y168" s="10"/>
-      <c r="Z168" s="10"/>
-      <c r="AA168" s="10"/>
-      <c r="AB168" s="10"/>
-      <c r="AC168" s="10"/>
-      <c r="AD168" s="10"/>
-      <c r="AE168" s="10"/>
-      <c r="AF168" s="19"/>
-      <c r="AG168" s="19"/>
-      <c r="AH168" s="19"/>
-      <c r="AI168" s="19"/>
-      <c r="AJ168" s="19"/>
+      <c r="A168" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B168" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="C168" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D168" s="55"/>
+      <c r="E168" s="54"/>
+      <c r="F168" s="54"/>
+      <c r="G168" s="55"/>
+      <c r="H168" s="55"/>
+      <c r="I168" s="55"/>
+      <c r="J168" s="55"/>
+      <c r="K168" s="54"/>
+      <c r="L168" s="54"/>
+      <c r="M168" s="55"/>
+      <c r="N168" s="55"/>
+      <c r="O168" s="55"/>
+      <c r="P168" s="55"/>
+      <c r="Q168" s="55"/>
+      <c r="R168" s="55"/>
+      <c r="S168" s="55"/>
+      <c r="T168" s="55"/>
+      <c r="U168" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="V168" s="55"/>
+      <c r="W168" s="55"/>
+      <c r="X168" s="55"/>
+      <c r="Y168" s="55"/>
+      <c r="Z168" s="55"/>
+      <c r="AA168" s="55"/>
+      <c r="AB168" s="55"/>
+      <c r="AC168" s="55"/>
+      <c r="AD168" s="55"/>
+      <c r="AE168" s="55"/>
+      <c r="AF168" s="54"/>
+      <c r="AG168" s="54"/>
+      <c r="AH168" s="54"/>
+      <c r="AI168" s="54"/>
+      <c r="AJ168" s="54"/>
       <c r="AK168" s="19"/>
       <c r="AL168" s="19"/>
       <c r="AM168" s="19"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="18"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="10"/>
-      <c r="I169" s="10"/>
-      <c r="J169" s="10"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="10"/>
-      <c r="N169" s="10"/>
-      <c r="O169" s="10"/>
-      <c r="P169" s="10"/>
-      <c r="Q169" s="10"/>
-      <c r="R169" s="10"/>
-      <c r="S169" s="10"/>
-      <c r="T169" s="10"/>
-      <c r="U169" s="10"/>
-      <c r="V169" s="10"/>
-      <c r="W169" s="10"/>
-      <c r="X169" s="10"/>
-      <c r="Y169" s="10"/>
-      <c r="Z169" s="10"/>
-      <c r="AA169" s="10"/>
-      <c r="AB169" s="10"/>
-      <c r="AC169" s="10"/>
-      <c r="AD169" s="10"/>
-      <c r="AE169" s="10"/>
-      <c r="AF169" s="19"/>
-      <c r="AG169" s="19"/>
-      <c r="AH169" s="19"/>
-      <c r="AI169" s="19"/>
-      <c r="AJ169" s="19"/>
+      <c r="A169" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B169" s="60"/>
+      <c r="C169" s="54"/>
+      <c r="D169" s="55"/>
+      <c r="E169" s="54"/>
+      <c r="F169" s="54"/>
+      <c r="G169" s="55"/>
+      <c r="H169" s="55"/>
+      <c r="I169" s="55"/>
+      <c r="J169" s="55"/>
+      <c r="K169" s="54"/>
+      <c r="L169" s="54"/>
+      <c r="M169" s="55"/>
+      <c r="N169" s="55"/>
+      <c r="O169" s="55"/>
+      <c r="P169" s="55"/>
+      <c r="Q169" s="55"/>
+      <c r="R169" s="55"/>
+      <c r="S169" s="55"/>
+      <c r="T169" s="55"/>
+      <c r="U169" s="55"/>
+      <c r="V169" s="55"/>
+      <c r="W169" s="55"/>
+      <c r="X169" s="55"/>
+      <c r="Y169" s="55"/>
+      <c r="Z169" s="55"/>
+      <c r="AA169" s="55"/>
+      <c r="AB169" s="55"/>
+      <c r="AC169" s="55"/>
+      <c r="AD169" s="55"/>
+      <c r="AE169" s="55"/>
+      <c r="AF169" s="54"/>
+      <c r="AG169" s="54"/>
+      <c r="AH169" s="54"/>
+      <c r="AI169" s="54"/>
+      <c r="AJ169" s="54"/>
       <c r="AK169" s="19"/>
       <c r="AL169" s="19"/>
       <c r="AM169" s="19"/>
@@ -10216,7 +10491,6 @@
       <c r="R170" s="10"/>
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
-      <c r="U170" s="10"/>
       <c r="V170" s="10"/>
       <c r="W170" s="10"/>
       <c r="X170" s="10"/>
@@ -10319,39 +10593,39 @@
       <c r="AM172" s="19"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="62"/>
-      <c r="B173" s="62"/>
-      <c r="C173" s="62"/>
-      <c r="D173" s="63"/>
-      <c r="E173" s="62"/>
-      <c r="F173" s="62"/>
-      <c r="G173" s="63"/>
-      <c r="H173" s="63"/>
-      <c r="I173" s="63"/>
-      <c r="J173" s="63"/>
-      <c r="K173" s="62"/>
-      <c r="L173" s="62"/>
-      <c r="M173" s="63"/>
-      <c r="N173" s="63"/>
-      <c r="O173" s="63"/>
-      <c r="P173" s="63"/>
-      <c r="Q173" s="63"/>
-      <c r="R173" s="63"/>
-      <c r="S173" s="63"/>
-      <c r="T173" s="63"/>
-      <c r="U173" s="63"/>
-      <c r="V173" s="63"/>
-      <c r="W173" s="63"/>
-      <c r="X173" s="63"/>
-      <c r="Y173" s="63"/>
-      <c r="Z173" s="63"/>
-      <c r="AA173" s="63"/>
-      <c r="AB173" s="63"/>
-      <c r="AC173" s="63"/>
-      <c r="AD173" s="63"/>
-      <c r="AE173" s="63"/>
-      <c r="AF173" s="64"/>
-      <c r="AG173" s="64"/>
+      <c r="A173" s="18"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="10"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="10"/>
+      <c r="N173" s="10"/>
+      <c r="O173" s="10"/>
+      <c r="P173" s="10"/>
+      <c r="Q173" s="10"/>
+      <c r="R173" s="10"/>
+      <c r="S173" s="10"/>
+      <c r="T173" s="10"/>
+      <c r="U173" s="10"/>
+      <c r="V173" s="10"/>
+      <c r="W173" s="10"/>
+      <c r="X173" s="10"/>
+      <c r="Y173" s="10"/>
+      <c r="Z173" s="10"/>
+      <c r="AA173" s="10"/>
+      <c r="AB173" s="10"/>
+      <c r="AC173" s="10"/>
+      <c r="AD173" s="10"/>
+      <c r="AE173" s="10"/>
+      <c r="AF173" s="19"/>
+      <c r="AG173" s="19"/>
       <c r="AH173" s="19"/>
       <c r="AI173" s="19"/>
       <c r="AJ173" s="19"/>
@@ -10360,39 +10634,39 @@
       <c r="AM173" s="19"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="62"/>
-      <c r="B174" s="62"/>
-      <c r="C174" s="62"/>
-      <c r="D174" s="63"/>
-      <c r="E174" s="62"/>
-      <c r="F174" s="62"/>
-      <c r="G174" s="63"/>
-      <c r="H174" s="63"/>
-      <c r="I174" s="63"/>
-      <c r="J174" s="63"/>
-      <c r="K174" s="62"/>
-      <c r="L174" s="62"/>
-      <c r="M174" s="63"/>
-      <c r="N174" s="63"/>
-      <c r="O174" s="63"/>
-      <c r="P174" s="63"/>
-      <c r="Q174" s="63"/>
-      <c r="R174" s="63"/>
-      <c r="S174" s="63"/>
-      <c r="T174" s="63"/>
-      <c r="U174" s="63"/>
-      <c r="V174" s="63"/>
-      <c r="W174" s="63"/>
-      <c r="X174" s="63"/>
-      <c r="Y174" s="63"/>
-      <c r="Z174" s="63"/>
-      <c r="AA174" s="63"/>
-      <c r="AB174" s="63"/>
-      <c r="AC174" s="63"/>
-      <c r="AD174" s="63"/>
-      <c r="AE174" s="63"/>
-      <c r="AF174" s="64"/>
-      <c r="AG174" s="64"/>
+      <c r="A174" s="18"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="18"/>
+      <c r="L174" s="18"/>
+      <c r="M174" s="10"/>
+      <c r="N174" s="10"/>
+      <c r="O174" s="10"/>
+      <c r="P174" s="10"/>
+      <c r="Q174" s="10"/>
+      <c r="R174" s="10"/>
+      <c r="S174" s="10"/>
+      <c r="T174" s="10"/>
+      <c r="U174" s="10"/>
+      <c r="V174" s="10"/>
+      <c r="W174" s="10"/>
+      <c r="X174" s="10"/>
+      <c r="Y174" s="10"/>
+      <c r="Z174" s="10"/>
+      <c r="AA174" s="10"/>
+      <c r="AB174" s="10"/>
+      <c r="AC174" s="10"/>
+      <c r="AD174" s="10"/>
+      <c r="AE174" s="10"/>
+      <c r="AF174" s="19"/>
+      <c r="AG174" s="19"/>
       <c r="AH174" s="19"/>
       <c r="AI174" s="19"/>
       <c r="AJ174" s="19"/>
@@ -10401,39 +10675,39 @@
       <c r="AM174" s="19"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="62"/>
-      <c r="B175" s="62"/>
-      <c r="C175" s="62"/>
-      <c r="D175" s="63"/>
-      <c r="E175" s="62"/>
-      <c r="F175" s="62"/>
-      <c r="G175" s="63"/>
-      <c r="H175" s="63"/>
-      <c r="I175" s="63"/>
-      <c r="J175" s="63"/>
-      <c r="K175" s="62"/>
-      <c r="L175" s="62"/>
-      <c r="M175" s="63"/>
-      <c r="N175" s="63"/>
-      <c r="O175" s="63"/>
-      <c r="P175" s="63"/>
-      <c r="Q175" s="63"/>
-      <c r="R175" s="63"/>
-      <c r="S175" s="63"/>
-      <c r="T175" s="63"/>
-      <c r="U175" s="63"/>
-      <c r="V175" s="63"/>
-      <c r="W175" s="63"/>
-      <c r="X175" s="63"/>
-      <c r="Y175" s="63"/>
-      <c r="Z175" s="63"/>
-      <c r="AA175" s="63"/>
-      <c r="AB175" s="63"/>
-      <c r="AC175" s="63"/>
-      <c r="AD175" s="63"/>
-      <c r="AE175" s="63"/>
-      <c r="AF175" s="64"/>
-      <c r="AG175" s="64"/>
+      <c r="A175" s="18"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="10"/>
+      <c r="K175" s="18"/>
+      <c r="L175" s="18"/>
+      <c r="M175" s="10"/>
+      <c r="N175" s="10"/>
+      <c r="O175" s="10"/>
+      <c r="P175" s="10"/>
+      <c r="Q175" s="10"/>
+      <c r="R175" s="10"/>
+      <c r="S175" s="10"/>
+      <c r="T175" s="10"/>
+      <c r="U175" s="10"/>
+      <c r="V175" s="10"/>
+      <c r="W175" s="10"/>
+      <c r="X175" s="10"/>
+      <c r="Y175" s="10"/>
+      <c r="Z175" s="10"/>
+      <c r="AA175" s="10"/>
+      <c r="AB175" s="10"/>
+      <c r="AC175" s="10"/>
+      <c r="AD175" s="10"/>
+      <c r="AE175" s="10"/>
+      <c r="AF175" s="19"/>
+      <c r="AG175" s="19"/>
       <c r="AH175" s="19"/>
       <c r="AI175" s="19"/>
       <c r="AJ175" s="19"/>
@@ -10442,39 +10716,39 @@
       <c r="AM175" s="19"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="62"/>
-      <c r="B176" s="62"/>
-      <c r="C176" s="62"/>
-      <c r="D176" s="63"/>
-      <c r="E176" s="62"/>
-      <c r="F176" s="62"/>
-      <c r="G176" s="63"/>
-      <c r="H176" s="63"/>
-      <c r="I176" s="63"/>
-      <c r="J176" s="63"/>
-      <c r="K176" s="63"/>
-      <c r="L176" s="62"/>
-      <c r="M176" s="63"/>
-      <c r="N176" s="63"/>
-      <c r="O176" s="63"/>
-      <c r="P176" s="63"/>
-      <c r="Q176" s="63"/>
-      <c r="R176" s="63"/>
-      <c r="S176" s="63"/>
-      <c r="T176" s="63"/>
-      <c r="U176" s="63"/>
-      <c r="V176" s="63"/>
-      <c r="W176" s="63"/>
-      <c r="X176" s="63"/>
-      <c r="Y176" s="63"/>
-      <c r="Z176" s="63"/>
-      <c r="AA176" s="63"/>
-      <c r="AB176" s="63"/>
-      <c r="AC176" s="63"/>
-      <c r="AD176" s="63"/>
-      <c r="AE176" s="63"/>
-      <c r="AF176" s="64"/>
-      <c r="AG176" s="64"/>
+      <c r="A176" s="18"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="10"/>
+      <c r="K176" s="18"/>
+      <c r="L176" s="18"/>
+      <c r="M176" s="10"/>
+      <c r="N176" s="10"/>
+      <c r="O176" s="10"/>
+      <c r="P176" s="10"/>
+      <c r="Q176" s="10"/>
+      <c r="R176" s="10"/>
+      <c r="S176" s="10"/>
+      <c r="T176" s="10"/>
+      <c r="U176" s="10"/>
+      <c r="V176" s="10"/>
+      <c r="W176" s="10"/>
+      <c r="X176" s="10"/>
+      <c r="Y176" s="10"/>
+      <c r="Z176" s="10"/>
+      <c r="AA176" s="10"/>
+      <c r="AB176" s="10"/>
+      <c r="AC176" s="10"/>
+      <c r="AD176" s="10"/>
+      <c r="AE176" s="10"/>
+      <c r="AF176" s="19"/>
+      <c r="AG176" s="19"/>
       <c r="AH176" s="19"/>
       <c r="AI176" s="19"/>
       <c r="AJ176" s="19"/>
@@ -10483,39 +10757,39 @@
       <c r="AM176" s="19"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="65"/>
-      <c r="B177" s="65"/>
-      <c r="C177" s="65"/>
-      <c r="D177" s="66"/>
-      <c r="E177" s="65"/>
-      <c r="F177" s="65"/>
-      <c r="G177" s="66"/>
-      <c r="H177" s="66"/>
-      <c r="I177" s="66"/>
-      <c r="J177" s="66"/>
-      <c r="K177" s="66"/>
-      <c r="L177" s="65"/>
-      <c r="M177" s="63"/>
-      <c r="N177" s="63"/>
-      <c r="O177" s="63"/>
-      <c r="P177" s="63"/>
-      <c r="Q177" s="63"/>
-      <c r="R177" s="63"/>
-      <c r="S177" s="63"/>
-      <c r="T177" s="63"/>
-      <c r="U177" s="63"/>
-      <c r="V177" s="63"/>
-      <c r="W177" s="63"/>
-      <c r="X177" s="63"/>
-      <c r="Y177" s="63"/>
-      <c r="Z177" s="63"/>
-      <c r="AA177" s="63"/>
-      <c r="AB177" s="63"/>
-      <c r="AC177" s="63"/>
-      <c r="AD177" s="63"/>
-      <c r="AE177" s="63"/>
-      <c r="AF177" s="64"/>
-      <c r="AG177" s="64"/>
+      <c r="A177" s="18"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="10"/>
+      <c r="K177" s="18"/>
+      <c r="L177" s="18"/>
+      <c r="M177" s="10"/>
+      <c r="N177" s="10"/>
+      <c r="O177" s="10"/>
+      <c r="P177" s="10"/>
+      <c r="Q177" s="10"/>
+      <c r="R177" s="10"/>
+      <c r="S177" s="10"/>
+      <c r="T177" s="10"/>
+      <c r="U177" s="10"/>
+      <c r="V177" s="10"/>
+      <c r="W177" s="10"/>
+      <c r="X177" s="10"/>
+      <c r="Y177" s="10"/>
+      <c r="Z177" s="10"/>
+      <c r="AA177" s="10"/>
+      <c r="AB177" s="10"/>
+      <c r="AC177" s="10"/>
+      <c r="AD177" s="10"/>
+      <c r="AE177" s="10"/>
+      <c r="AF177" s="19"/>
+      <c r="AG177" s="19"/>
       <c r="AH177" s="19"/>
       <c r="AI177" s="19"/>
       <c r="AJ177" s="19"/>
@@ -10524,39 +10798,39 @@
       <c r="AM177" s="19"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="62"/>
-      <c r="B178" s="62"/>
-      <c r="C178" s="62"/>
-      <c r="D178" s="63"/>
-      <c r="E178" s="62"/>
-      <c r="F178" s="62"/>
-      <c r="G178" s="63"/>
-      <c r="H178" s="63"/>
-      <c r="I178" s="63"/>
-      <c r="J178" s="63"/>
-      <c r="K178" s="62"/>
-      <c r="L178" s="62"/>
-      <c r="M178" s="63"/>
-      <c r="N178" s="63"/>
-      <c r="O178" s="63"/>
-      <c r="P178" s="63"/>
-      <c r="Q178" s="63"/>
-      <c r="R178" s="63"/>
-      <c r="S178" s="63"/>
-      <c r="T178" s="63"/>
-      <c r="U178" s="63"/>
-      <c r="V178" s="63"/>
-      <c r="W178" s="63"/>
-      <c r="X178" s="63"/>
-      <c r="Y178" s="63"/>
-      <c r="Z178" s="63"/>
-      <c r="AA178" s="63"/>
-      <c r="AB178" s="63"/>
-      <c r="AC178" s="63"/>
-      <c r="AD178" s="63"/>
-      <c r="AE178" s="63"/>
-      <c r="AF178" s="64"/>
-      <c r="AG178" s="64"/>
+      <c r="A178" s="18"/>
+      <c r="B178" s="18"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="10"/>
+      <c r="K178" s="18"/>
+      <c r="L178" s="18"/>
+      <c r="M178" s="10"/>
+      <c r="N178" s="10"/>
+      <c r="O178" s="10"/>
+      <c r="P178" s="10"/>
+      <c r="Q178" s="10"/>
+      <c r="R178" s="10"/>
+      <c r="S178" s="10"/>
+      <c r="T178" s="10"/>
+      <c r="U178" s="10"/>
+      <c r="V178" s="10"/>
+      <c r="W178" s="10"/>
+      <c r="X178" s="10"/>
+      <c r="Y178" s="10"/>
+      <c r="Z178" s="10"/>
+      <c r="AA178" s="10"/>
+      <c r="AB178" s="10"/>
+      <c r="AC178" s="10"/>
+      <c r="AD178" s="10"/>
+      <c r="AE178" s="10"/>
+      <c r="AF178" s="19"/>
+      <c r="AG178" s="19"/>
       <c r="AH178" s="19"/>
       <c r="AI178" s="19"/>
       <c r="AJ178" s="19"/>
@@ -10565,39 +10839,39 @@
       <c r="AM178" s="19"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="62"/>
-      <c r="B179" s="62"/>
-      <c r="C179" s="62"/>
-      <c r="D179" s="63"/>
-      <c r="E179" s="62"/>
-      <c r="F179" s="62"/>
-      <c r="G179" s="63"/>
-      <c r="H179" s="63"/>
-      <c r="I179" s="63"/>
-      <c r="J179" s="63"/>
-      <c r="K179" s="62"/>
-      <c r="L179" s="62"/>
-      <c r="M179" s="63"/>
-      <c r="N179" s="63"/>
-      <c r="O179" s="63"/>
-      <c r="P179" s="63"/>
-      <c r="Q179" s="63"/>
-      <c r="R179" s="63"/>
-      <c r="S179" s="63"/>
-      <c r="T179" s="63"/>
-      <c r="U179" s="63"/>
-      <c r="V179" s="63"/>
-      <c r="W179" s="63"/>
-      <c r="X179" s="63"/>
-      <c r="Y179" s="63"/>
-      <c r="Z179" s="63"/>
-      <c r="AA179" s="63"/>
-      <c r="AB179" s="63"/>
-      <c r="AC179" s="63"/>
-      <c r="AD179" s="63"/>
-      <c r="AE179" s="63"/>
-      <c r="AF179" s="64"/>
-      <c r="AG179" s="64"/>
+      <c r="A179" s="18"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="10"/>
+      <c r="N179" s="10"/>
+      <c r="O179" s="10"/>
+      <c r="P179" s="10"/>
+      <c r="Q179" s="10"/>
+      <c r="R179" s="10"/>
+      <c r="S179" s="10"/>
+      <c r="T179" s="10"/>
+      <c r="U179" s="10"/>
+      <c r="V179" s="10"/>
+      <c r="W179" s="10"/>
+      <c r="X179" s="10"/>
+      <c r="Y179" s="10"/>
+      <c r="Z179" s="10"/>
+      <c r="AA179" s="10"/>
+      <c r="AB179" s="10"/>
+      <c r="AC179" s="10"/>
+      <c r="AD179" s="10"/>
+      <c r="AE179" s="10"/>
+      <c r="AF179" s="19"/>
+      <c r="AG179" s="19"/>
       <c r="AH179" s="19"/>
       <c r="AI179" s="19"/>
       <c r="AJ179" s="19"/>
@@ -10739,7 +11013,7 @@
       <c r="H183" s="63"/>
       <c r="I183" s="63"/>
       <c r="J183" s="63"/>
-      <c r="K183" s="62"/>
+      <c r="K183" s="63"/>
       <c r="L183" s="62"/>
       <c r="M183" s="63"/>
       <c r="N183" s="63"/>
@@ -10770,18 +11044,18 @@
       <c r="AM183" s="19"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="62"/>
-      <c r="B184" s="62"/>
-      <c r="C184" s="62"/>
-      <c r="D184" s="63"/>
-      <c r="E184" s="62"/>
-      <c r="F184" s="62"/>
-      <c r="G184" s="63"/>
-      <c r="H184" s="63"/>
-      <c r="I184" s="63"/>
-      <c r="J184" s="63"/>
-      <c r="K184" s="62"/>
-      <c r="L184" s="62"/>
+      <c r="A184" s="65"/>
+      <c r="B184" s="65"/>
+      <c r="C184" s="65"/>
+      <c r="D184" s="66"/>
+      <c r="E184" s="65"/>
+      <c r="F184" s="65"/>
+      <c r="G184" s="66"/>
+      <c r="H184" s="66"/>
+      <c r="I184" s="66"/>
+      <c r="J184" s="66"/>
+      <c r="K184" s="66"/>
+      <c r="L184" s="65"/>
       <c r="M184" s="63"/>
       <c r="N184" s="63"/>
       <c r="O184" s="63"/>
@@ -10985,7 +11259,7 @@
       <c r="H189" s="63"/>
       <c r="I189" s="63"/>
       <c r="J189" s="63"/>
-      <c r="K189" s="63"/>
+      <c r="K189" s="62"/>
       <c r="L189" s="62"/>
       <c r="M189" s="63"/>
       <c r="N189" s="63"/>
@@ -11016,18 +11290,18 @@
       <c r="AM189" s="19"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="65"/>
-      <c r="B190" s="67"/>
-      <c r="C190" s="65"/>
-      <c r="D190" s="66"/>
-      <c r="E190" s="65"/>
-      <c r="F190" s="65"/>
-      <c r="G190" s="66"/>
-      <c r="H190" s="66"/>
-      <c r="I190" s="66"/>
-      <c r="J190" s="66"/>
-      <c r="K190" s="66"/>
-      <c r="L190" s="65"/>
+      <c r="A190" s="62"/>
+      <c r="B190" s="62"/>
+      <c r="C190" s="62"/>
+      <c r="D190" s="63"/>
+      <c r="E190" s="62"/>
+      <c r="F190" s="62"/>
+      <c r="G190" s="63"/>
+      <c r="H190" s="63"/>
+      <c r="I190" s="63"/>
+      <c r="J190" s="63"/>
+      <c r="K190" s="62"/>
+      <c r="L190" s="62"/>
       <c r="M190" s="63"/>
       <c r="N190" s="63"/>
       <c r="O190" s="63"/>
@@ -11261,7 +11535,7 @@
       <c r="AL195" s="19"/>
       <c r="AM195" s="19"/>
     </row>
-    <row r="196">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="62"/>
       <c r="B196" s="62"/>
       <c r="C196" s="62"/>
@@ -11282,7 +11556,7 @@
       <c r="R196" s="63"/>
       <c r="S196" s="63"/>
       <c r="T196" s="63"/>
-      <c r="U196" s="62"/>
+      <c r="U196" s="63"/>
       <c r="V196" s="63"/>
       <c r="W196" s="63"/>
       <c r="X196" s="63"/>
@@ -11303,18 +11577,18 @@
       <c r="AM196" s="19"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="62"/>
-      <c r="B197" s="62"/>
-      <c r="C197" s="62"/>
-      <c r="D197" s="63"/>
-      <c r="E197" s="62"/>
-      <c r="F197" s="62"/>
-      <c r="G197" s="63"/>
-      <c r="H197" s="63"/>
-      <c r="I197" s="63"/>
-      <c r="J197" s="63"/>
-      <c r="K197" s="63"/>
-      <c r="L197" s="62"/>
+      <c r="A197" s="65"/>
+      <c r="B197" s="67"/>
+      <c r="C197" s="65"/>
+      <c r="D197" s="66"/>
+      <c r="E197" s="65"/>
+      <c r="F197" s="65"/>
+      <c r="G197" s="66"/>
+      <c r="H197" s="66"/>
+      <c r="I197" s="66"/>
+      <c r="J197" s="66"/>
+      <c r="K197" s="66"/>
+      <c r="L197" s="65"/>
       <c r="M197" s="63"/>
       <c r="N197" s="63"/>
       <c r="O197" s="63"/>
@@ -11323,7 +11597,7 @@
       <c r="R197" s="63"/>
       <c r="S197" s="63"/>
       <c r="T197" s="63"/>
-      <c r="U197" s="62"/>
+      <c r="U197" s="63"/>
       <c r="V197" s="63"/>
       <c r="W197" s="63"/>
       <c r="X197" s="63"/>
@@ -11354,7 +11628,7 @@
       <c r="H198" s="63"/>
       <c r="I198" s="63"/>
       <c r="J198" s="63"/>
-      <c r="K198" s="63"/>
+      <c r="K198" s="62"/>
       <c r="L198" s="62"/>
       <c r="M198" s="63"/>
       <c r="N198" s="63"/>
@@ -11364,7 +11638,7 @@
       <c r="R198" s="63"/>
       <c r="S198" s="63"/>
       <c r="T198" s="63"/>
-      <c r="U198" s="62"/>
+      <c r="U198" s="63"/>
       <c r="V198" s="63"/>
       <c r="W198" s="63"/>
       <c r="X198" s="63"/>
@@ -11389,13 +11663,13 @@
       <c r="B199" s="62"/>
       <c r="C199" s="62"/>
       <c r="D199" s="63"/>
-      <c r="E199" s="63"/>
-      <c r="F199" s="63"/>
+      <c r="E199" s="62"/>
+      <c r="F199" s="62"/>
       <c r="G199" s="63"/>
       <c r="H199" s="63"/>
       <c r="I199" s="63"/>
       <c r="J199" s="63"/>
-      <c r="K199" s="63"/>
+      <c r="K199" s="62"/>
       <c r="L199" s="62"/>
       <c r="M199" s="63"/>
       <c r="N199" s="63"/>
@@ -11405,7 +11679,7 @@
       <c r="R199" s="63"/>
       <c r="S199" s="63"/>
       <c r="T199" s="63"/>
-      <c r="U199" s="62"/>
+      <c r="U199" s="63"/>
       <c r="V199" s="63"/>
       <c r="W199" s="63"/>
       <c r="X199" s="63"/>
@@ -11416,25 +11690,27 @@
       <c r="AC199" s="63"/>
       <c r="AD199" s="63"/>
       <c r="AE199" s="63"/>
-      <c r="AH199" s="68"/>
-      <c r="AI199" s="68"/>
-      <c r="AJ199" s="68"/>
-      <c r="AK199" s="68"/>
-      <c r="AL199" s="68"/>
-      <c r="AM199" s="68"/>
+      <c r="AF199" s="64"/>
+      <c r="AG199" s="64"/>
+      <c r="AH199" s="19"/>
+      <c r="AI199" s="19"/>
+      <c r="AJ199" s="19"/>
+      <c r="AK199" s="19"/>
+      <c r="AL199" s="19"/>
+      <c r="AM199" s="19"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="62"/>
       <c r="B200" s="62"/>
-      <c r="C200" s="63"/>
+      <c r="C200" s="62"/>
       <c r="D200" s="63"/>
-      <c r="E200" s="63"/>
-      <c r="F200" s="63"/>
+      <c r="E200" s="62"/>
+      <c r="F200" s="62"/>
       <c r="G200" s="63"/>
       <c r="H200" s="63"/>
       <c r="I200" s="63"/>
       <c r="J200" s="63"/>
-      <c r="K200" s="63"/>
+      <c r="K200" s="62"/>
       <c r="L200" s="62"/>
       <c r="M200" s="63"/>
       <c r="N200" s="63"/>
@@ -11444,7 +11720,7 @@
       <c r="R200" s="63"/>
       <c r="S200" s="63"/>
       <c r="T200" s="63"/>
-      <c r="U200" s="62"/>
+      <c r="U200" s="63"/>
       <c r="V200" s="63"/>
       <c r="W200" s="63"/>
       <c r="X200" s="63"/>
@@ -11455,25 +11731,27 @@
       <c r="AC200" s="63"/>
       <c r="AD200" s="63"/>
       <c r="AE200" s="63"/>
-      <c r="AH200" s="68"/>
-      <c r="AI200" s="68"/>
-      <c r="AJ200" s="68"/>
-      <c r="AK200" s="68"/>
-      <c r="AL200" s="68"/>
-      <c r="AM200" s="68"/>
+      <c r="AF200" s="64"/>
+      <c r="AG200" s="64"/>
+      <c r="AH200" s="19"/>
+      <c r="AI200" s="19"/>
+      <c r="AJ200" s="19"/>
+      <c r="AK200" s="19"/>
+      <c r="AL200" s="19"/>
+      <c r="AM200" s="19"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="62"/>
       <c r="B201" s="62"/>
-      <c r="C201" s="63"/>
+      <c r="C201" s="62"/>
       <c r="D201" s="63"/>
-      <c r="E201" s="63"/>
-      <c r="F201" s="63"/>
+      <c r="E201" s="62"/>
+      <c r="F201" s="62"/>
       <c r="G201" s="63"/>
       <c r="H201" s="63"/>
       <c r="I201" s="63"/>
       <c r="J201" s="63"/>
-      <c r="K201" s="63"/>
+      <c r="K201" s="62"/>
       <c r="L201" s="62"/>
       <c r="M201" s="63"/>
       <c r="N201" s="63"/>
@@ -11483,7 +11761,7 @@
       <c r="R201" s="63"/>
       <c r="S201" s="63"/>
       <c r="T201" s="63"/>
-      <c r="U201" s="62"/>
+      <c r="U201" s="63"/>
       <c r="V201" s="63"/>
       <c r="W201" s="63"/>
       <c r="X201" s="63"/>
@@ -11494,25 +11772,27 @@
       <c r="AC201" s="63"/>
       <c r="AD201" s="63"/>
       <c r="AE201" s="63"/>
-      <c r="AH201" s="68"/>
-      <c r="AI201" s="68"/>
-      <c r="AJ201" s="68"/>
-      <c r="AK201" s="68"/>
-      <c r="AL201" s="68"/>
-      <c r="AM201" s="68"/>
+      <c r="AF201" s="64"/>
+      <c r="AG201" s="64"/>
+      <c r="AH201" s="19"/>
+      <c r="AI201" s="19"/>
+      <c r="AJ201" s="19"/>
+      <c r="AK201" s="19"/>
+      <c r="AL201" s="19"/>
+      <c r="AM201" s="19"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="62"/>
       <c r="B202" s="62"/>
-      <c r="C202" s="63"/>
+      <c r="C202" s="62"/>
       <c r="D202" s="63"/>
-      <c r="E202" s="63"/>
-      <c r="F202" s="63"/>
+      <c r="E202" s="62"/>
+      <c r="F202" s="62"/>
       <c r="G202" s="63"/>
       <c r="H202" s="63"/>
       <c r="I202" s="63"/>
       <c r="J202" s="63"/>
-      <c r="K202" s="63"/>
+      <c r="K202" s="62"/>
       <c r="L202" s="62"/>
       <c r="M202" s="63"/>
       <c r="N202" s="63"/>
@@ -11522,7 +11802,7 @@
       <c r="R202" s="63"/>
       <c r="S202" s="63"/>
       <c r="T202" s="63"/>
-      <c r="U202" s="62"/>
+      <c r="U202" s="63"/>
       <c r="V202" s="63"/>
       <c r="W202" s="63"/>
       <c r="X202" s="63"/>
@@ -11533,20 +11813,22 @@
       <c r="AC202" s="63"/>
       <c r="AD202" s="63"/>
       <c r="AE202" s="63"/>
-      <c r="AH202" s="68"/>
-      <c r="AI202" s="68"/>
-      <c r="AJ202" s="68"/>
-      <c r="AK202" s="68"/>
-      <c r="AL202" s="68"/>
-      <c r="AM202" s="68"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
+      <c r="AF202" s="64"/>
+      <c r="AG202" s="64"/>
+      <c r="AH202" s="19"/>
+      <c r="AI202" s="19"/>
+      <c r="AJ202" s="19"/>
+      <c r="AK202" s="19"/>
+      <c r="AL202" s="19"/>
+      <c r="AM202" s="19"/>
+    </row>
+    <row r="203">
       <c r="A203" s="62"/>
       <c r="B203" s="62"/>
-      <c r="C203" s="63"/>
+      <c r="C203" s="62"/>
       <c r="D203" s="63"/>
-      <c r="E203" s="63"/>
-      <c r="F203" s="63"/>
+      <c r="E203" s="62"/>
+      <c r="F203" s="62"/>
       <c r="G203" s="63"/>
       <c r="H203" s="63"/>
       <c r="I203" s="63"/>
@@ -11572,12 +11854,14 @@
       <c r="AC203" s="63"/>
       <c r="AD203" s="63"/>
       <c r="AE203" s="63"/>
-      <c r="AH203" s="68"/>
-      <c r="AI203" s="68"/>
-      <c r="AJ203" s="68"/>
-      <c r="AK203" s="68"/>
-      <c r="AL203" s="68"/>
-      <c r="AM203" s="68"/>
+      <c r="AF203" s="64"/>
+      <c r="AG203" s="64"/>
+      <c r="AH203" s="19"/>
+      <c r="AI203" s="19"/>
+      <c r="AJ203" s="19"/>
+      <c r="AK203" s="19"/>
+      <c r="AL203" s="19"/>
+      <c r="AM203" s="19"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="62"/>
@@ -11585,12 +11869,12 @@
       <c r="C204" s="62"/>
       <c r="D204" s="63"/>
       <c r="E204" s="62"/>
-      <c r="F204" s="63"/>
+      <c r="F204" s="62"/>
       <c r="G204" s="63"/>
       <c r="H204" s="63"/>
       <c r="I204" s="63"/>
       <c r="J204" s="63"/>
-      <c r="K204" s="62"/>
+      <c r="K204" s="63"/>
       <c r="L204" s="62"/>
       <c r="M204" s="63"/>
       <c r="N204" s="63"/>
@@ -11600,7 +11884,7 @@
       <c r="R204" s="63"/>
       <c r="S204" s="63"/>
       <c r="T204" s="63"/>
-      <c r="U204" s="63"/>
+      <c r="U204" s="62"/>
       <c r="V204" s="63"/>
       <c r="W204" s="63"/>
       <c r="X204" s="63"/>
@@ -11611,12 +11895,14 @@
       <c r="AC204" s="63"/>
       <c r="AD204" s="63"/>
       <c r="AE204" s="63"/>
-      <c r="AH204" s="69"/>
-      <c r="AI204" s="69"/>
-      <c r="AJ204" s="69"/>
-      <c r="AK204" s="69"/>
-      <c r="AL204" s="69"/>
-      <c r="AM204" s="69"/>
+      <c r="AF204" s="64"/>
+      <c r="AG204" s="64"/>
+      <c r="AH204" s="19"/>
+      <c r="AI204" s="19"/>
+      <c r="AJ204" s="19"/>
+      <c r="AK204" s="19"/>
+      <c r="AL204" s="19"/>
+      <c r="AM204" s="19"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="62"/>
@@ -11630,7 +11916,7 @@
       <c r="I205" s="63"/>
       <c r="J205" s="63"/>
       <c r="K205" s="63"/>
-      <c r="L205" s="63"/>
+      <c r="L205" s="62"/>
       <c r="M205" s="63"/>
       <c r="N205" s="63"/>
       <c r="O205" s="63"/>
@@ -11639,7 +11925,7 @@
       <c r="R205" s="63"/>
       <c r="S205" s="63"/>
       <c r="T205" s="63"/>
-      <c r="U205" s="63"/>
+      <c r="U205" s="62"/>
       <c r="V205" s="63"/>
       <c r="W205" s="63"/>
       <c r="X205" s="63"/>
@@ -11660,9 +11946,9 @@
       <c r="AM205" s="19"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="63"/>
-      <c r="B206" s="63"/>
-      <c r="C206" s="63"/>
+      <c r="A206" s="62"/>
+      <c r="B206" s="62"/>
+      <c r="C206" s="62"/>
       <c r="D206" s="63"/>
       <c r="E206" s="63"/>
       <c r="F206" s="63"/>
@@ -11671,7 +11957,7 @@
       <c r="I206" s="63"/>
       <c r="J206" s="63"/>
       <c r="K206" s="63"/>
-      <c r="L206" s="63"/>
+      <c r="L206" s="62"/>
       <c r="M206" s="63"/>
       <c r="N206" s="63"/>
       <c r="O206" s="63"/>
@@ -11680,7 +11966,7 @@
       <c r="R206" s="63"/>
       <c r="S206" s="63"/>
       <c r="T206" s="63"/>
-      <c r="U206" s="63"/>
+      <c r="U206" s="62"/>
       <c r="V206" s="63"/>
       <c r="W206" s="63"/>
       <c r="X206" s="63"/>
@@ -11691,20 +11977,20 @@
       <c r="AC206" s="63"/>
       <c r="AD206" s="63"/>
       <c r="AE206" s="63"/>
-      <c r="AH206" s="19"/>
-      <c r="AI206" s="19"/>
-      <c r="AJ206" s="19"/>
-      <c r="AK206" s="19"/>
-      <c r="AL206" s="19"/>
-      <c r="AM206" s="19"/>
+      <c r="AH206" s="68"/>
+      <c r="AI206" s="68"/>
+      <c r="AJ206" s="68"/>
+      <c r="AK206" s="68"/>
+      <c r="AL206" s="68"/>
+      <c r="AM206" s="68"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="62"/>
       <c r="B207" s="62"/>
-      <c r="C207" s="62"/>
+      <c r="C207" s="63"/>
       <c r="D207" s="63"/>
-      <c r="E207" s="62"/>
-      <c r="F207" s="62"/>
+      <c r="E207" s="63"/>
+      <c r="F207" s="63"/>
       <c r="G207" s="63"/>
       <c r="H207" s="63"/>
       <c r="I207" s="63"/>
@@ -11719,7 +12005,7 @@
       <c r="R207" s="63"/>
       <c r="S207" s="63"/>
       <c r="T207" s="63"/>
-      <c r="U207" s="63"/>
+      <c r="U207" s="62"/>
       <c r="V207" s="63"/>
       <c r="W207" s="63"/>
       <c r="X207" s="63"/>
@@ -11730,27 +12016,26 @@
       <c r="AC207" s="63"/>
       <c r="AD207" s="63"/>
       <c r="AE207" s="63"/>
-      <c r="AG207" s="64"/>
-      <c r="AH207" s="19"/>
-      <c r="AI207" s="19"/>
-      <c r="AJ207" s="19"/>
-      <c r="AK207" s="19"/>
-      <c r="AL207" s="19"/>
-      <c r="AM207" s="19"/>
+      <c r="AH207" s="68"/>
+      <c r="AI207" s="68"/>
+      <c r="AJ207" s="68"/>
+      <c r="AK207" s="68"/>
+      <c r="AL207" s="68"/>
+      <c r="AM207" s="68"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="62"/>
-      <c r="B208" s="70"/>
-      <c r="C208" s="62"/>
+      <c r="B208" s="62"/>
+      <c r="C208" s="63"/>
       <c r="D208" s="63"/>
-      <c r="E208" s="62"/>
-      <c r="F208" s="62"/>
+      <c r="E208" s="63"/>
+      <c r="F208" s="63"/>
       <c r="G208" s="63"/>
       <c r="H208" s="63"/>
       <c r="I208" s="63"/>
       <c r="J208" s="63"/>
       <c r="K208" s="63"/>
-      <c r="L208" s="63"/>
+      <c r="L208" s="62"/>
       <c r="M208" s="63"/>
       <c r="N208" s="63"/>
       <c r="O208" s="63"/>
@@ -11770,28 +12055,26 @@
       <c r="AC208" s="63"/>
       <c r="AD208" s="63"/>
       <c r="AE208" s="63"/>
-      <c r="AF208" s="64"/>
-      <c r="AG208" s="64"/>
-      <c r="AH208" s="71"/>
-      <c r="AI208" s="19"/>
-      <c r="AJ208" s="19"/>
-      <c r="AK208" s="19"/>
-      <c r="AL208" s="19"/>
-      <c r="AM208" s="19"/>
+      <c r="AH208" s="68"/>
+      <c r="AI208" s="68"/>
+      <c r="AJ208" s="68"/>
+      <c r="AK208" s="68"/>
+      <c r="AL208" s="68"/>
+      <c r="AM208" s="68"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="62"/>
-      <c r="B209" s="70"/>
-      <c r="C209" s="62"/>
+      <c r="B209" s="62"/>
+      <c r="C209" s="63"/>
       <c r="D209" s="63"/>
-      <c r="E209" s="62"/>
-      <c r="F209" s="62"/>
+      <c r="E209" s="63"/>
+      <c r="F209" s="63"/>
       <c r="G209" s="63"/>
       <c r="H209" s="63"/>
       <c r="I209" s="63"/>
       <c r="J209" s="63"/>
       <c r="K209" s="63"/>
-      <c r="L209" s="63"/>
+      <c r="L209" s="62"/>
       <c r="M209" s="63"/>
       <c r="N209" s="63"/>
       <c r="O209" s="63"/>
@@ -11811,28 +12094,26 @@
       <c r="AC209" s="63"/>
       <c r="AD209" s="63"/>
       <c r="AE209" s="63"/>
-      <c r="AF209" s="64"/>
-      <c r="AG209" s="64"/>
-      <c r="AH209" s="71"/>
-      <c r="AI209" s="19"/>
-      <c r="AJ209" s="19"/>
-      <c r="AK209" s="19"/>
-      <c r="AL209" s="19"/>
-      <c r="AM209" s="19"/>
+      <c r="AH209" s="68"/>
+      <c r="AI209" s="68"/>
+      <c r="AJ209" s="68"/>
+      <c r="AK209" s="68"/>
+      <c r="AL209" s="68"/>
+      <c r="AM209" s="68"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="62"/>
-      <c r="B210" s="70"/>
-      <c r="C210" s="62"/>
+      <c r="B210" s="62"/>
+      <c r="C210" s="63"/>
       <c r="D210" s="63"/>
-      <c r="E210" s="62"/>
-      <c r="F210" s="62"/>
+      <c r="E210" s="63"/>
+      <c r="F210" s="63"/>
       <c r="G210" s="63"/>
       <c r="H210" s="63"/>
       <c r="I210" s="63"/>
       <c r="J210" s="63"/>
       <c r="K210" s="63"/>
-      <c r="L210" s="63"/>
+      <c r="L210" s="62"/>
       <c r="M210" s="63"/>
       <c r="N210" s="63"/>
       <c r="O210" s="63"/>
@@ -11852,28 +12133,26 @@
       <c r="AC210" s="63"/>
       <c r="AD210" s="63"/>
       <c r="AE210" s="63"/>
-      <c r="AF210" s="64"/>
-      <c r="AG210" s="64"/>
-      <c r="AH210" s="71"/>
-      <c r="AI210" s="19"/>
-      <c r="AJ210" s="19"/>
-      <c r="AK210" s="19"/>
-      <c r="AL210" s="19"/>
-      <c r="AM210" s="19"/>
+      <c r="AH210" s="68"/>
+      <c r="AI210" s="68"/>
+      <c r="AJ210" s="68"/>
+      <c r="AK210" s="68"/>
+      <c r="AL210" s="68"/>
+      <c r="AM210" s="68"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="62"/>
-      <c r="B211" s="70"/>
+      <c r="B211" s="62"/>
       <c r="C211" s="62"/>
       <c r="D211" s="63"/>
       <c r="E211" s="62"/>
-      <c r="F211" s="62"/>
+      <c r="F211" s="63"/>
       <c r="G211" s="63"/>
       <c r="H211" s="63"/>
       <c r="I211" s="63"/>
       <c r="J211" s="63"/>
-      <c r="K211" s="63"/>
-      <c r="L211" s="63"/>
+      <c r="K211" s="62"/>
+      <c r="L211" s="62"/>
       <c r="M211" s="63"/>
       <c r="N211" s="63"/>
       <c r="O211" s="63"/>
@@ -11882,7 +12161,7 @@
       <c r="R211" s="63"/>
       <c r="S211" s="63"/>
       <c r="T211" s="63"/>
-      <c r="U211" s="62"/>
+      <c r="U211" s="63"/>
       <c r="V211" s="63"/>
       <c r="W211" s="63"/>
       <c r="X211" s="63"/>
@@ -11893,18 +12172,16 @@
       <c r="AC211" s="63"/>
       <c r="AD211" s="63"/>
       <c r="AE211" s="63"/>
-      <c r="AF211" s="64"/>
-      <c r="AG211" s="64"/>
-      <c r="AH211" s="71"/>
-      <c r="AI211" s="19"/>
-      <c r="AJ211" s="19"/>
-      <c r="AK211" s="19"/>
-      <c r="AL211" s="19"/>
-      <c r="AM211" s="19"/>
+      <c r="AH211" s="69"/>
+      <c r="AI211" s="69"/>
+      <c r="AJ211" s="69"/>
+      <c r="AK211" s="69"/>
+      <c r="AL211" s="69"/>
+      <c r="AM211" s="69"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="62"/>
-      <c r="B212" s="70"/>
+      <c r="B212" s="62"/>
       <c r="C212" s="62"/>
       <c r="D212" s="63"/>
       <c r="E212" s="62"/>
@@ -11923,7 +12200,7 @@
       <c r="R212" s="63"/>
       <c r="S212" s="63"/>
       <c r="T212" s="63"/>
-      <c r="U212" s="62"/>
+      <c r="U212" s="63"/>
       <c r="V212" s="63"/>
       <c r="W212" s="63"/>
       <c r="X212" s="63"/>
@@ -11936,7 +12213,7 @@
       <c r="AE212" s="63"/>
       <c r="AF212" s="64"/>
       <c r="AG212" s="64"/>
-      <c r="AH212" s="71"/>
+      <c r="AH212" s="19"/>
       <c r="AI212" s="19"/>
       <c r="AJ212" s="19"/>
       <c r="AK212" s="19"/>
@@ -11944,12 +12221,12 @@
       <c r="AM212" s="19"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="62"/>
-      <c r="B213" s="70"/>
-      <c r="C213" s="62"/>
+      <c r="A213" s="63"/>
+      <c r="B213" s="63"/>
+      <c r="C213" s="63"/>
       <c r="D213" s="63"/>
-      <c r="E213" s="62"/>
-      <c r="F213" s="62"/>
+      <c r="E213" s="63"/>
+      <c r="F213" s="63"/>
       <c r="G213" s="63"/>
       <c r="H213" s="63"/>
       <c r="I213" s="63"/>
@@ -11964,7 +12241,7 @@
       <c r="R213" s="63"/>
       <c r="S213" s="63"/>
       <c r="T213" s="63"/>
-      <c r="U213" s="62"/>
+      <c r="U213" s="63"/>
       <c r="V213" s="63"/>
       <c r="W213" s="63"/>
       <c r="X213" s="63"/>
@@ -11975,9 +12252,7 @@
       <c r="AC213" s="63"/>
       <c r="AD213" s="63"/>
       <c r="AE213" s="63"/>
-      <c r="AF213" s="64"/>
-      <c r="AG213" s="64"/>
-      <c r="AH213" s="71"/>
+      <c r="AH213" s="19"/>
       <c r="AI213" s="19"/>
       <c r="AJ213" s="19"/>
       <c r="AK213" s="19"/>
@@ -11986,7 +12261,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="62"/>
-      <c r="B214" s="70"/>
+      <c r="B214" s="62"/>
       <c r="C214" s="62"/>
       <c r="D214" s="63"/>
       <c r="E214" s="62"/>
@@ -11996,7 +12271,7 @@
       <c r="I214" s="63"/>
       <c r="J214" s="63"/>
       <c r="K214" s="63"/>
-      <c r="L214" s="63"/>
+      <c r="L214" s="62"/>
       <c r="M214" s="63"/>
       <c r="N214" s="63"/>
       <c r="O214" s="63"/>
@@ -12005,7 +12280,7 @@
       <c r="R214" s="63"/>
       <c r="S214" s="63"/>
       <c r="T214" s="63"/>
-      <c r="U214" s="62"/>
+      <c r="U214" s="63"/>
       <c r="V214" s="63"/>
       <c r="W214" s="63"/>
       <c r="X214" s="63"/>
@@ -12016,9 +12291,8 @@
       <c r="AC214" s="63"/>
       <c r="AD214" s="63"/>
       <c r="AE214" s="63"/>
-      <c r="AF214" s="64"/>
       <c r="AG214" s="64"/>
-      <c r="AH214" s="71"/>
+      <c r="AH214" s="19"/>
       <c r="AI214" s="19"/>
       <c r="AJ214" s="19"/>
       <c r="AK214" s="19"/>
@@ -12948,7 +13222,7 @@
       <c r="R237" s="63"/>
       <c r="S237" s="63"/>
       <c r="T237" s="63"/>
-      <c r="U237" s="70"/>
+      <c r="U237" s="62"/>
       <c r="V237" s="63"/>
       <c r="W237" s="63"/>
       <c r="X237" s="63"/>
@@ -13235,7 +13509,7 @@
       <c r="R244" s="63"/>
       <c r="S244" s="63"/>
       <c r="T244" s="63"/>
-      <c r="U244" s="62"/>
+      <c r="U244" s="70"/>
       <c r="V244" s="63"/>
       <c r="W244" s="63"/>
       <c r="X244" s="63"/>
@@ -13338,40 +13612,40 @@
       <c r="AM246" s="19"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="72"/>
-      <c r="B247" s="72"/>
+      <c r="A247" s="62"/>
+      <c r="B247" s="70"/>
       <c r="C247" s="62"/>
-      <c r="D247" s="10"/>
-      <c r="E247" s="18"/>
-      <c r="F247" s="18"/>
-      <c r="G247" s="10"/>
-      <c r="H247" s="10"/>
-      <c r="I247" s="10"/>
-      <c r="J247" s="10"/>
-      <c r="K247" s="10"/>
-      <c r="L247" s="10"/>
-      <c r="M247" s="10"/>
-      <c r="N247" s="10"/>
-      <c r="O247" s="10"/>
-      <c r="P247" s="10"/>
-      <c r="Q247" s="10"/>
-      <c r="R247" s="10"/>
-      <c r="S247" s="10"/>
-      <c r="T247" s="10"/>
-      <c r="U247" s="18"/>
-      <c r="V247" s="10"/>
-      <c r="W247" s="10"/>
-      <c r="X247" s="10"/>
-      <c r="Y247" s="10"/>
-      <c r="Z247" s="10"/>
-      <c r="AA247" s="10"/>
-      <c r="AB247" s="10"/>
-      <c r="AC247" s="10"/>
-      <c r="AD247" s="10"/>
-      <c r="AE247" s="10"/>
-      <c r="AF247" s="19"/>
-      <c r="AG247" s="19"/>
-      <c r="AH247" s="19"/>
+      <c r="D247" s="63"/>
+      <c r="E247" s="62"/>
+      <c r="F247" s="62"/>
+      <c r="G247" s="63"/>
+      <c r="H247" s="63"/>
+      <c r="I247" s="63"/>
+      <c r="J247" s="63"/>
+      <c r="K247" s="63"/>
+      <c r="L247" s="63"/>
+      <c r="M247" s="63"/>
+      <c r="N247" s="63"/>
+      <c r="O247" s="63"/>
+      <c r="P247" s="63"/>
+      <c r="Q247" s="63"/>
+      <c r="R247" s="63"/>
+      <c r="S247" s="63"/>
+      <c r="T247" s="63"/>
+      <c r="U247" s="62"/>
+      <c r="V247" s="63"/>
+      <c r="W247" s="63"/>
+      <c r="X247" s="63"/>
+      <c r="Y247" s="63"/>
+      <c r="Z247" s="63"/>
+      <c r="AA247" s="63"/>
+      <c r="AB247" s="63"/>
+      <c r="AC247" s="63"/>
+      <c r="AD247" s="63"/>
+      <c r="AE247" s="63"/>
+      <c r="AF247" s="64"/>
+      <c r="AG247" s="64"/>
+      <c r="AH247" s="71"/>
       <c r="AI247" s="19"/>
       <c r="AJ247" s="19"/>
       <c r="AK247" s="19"/>
@@ -13399,7 +13673,7 @@
       <c r="R248" s="63"/>
       <c r="S248" s="63"/>
       <c r="T248" s="63"/>
-      <c r="U248" s="70"/>
+      <c r="U248" s="62"/>
       <c r="V248" s="63"/>
       <c r="W248" s="63"/>
       <c r="X248" s="63"/>
@@ -13412,7 +13686,7 @@
       <c r="AE248" s="63"/>
       <c r="AF248" s="64"/>
       <c r="AG248" s="64"/>
-      <c r="AH248" s="19"/>
+      <c r="AH248" s="71"/>
       <c r="AI248" s="19"/>
       <c r="AJ248" s="19"/>
       <c r="AK248" s="19"/>
@@ -13440,7 +13714,7 @@
       <c r="R249" s="63"/>
       <c r="S249" s="63"/>
       <c r="T249" s="63"/>
-      <c r="U249" s="70"/>
+      <c r="U249" s="62"/>
       <c r="V249" s="63"/>
       <c r="W249" s="63"/>
       <c r="X249" s="63"/>
@@ -13453,7 +13727,7 @@
       <c r="AE249" s="63"/>
       <c r="AF249" s="64"/>
       <c r="AG249" s="64"/>
-      <c r="AH249" s="19"/>
+      <c r="AH249" s="71"/>
       <c r="AI249" s="19"/>
       <c r="AJ249" s="19"/>
       <c r="AK249" s="19"/>
@@ -13481,7 +13755,7 @@
       <c r="R250" s="63"/>
       <c r="S250" s="63"/>
       <c r="T250" s="63"/>
-      <c r="U250" s="70"/>
+      <c r="U250" s="62"/>
       <c r="V250" s="63"/>
       <c r="W250" s="63"/>
       <c r="X250" s="63"/>
@@ -13522,7 +13796,7 @@
       <c r="R251" s="63"/>
       <c r="S251" s="63"/>
       <c r="T251" s="63"/>
-      <c r="U251" s="70"/>
+      <c r="U251" s="62"/>
       <c r="V251" s="63"/>
       <c r="W251" s="63"/>
       <c r="X251" s="63"/>
@@ -13535,7 +13809,7 @@
       <c r="AE251" s="63"/>
       <c r="AF251" s="64"/>
       <c r="AG251" s="64"/>
-      <c r="AH251" s="19"/>
+      <c r="AH251" s="71"/>
       <c r="AI251" s="19"/>
       <c r="AJ251" s="19"/>
       <c r="AK251" s="19"/>
@@ -13563,7 +13837,7 @@
       <c r="R252" s="63"/>
       <c r="S252" s="63"/>
       <c r="T252" s="63"/>
-      <c r="U252" s="70"/>
+      <c r="U252" s="62"/>
       <c r="V252" s="63"/>
       <c r="W252" s="63"/>
       <c r="X252" s="63"/>
@@ -13576,7 +13850,7 @@
       <c r="AE252" s="63"/>
       <c r="AF252" s="64"/>
       <c r="AG252" s="64"/>
-      <c r="AH252" s="19"/>
+      <c r="AH252" s="71"/>
       <c r="AI252" s="19"/>
       <c r="AJ252" s="19"/>
       <c r="AK252" s="19"/>
@@ -13584,40 +13858,40 @@
       <c r="AM252" s="19"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="72"/>
-      <c r="B253" s="72"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="10"/>
-      <c r="E253" s="18"/>
-      <c r="F253" s="18"/>
-      <c r="G253" s="10"/>
-      <c r="H253" s="10"/>
-      <c r="I253" s="10"/>
-      <c r="J253" s="10"/>
-      <c r="K253" s="10"/>
-      <c r="L253" s="10"/>
-      <c r="M253" s="10"/>
-      <c r="N253" s="10"/>
-      <c r="O253" s="10"/>
-      <c r="P253" s="10"/>
-      <c r="Q253" s="10"/>
-      <c r="R253" s="10"/>
-      <c r="S253" s="10"/>
-      <c r="T253" s="10"/>
-      <c r="U253" s="10"/>
-      <c r="V253" s="10"/>
-      <c r="W253" s="10"/>
-      <c r="X253" s="10"/>
-      <c r="Y253" s="10"/>
-      <c r="Z253" s="10"/>
-      <c r="AA253" s="10"/>
-      <c r="AB253" s="10"/>
-      <c r="AC253" s="10"/>
-      <c r="AD253" s="10"/>
-      <c r="AE253" s="10"/>
-      <c r="AF253" s="19"/>
-      <c r="AG253" s="19"/>
-      <c r="AH253" s="19"/>
+      <c r="A253" s="62"/>
+      <c r="B253" s="70"/>
+      <c r="C253" s="62"/>
+      <c r="D253" s="63"/>
+      <c r="E253" s="62"/>
+      <c r="F253" s="62"/>
+      <c r="G253" s="63"/>
+      <c r="H253" s="63"/>
+      <c r="I253" s="63"/>
+      <c r="J253" s="63"/>
+      <c r="K253" s="63"/>
+      <c r="L253" s="63"/>
+      <c r="M253" s="63"/>
+      <c r="N253" s="63"/>
+      <c r="O253" s="63"/>
+      <c r="P253" s="63"/>
+      <c r="Q253" s="63"/>
+      <c r="R253" s="63"/>
+      <c r="S253" s="63"/>
+      <c r="T253" s="63"/>
+      <c r="U253" s="62"/>
+      <c r="V253" s="63"/>
+      <c r="W253" s="63"/>
+      <c r="X253" s="63"/>
+      <c r="Y253" s="63"/>
+      <c r="Z253" s="63"/>
+      <c r="AA253" s="63"/>
+      <c r="AB253" s="63"/>
+      <c r="AC253" s="63"/>
+      <c r="AD253" s="63"/>
+      <c r="AE253" s="63"/>
+      <c r="AF253" s="64"/>
+      <c r="AG253" s="64"/>
+      <c r="AH253" s="71"/>
       <c r="AI253" s="19"/>
       <c r="AJ253" s="19"/>
       <c r="AK253" s="19"/>
@@ -13627,7 +13901,7 @@
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="72"/>
       <c r="B254" s="72"/>
-      <c r="C254" s="18"/>
+      <c r="C254" s="62"/>
       <c r="D254" s="10"/>
       <c r="E254" s="18"/>
       <c r="F254" s="18"/>
@@ -13645,7 +13919,7 @@
       <c r="R254" s="10"/>
       <c r="S254" s="10"/>
       <c r="T254" s="10"/>
-      <c r="U254" s="10"/>
+      <c r="U254" s="18"/>
       <c r="V254" s="10"/>
       <c r="W254" s="10"/>
       <c r="X254" s="10"/>
@@ -13666,39 +13940,39 @@
       <c r="AM254" s="19"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="72"/>
-      <c r="B255" s="72"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="10"/>
-      <c r="E255" s="18"/>
-      <c r="F255" s="18"/>
-      <c r="G255" s="10"/>
-      <c r="H255" s="10"/>
-      <c r="I255" s="10"/>
-      <c r="J255" s="10"/>
-      <c r="K255" s="10"/>
-      <c r="L255" s="10"/>
-      <c r="M255" s="10"/>
-      <c r="N255" s="10"/>
-      <c r="O255" s="10"/>
-      <c r="P255" s="10"/>
-      <c r="Q255" s="10"/>
-      <c r="R255" s="10"/>
-      <c r="S255" s="10"/>
-      <c r="T255" s="10"/>
-      <c r="U255" s="10"/>
-      <c r="V255" s="10"/>
-      <c r="W255" s="10"/>
-      <c r="X255" s="10"/>
-      <c r="Y255" s="10"/>
-      <c r="Z255" s="10"/>
-      <c r="AA255" s="10"/>
-      <c r="AB255" s="10"/>
-      <c r="AC255" s="10"/>
-      <c r="AD255" s="10"/>
-      <c r="AE255" s="10"/>
-      <c r="AF255" s="19"/>
-      <c r="AG255" s="19"/>
+      <c r="A255" s="62"/>
+      <c r="B255" s="70"/>
+      <c r="C255" s="62"/>
+      <c r="D255" s="63"/>
+      <c r="E255" s="62"/>
+      <c r="F255" s="62"/>
+      <c r="G255" s="63"/>
+      <c r="H255" s="63"/>
+      <c r="I255" s="63"/>
+      <c r="J255" s="63"/>
+      <c r="K255" s="63"/>
+      <c r="L255" s="63"/>
+      <c r="M255" s="63"/>
+      <c r="N255" s="63"/>
+      <c r="O255" s="63"/>
+      <c r="P255" s="63"/>
+      <c r="Q255" s="63"/>
+      <c r="R255" s="63"/>
+      <c r="S255" s="63"/>
+      <c r="T255" s="63"/>
+      <c r="U255" s="70"/>
+      <c r="V255" s="63"/>
+      <c r="W255" s="63"/>
+      <c r="X255" s="63"/>
+      <c r="Y255" s="63"/>
+      <c r="Z255" s="63"/>
+      <c r="AA255" s="63"/>
+      <c r="AB255" s="63"/>
+      <c r="AC255" s="63"/>
+      <c r="AD255" s="63"/>
+      <c r="AE255" s="63"/>
+      <c r="AF255" s="64"/>
+      <c r="AG255" s="64"/>
       <c r="AH255" s="19"/>
       <c r="AI255" s="19"/>
       <c r="AJ255" s="19"/>
@@ -13707,39 +13981,39 @@
       <c r="AM255" s="19"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="72"/>
-      <c r="B256" s="72"/>
-      <c r="C256" s="18"/>
-      <c r="D256" s="10"/>
-      <c r="E256" s="18"/>
-      <c r="F256" s="18"/>
-      <c r="G256" s="10"/>
-      <c r="H256" s="10"/>
-      <c r="I256" s="10"/>
-      <c r="J256" s="10"/>
-      <c r="K256" s="10"/>
-      <c r="L256" s="10"/>
-      <c r="M256" s="10"/>
-      <c r="N256" s="10"/>
-      <c r="O256" s="10"/>
-      <c r="P256" s="10"/>
-      <c r="Q256" s="10"/>
-      <c r="R256" s="10"/>
-      <c r="S256" s="10"/>
-      <c r="T256" s="10"/>
-      <c r="U256" s="10"/>
-      <c r="V256" s="10"/>
-      <c r="W256" s="10"/>
-      <c r="X256" s="10"/>
-      <c r="Y256" s="10"/>
-      <c r="Z256" s="10"/>
-      <c r="AA256" s="10"/>
-      <c r="AB256" s="10"/>
-      <c r="AC256" s="10"/>
-      <c r="AD256" s="10"/>
-      <c r="AE256" s="10"/>
-      <c r="AF256" s="19"/>
-      <c r="AG256" s="19"/>
+      <c r="A256" s="62"/>
+      <c r="B256" s="70"/>
+      <c r="C256" s="62"/>
+      <c r="D256" s="63"/>
+      <c r="E256" s="62"/>
+      <c r="F256" s="62"/>
+      <c r="G256" s="63"/>
+      <c r="H256" s="63"/>
+      <c r="I256" s="63"/>
+      <c r="J256" s="63"/>
+      <c r="K256" s="63"/>
+      <c r="L256" s="63"/>
+      <c r="M256" s="63"/>
+      <c r="N256" s="63"/>
+      <c r="O256" s="63"/>
+      <c r="P256" s="63"/>
+      <c r="Q256" s="63"/>
+      <c r="R256" s="63"/>
+      <c r="S256" s="63"/>
+      <c r="T256" s="63"/>
+      <c r="U256" s="70"/>
+      <c r="V256" s="63"/>
+      <c r="W256" s="63"/>
+      <c r="X256" s="63"/>
+      <c r="Y256" s="63"/>
+      <c r="Z256" s="63"/>
+      <c r="AA256" s="63"/>
+      <c r="AB256" s="63"/>
+      <c r="AC256" s="63"/>
+      <c r="AD256" s="63"/>
+      <c r="AE256" s="63"/>
+      <c r="AF256" s="64"/>
+      <c r="AG256" s="64"/>
       <c r="AH256" s="19"/>
       <c r="AI256" s="19"/>
       <c r="AJ256" s="19"/>
@@ -13748,40 +14022,40 @@
       <c r="AM256" s="19"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="72"/>
-      <c r="B257" s="72"/>
-      <c r="C257" s="18"/>
-      <c r="D257" s="10"/>
-      <c r="E257" s="18"/>
-      <c r="F257" s="18"/>
-      <c r="G257" s="10"/>
-      <c r="H257" s="10"/>
-      <c r="I257" s="10"/>
-      <c r="J257" s="10"/>
-      <c r="K257" s="10"/>
-      <c r="L257" s="10"/>
-      <c r="M257" s="10"/>
-      <c r="N257" s="10"/>
-      <c r="O257" s="10"/>
-      <c r="P257" s="10"/>
-      <c r="Q257" s="10"/>
-      <c r="R257" s="10"/>
-      <c r="S257" s="10"/>
-      <c r="T257" s="10"/>
-      <c r="U257" s="10"/>
-      <c r="V257" s="10"/>
-      <c r="W257" s="10"/>
-      <c r="X257" s="10"/>
-      <c r="Y257" s="10"/>
-      <c r="Z257" s="10"/>
-      <c r="AA257" s="10"/>
-      <c r="AB257" s="10"/>
-      <c r="AC257" s="10"/>
-      <c r="AD257" s="10"/>
-      <c r="AE257" s="10"/>
-      <c r="AF257" s="19"/>
-      <c r="AG257" s="19"/>
-      <c r="AH257" s="19"/>
+      <c r="A257" s="62"/>
+      <c r="B257" s="70"/>
+      <c r="C257" s="62"/>
+      <c r="D257" s="63"/>
+      <c r="E257" s="62"/>
+      <c r="F257" s="62"/>
+      <c r="G257" s="63"/>
+      <c r="H257" s="63"/>
+      <c r="I257" s="63"/>
+      <c r="J257" s="63"/>
+      <c r="K257" s="63"/>
+      <c r="L257" s="63"/>
+      <c r="M257" s="63"/>
+      <c r="N257" s="63"/>
+      <c r="O257" s="63"/>
+      <c r="P257" s="63"/>
+      <c r="Q257" s="63"/>
+      <c r="R257" s="63"/>
+      <c r="S257" s="63"/>
+      <c r="T257" s="63"/>
+      <c r="U257" s="70"/>
+      <c r="V257" s="63"/>
+      <c r="W257" s="63"/>
+      <c r="X257" s="63"/>
+      <c r="Y257" s="63"/>
+      <c r="Z257" s="63"/>
+      <c r="AA257" s="63"/>
+      <c r="AB257" s="63"/>
+      <c r="AC257" s="63"/>
+      <c r="AD257" s="63"/>
+      <c r="AE257" s="63"/>
+      <c r="AF257" s="64"/>
+      <c r="AG257" s="64"/>
+      <c r="AH257" s="71"/>
       <c r="AI257" s="19"/>
       <c r="AJ257" s="19"/>
       <c r="AK257" s="19"/>
@@ -13789,39 +14063,39 @@
       <c r="AM257" s="19"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="72"/>
-      <c r="B258" s="72"/>
-      <c r="C258" s="18"/>
-      <c r="D258" s="10"/>
-      <c r="E258" s="18"/>
-      <c r="F258" s="18"/>
-      <c r="G258" s="10"/>
-      <c r="H258" s="10"/>
-      <c r="I258" s="10"/>
-      <c r="J258" s="10"/>
-      <c r="K258" s="10"/>
-      <c r="L258" s="10"/>
-      <c r="M258" s="10"/>
-      <c r="N258" s="10"/>
-      <c r="O258" s="10"/>
-      <c r="P258" s="10"/>
-      <c r="Q258" s="10"/>
-      <c r="R258" s="10"/>
-      <c r="S258" s="10"/>
-      <c r="T258" s="10"/>
-      <c r="U258" s="10"/>
-      <c r="V258" s="10"/>
-      <c r="W258" s="10"/>
-      <c r="X258" s="10"/>
-      <c r="Y258" s="10"/>
-      <c r="Z258" s="10"/>
-      <c r="AA258" s="10"/>
-      <c r="AB258" s="10"/>
-      <c r="AC258" s="10"/>
-      <c r="AD258" s="10"/>
-      <c r="AE258" s="10"/>
-      <c r="AF258" s="19"/>
-      <c r="AG258" s="19"/>
+      <c r="A258" s="62"/>
+      <c r="B258" s="70"/>
+      <c r="C258" s="62"/>
+      <c r="D258" s="63"/>
+      <c r="E258" s="62"/>
+      <c r="F258" s="62"/>
+      <c r="G258" s="63"/>
+      <c r="H258" s="63"/>
+      <c r="I258" s="63"/>
+      <c r="J258" s="63"/>
+      <c r="K258" s="63"/>
+      <c r="L258" s="63"/>
+      <c r="M258" s="63"/>
+      <c r="N258" s="63"/>
+      <c r="O258" s="63"/>
+      <c r="P258" s="63"/>
+      <c r="Q258" s="63"/>
+      <c r="R258" s="63"/>
+      <c r="S258" s="63"/>
+      <c r="T258" s="63"/>
+      <c r="U258" s="70"/>
+      <c r="V258" s="63"/>
+      <c r="W258" s="63"/>
+      <c r="X258" s="63"/>
+      <c r="Y258" s="63"/>
+      <c r="Z258" s="63"/>
+      <c r="AA258" s="63"/>
+      <c r="AB258" s="63"/>
+      <c r="AC258" s="63"/>
+      <c r="AD258" s="63"/>
+      <c r="AE258" s="63"/>
+      <c r="AF258" s="64"/>
+      <c r="AG258" s="64"/>
       <c r="AH258" s="19"/>
       <c r="AI258" s="19"/>
       <c r="AJ258" s="19"/>
@@ -13830,39 +14104,39 @@
       <c r="AM258" s="19"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="72"/>
-      <c r="B259" s="72"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="10"/>
-      <c r="E259" s="18"/>
-      <c r="F259" s="18"/>
-      <c r="G259" s="10"/>
-      <c r="H259" s="10"/>
-      <c r="I259" s="10"/>
-      <c r="J259" s="10"/>
-      <c r="K259" s="10"/>
-      <c r="L259" s="10"/>
-      <c r="M259" s="10"/>
-      <c r="N259" s="10"/>
-      <c r="O259" s="10"/>
-      <c r="P259" s="10"/>
-      <c r="Q259" s="10"/>
-      <c r="R259" s="10"/>
-      <c r="S259" s="10"/>
-      <c r="T259" s="10"/>
-      <c r="U259" s="10"/>
-      <c r="V259" s="10"/>
-      <c r="W259" s="10"/>
-      <c r="X259" s="10"/>
-      <c r="Y259" s="10"/>
-      <c r="Z259" s="10"/>
-      <c r="AA259" s="10"/>
-      <c r="AB259" s="10"/>
-      <c r="AC259" s="10"/>
-      <c r="AD259" s="10"/>
-      <c r="AE259" s="10"/>
-      <c r="AF259" s="19"/>
-      <c r="AG259" s="19"/>
+      <c r="A259" s="62"/>
+      <c r="B259" s="70"/>
+      <c r="C259" s="62"/>
+      <c r="D259" s="63"/>
+      <c r="E259" s="62"/>
+      <c r="F259" s="62"/>
+      <c r="G259" s="63"/>
+      <c r="H259" s="63"/>
+      <c r="I259" s="63"/>
+      <c r="J259" s="63"/>
+      <c r="K259" s="63"/>
+      <c r="L259" s="63"/>
+      <c r="M259" s="63"/>
+      <c r="N259" s="63"/>
+      <c r="O259" s="63"/>
+      <c r="P259" s="63"/>
+      <c r="Q259" s="63"/>
+      <c r="R259" s="63"/>
+      <c r="S259" s="63"/>
+      <c r="T259" s="63"/>
+      <c r="U259" s="70"/>
+      <c r="V259" s="63"/>
+      <c r="W259" s="63"/>
+      <c r="X259" s="63"/>
+      <c r="Y259" s="63"/>
+      <c r="Z259" s="63"/>
+      <c r="AA259" s="63"/>
+      <c r="AB259" s="63"/>
+      <c r="AC259" s="63"/>
+      <c r="AD259" s="63"/>
+      <c r="AE259" s="63"/>
+      <c r="AF259" s="64"/>
+      <c r="AG259" s="64"/>
       <c r="AH259" s="19"/>
       <c r="AI259" s="19"/>
       <c r="AJ259" s="19"/>
@@ -14075,9 +14349,296 @@
       <c r="AL264" s="19"/>
       <c r="AM264" s="19"/>
     </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="A265" s="72"/>
+      <c r="B265" s="72"/>
+      <c r="C265" s="18"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="18"/>
+      <c r="F265" s="18"/>
+      <c r="G265" s="10"/>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="10"/>
+      <c r="K265" s="10"/>
+      <c r="L265" s="10"/>
+      <c r="M265" s="10"/>
+      <c r="N265" s="10"/>
+      <c r="O265" s="10"/>
+      <c r="P265" s="10"/>
+      <c r="Q265" s="10"/>
+      <c r="R265" s="10"/>
+      <c r="S265" s="10"/>
+      <c r="T265" s="10"/>
+      <c r="U265" s="10"/>
+      <c r="V265" s="10"/>
+      <c r="W265" s="10"/>
+      <c r="X265" s="10"/>
+      <c r="Y265" s="10"/>
+      <c r="Z265" s="10"/>
+      <c r="AA265" s="10"/>
+      <c r="AB265" s="10"/>
+      <c r="AC265" s="10"/>
+      <c r="AD265" s="10"/>
+      <c r="AE265" s="10"/>
+      <c r="AF265" s="19"/>
+      <c r="AG265" s="19"/>
+      <c r="AH265" s="19"/>
+      <c r="AI265" s="19"/>
+      <c r="AJ265" s="19"/>
+      <c r="AK265" s="19"/>
+      <c r="AL265" s="19"/>
+      <c r="AM265" s="19"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="A266" s="72"/>
+      <c r="B266" s="72"/>
+      <c r="C266" s="18"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="18"/>
+      <c r="F266" s="18"/>
+      <c r="G266" s="10"/>
+      <c r="H266" s="10"/>
+      <c r="I266" s="10"/>
+      <c r="J266" s="10"/>
+      <c r="K266" s="10"/>
+      <c r="L266" s="10"/>
+      <c r="M266" s="10"/>
+      <c r="N266" s="10"/>
+      <c r="O266" s="10"/>
+      <c r="P266" s="10"/>
+      <c r="Q266" s="10"/>
+      <c r="R266" s="10"/>
+      <c r="S266" s="10"/>
+      <c r="T266" s="10"/>
+      <c r="U266" s="10"/>
+      <c r="V266" s="10"/>
+      <c r="W266" s="10"/>
+      <c r="X266" s="10"/>
+      <c r="Y266" s="10"/>
+      <c r="Z266" s="10"/>
+      <c r="AA266" s="10"/>
+      <c r="AB266" s="10"/>
+      <c r="AC266" s="10"/>
+      <c r="AD266" s="10"/>
+      <c r="AE266" s="10"/>
+      <c r="AF266" s="19"/>
+      <c r="AG266" s="19"/>
+      <c r="AH266" s="19"/>
+      <c r="AI266" s="19"/>
+      <c r="AJ266" s="19"/>
+      <c r="AK266" s="19"/>
+      <c r="AL266" s="19"/>
+      <c r="AM266" s="19"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="A267" s="72"/>
+      <c r="B267" s="72"/>
+      <c r="C267" s="18"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="18"/>
+      <c r="F267" s="18"/>
+      <c r="G267" s="10"/>
+      <c r="H267" s="10"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="10"/>
+      <c r="K267" s="10"/>
+      <c r="L267" s="10"/>
+      <c r="M267" s="10"/>
+      <c r="N267" s="10"/>
+      <c r="O267" s="10"/>
+      <c r="P267" s="10"/>
+      <c r="Q267" s="10"/>
+      <c r="R267" s="10"/>
+      <c r="S267" s="10"/>
+      <c r="T267" s="10"/>
+      <c r="U267" s="10"/>
+      <c r="V267" s="10"/>
+      <c r="W267" s="10"/>
+      <c r="X267" s="10"/>
+      <c r="Y267" s="10"/>
+      <c r="Z267" s="10"/>
+      <c r="AA267" s="10"/>
+      <c r="AB267" s="10"/>
+      <c r="AC267" s="10"/>
+      <c r="AD267" s="10"/>
+      <c r="AE267" s="10"/>
+      <c r="AF267" s="19"/>
+      <c r="AG267" s="19"/>
+      <c r="AH267" s="19"/>
+      <c r="AI267" s="19"/>
+      <c r="AJ267" s="19"/>
+      <c r="AK267" s="19"/>
+      <c r="AL267" s="19"/>
+      <c r="AM267" s="19"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="A268" s="72"/>
+      <c r="B268" s="72"/>
+      <c r="C268" s="18"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="18"/>
+      <c r="F268" s="18"/>
+      <c r="G268" s="10"/>
+      <c r="H268" s="10"/>
+      <c r="I268" s="10"/>
+      <c r="J268" s="10"/>
+      <c r="K268" s="10"/>
+      <c r="L268" s="10"/>
+      <c r="M268" s="10"/>
+      <c r="N268" s="10"/>
+      <c r="O268" s="10"/>
+      <c r="P268" s="10"/>
+      <c r="Q268" s="10"/>
+      <c r="R268" s="10"/>
+      <c r="S268" s="10"/>
+      <c r="T268" s="10"/>
+      <c r="U268" s="10"/>
+      <c r="V268" s="10"/>
+      <c r="W268" s="10"/>
+      <c r="X268" s="10"/>
+      <c r="Y268" s="10"/>
+      <c r="Z268" s="10"/>
+      <c r="AA268" s="10"/>
+      <c r="AB268" s="10"/>
+      <c r="AC268" s="10"/>
+      <c r="AD268" s="10"/>
+      <c r="AE268" s="10"/>
+      <c r="AF268" s="19"/>
+      <c r="AG268" s="19"/>
+      <c r="AH268" s="19"/>
+      <c r="AI268" s="19"/>
+      <c r="AJ268" s="19"/>
+      <c r="AK268" s="19"/>
+      <c r="AL268" s="19"/>
+      <c r="AM268" s="19"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="A269" s="72"/>
+      <c r="B269" s="72"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="18"/>
+      <c r="F269" s="18"/>
+      <c r="G269" s="10"/>
+      <c r="H269" s="10"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="10"/>
+      <c r="K269" s="10"/>
+      <c r="L269" s="10"/>
+      <c r="M269" s="10"/>
+      <c r="N269" s="10"/>
+      <c r="O269" s="10"/>
+      <c r="P269" s="10"/>
+      <c r="Q269" s="10"/>
+      <c r="R269" s="10"/>
+      <c r="S269" s="10"/>
+      <c r="T269" s="10"/>
+      <c r="U269" s="10"/>
+      <c r="V269" s="10"/>
+      <c r="W269" s="10"/>
+      <c r="X269" s="10"/>
+      <c r="Y269" s="10"/>
+      <c r="Z269" s="10"/>
+      <c r="AA269" s="10"/>
+      <c r="AB269" s="10"/>
+      <c r="AC269" s="10"/>
+      <c r="AD269" s="10"/>
+      <c r="AE269" s="10"/>
+      <c r="AF269" s="19"/>
+      <c r="AG269" s="19"/>
+      <c r="AH269" s="19"/>
+      <c r="AI269" s="19"/>
+      <c r="AJ269" s="19"/>
+      <c r="AK269" s="19"/>
+      <c r="AL269" s="19"/>
+      <c r="AM269" s="19"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="A270" s="72"/>
+      <c r="B270" s="72"/>
+      <c r="C270" s="18"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="18"/>
+      <c r="F270" s="18"/>
+      <c r="G270" s="10"/>
+      <c r="H270" s="10"/>
+      <c r="I270" s="10"/>
+      <c r="J270" s="10"/>
+      <c r="K270" s="10"/>
+      <c r="L270" s="10"/>
+      <c r="M270" s="10"/>
+      <c r="N270" s="10"/>
+      <c r="O270" s="10"/>
+      <c r="P270" s="10"/>
+      <c r="Q270" s="10"/>
+      <c r="R270" s="10"/>
+      <c r="S270" s="10"/>
+      <c r="T270" s="10"/>
+      <c r="U270" s="10"/>
+      <c r="V270" s="10"/>
+      <c r="W270" s="10"/>
+      <c r="X270" s="10"/>
+      <c r="Y270" s="10"/>
+      <c r="Z270" s="10"/>
+      <c r="AA270" s="10"/>
+      <c r="AB270" s="10"/>
+      <c r="AC270" s="10"/>
+      <c r="AD270" s="10"/>
+      <c r="AE270" s="10"/>
+      <c r="AF270" s="19"/>
+      <c r="AG270" s="19"/>
+      <c r="AH270" s="19"/>
+      <c r="AI270" s="19"/>
+      <c r="AJ270" s="19"/>
+      <c r="AK270" s="19"/>
+      <c r="AL270" s="19"/>
+      <c r="AM270" s="19"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="A271" s="72"/>
+      <c r="B271" s="72"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="18"/>
+      <c r="F271" s="18"/>
+      <c r="G271" s="10"/>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
+      <c r="L271" s="10"/>
+      <c r="M271" s="10"/>
+      <c r="N271" s="10"/>
+      <c r="O271" s="10"/>
+      <c r="P271" s="10"/>
+      <c r="Q271" s="10"/>
+      <c r="R271" s="10"/>
+      <c r="S271" s="10"/>
+      <c r="T271" s="10"/>
+      <c r="U271" s="10"/>
+      <c r="V271" s="10"/>
+      <c r="W271" s="10"/>
+      <c r="X271" s="10"/>
+      <c r="Y271" s="10"/>
+      <c r="Z271" s="10"/>
+      <c r="AA271" s="10"/>
+      <c r="AB271" s="10"/>
+      <c r="AC271" s="10"/>
+      <c r="AD271" s="10"/>
+      <c r="AE271" s="10"/>
+      <c r="AF271" s="19"/>
+      <c r="AG271" s="19"/>
+      <c r="AH271" s="19"/>
+      <c r="AI271" s="19"/>
+      <c r="AJ271" s="19"/>
+      <c r="AK271" s="19"/>
+      <c r="AL271" s="19"/>
+      <c r="AM271" s="19"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J67 K68 J69:J76 K77 R136:R143 J78:J264">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J67 K68 J69:J76 K77 R140:R150 J78:J271">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14105,7 +14666,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="B1" s="73" t="s">
         <v>1</v>
@@ -14147,13 +14708,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="71" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="D2" s="81"/>
       <c r="E2" s="81"/>
@@ -14177,13 +14738,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="71" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="D3" s="81"/>
       <c r="E3" s="81"/>
@@ -14231,13 +14792,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="71" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="D5" s="81"/>
       <c r="E5" s="81"/>
@@ -14261,13 +14822,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="71" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
@@ -14291,13 +14852,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="71" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
@@ -14321,13 +14882,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="71" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
@@ -14375,13 +14936,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="71" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
@@ -14405,13 +14966,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="71" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
@@ -14459,13 +15020,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="83" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
@@ -14489,13 +15050,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="83" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
@@ -14519,13 +15080,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="83" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
@@ -14573,13 +15134,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="83" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
@@ -14603,13 +15164,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="83" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="B18" s="83" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
@@ -14657,13 +15218,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="83" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="81"/>
@@ -14687,13 +15248,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="83" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
@@ -14717,13 +15278,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="83" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="C22" s="83" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
@@ -14747,13 +15308,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="83" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
@@ -14777,13 +15338,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="83" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="B24" s="84" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
@@ -14829,13 +15390,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="83" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B26" s="85" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
@@ -14859,13 +15420,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="83" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B27" s="83" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="C27" s="83" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="81"/>
@@ -14889,13 +15450,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="83" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="81"/>
@@ -14919,13 +15480,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="83" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="C29" s="85" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="D29" s="81"/>
       <c r="E29" s="81"/>
@@ -14949,13 +15510,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="83" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="D30" s="81"/>
       <c r="E30" s="81"/>
@@ -14979,13 +15540,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="83" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
@@ -15009,13 +15570,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="83" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="C32" s="83" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="D32" s="81"/>
       <c r="E32" s="81"/>
@@ -15039,13 +15600,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="83" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B33" s="84" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="C33" s="84" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="D33" s="81"/>
       <c r="E33" s="81"/>
@@ -15093,24 +15654,24 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="84" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="B35" s="84" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="84" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
@@ -15123,7 +15684,7 @@
         <v>1.0</v>
       </c>
       <c r="C39" s="84" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -15134,7 +15695,7 @@
         <v>2.0</v>
       </c>
       <c r="C40" s="84" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -15145,7 +15706,7 @@
         <v>3.0</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -15156,7 +15717,7 @@
         <v>4.0</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -15167,7 +15728,7 @@
         <v>7.0</v>
       </c>
       <c r="C43" s="84" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -15178,7 +15739,7 @@
         <v>14.0</v>
       </c>
       <c r="C44" s="84" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -15191,10 +15752,10 @@
         <v>138</v>
       </c>
       <c r="B46" s="84" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="C46" s="84" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -15202,10 +15763,10 @@
         <v>138</v>
       </c>
       <c r="B47" s="84" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="C47" s="84" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -15213,10 +15774,10 @@
         <v>138</v>
       </c>
       <c r="B48" s="84" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="C48" s="84" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1"/>
@@ -15225,10 +15786,10 @@
         <v>141</v>
       </c>
       <c r="B50" s="84" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="C50" s="84" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -15236,10 +15797,10 @@
         <v>141</v>
       </c>
       <c r="B51" s="84" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="C51" s="84" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1"/>
@@ -15251,7 +15812,7 @@
         <v>1.0</v>
       </c>
       <c r="C53" s="84" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -15262,7 +15823,7 @@
         <v>2.0</v>
       </c>
       <c r="C54" s="84" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -15273,7 +15834,7 @@
         <v>3.0</v>
       </c>
       <c r="C55" s="84" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -15284,7 +15845,7 @@
         <v>4.0</v>
       </c>
       <c r="C56" s="84" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -15295,7 +15856,7 @@
         <v>7.0</v>
       </c>
       <c r="C57" s="84" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -15306,7 +15867,7 @@
         <v>14.0</v>
       </c>
       <c r="C58" s="84" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1"/>
@@ -15318,7 +15879,7 @@
         <v>1.0</v>
       </c>
       <c r="C60" s="84" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -15329,7 +15890,7 @@
         <v>2.0</v>
       </c>
       <c r="C61" s="84" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -15340,7 +15901,7 @@
         <v>3.0</v>
       </c>
       <c r="C62" s="84" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -15351,7 +15912,7 @@
         <v>4.0</v>
       </c>
       <c r="C63" s="84" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -15362,7 +15923,7 @@
         <v>7.0</v>
       </c>
       <c r="C64" s="84" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -15373,7 +15934,7 @@
         <v>14.0</v>
       </c>
       <c r="C65" s="84" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
@@ -15382,10 +15943,10 @@
         <v>182</v>
       </c>
       <c r="B67" s="84" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="C67" s="84" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -15393,10 +15954,10 @@
         <v>182</v>
       </c>
       <c r="B68" s="84" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="C68" s="84" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1"/>
@@ -15405,10 +15966,10 @@
         <v>191</v>
       </c>
       <c r="B70" s="84" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="C70" s="84" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -15416,10 +15977,10 @@
         <v>191</v>
       </c>
       <c r="B71" s="84" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="C71" s="84" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -15427,10 +15988,10 @@
         <v>191</v>
       </c>
       <c r="B72" s="84" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="C72" s="88" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1"/>
@@ -15483,25 +16044,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="G1" s="89" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="H1" s="73"/>
       <c r="I1" s="73"/>
@@ -15525,24 +16086,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="90" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="C2" s="91" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-15_15-55</v>
+        <v>2020-12-15_21-22</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="E2" s="92" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="93" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -15868,7 +16429,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="B1" s="73" t="s">
         <v>1</v>
@@ -15911,13 +16472,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="81" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="B2" s="81" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="D2" s="81"/>
       <c r="E2" s="81"/>
@@ -15942,13 +16503,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="81" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="D3" s="81"/>
       <c r="E3" s="81"/>
@@ -15998,13 +16559,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="81" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="D5" s="81"/>
       <c r="E5" s="81"/>
@@ -16029,13 +16590,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="81" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
@@ -16060,13 +16621,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="81" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
@@ -16091,13 +16652,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="81" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
@@ -16122,13 +16683,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="81" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
@@ -16178,13 +16739,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="81" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
@@ -16209,13 +16770,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="81" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
@@ -16240,13 +16801,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="81" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
@@ -16271,13 +16832,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="81" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
@@ -16302,13 +16863,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
@@ -16333,13 +16894,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="81" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
@@ -16389,13 +16950,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="81" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
@@ -16420,13 +16981,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="81" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
@@ -16451,13 +17012,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="81" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="81"/>
@@ -16482,13 +17043,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="81" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
@@ -16513,13 +17074,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="81" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
@@ -16544,13 +17105,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="81" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
@@ -16600,13 +17161,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="81" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="D25" s="81"/>
       <c r="E25" s="81"/>
@@ -16631,13 +17192,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="81" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
@@ -16662,13 +17223,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="81" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="81"/>
@@ -16693,13 +17254,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="81" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="81"/>
@@ -16724,13 +17285,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="81" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="D29" s="81"/>
       <c r="E29" s="81"/>
@@ -16780,13 +17341,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="81" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
@@ -16811,13 +17372,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="81" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="D32" s="81"/>
       <c r="E32" s="81"/>
@@ -16867,121 +17428,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>433</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="C43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -16992,26 +17553,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -17022,13 +17583,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="95" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="B48" s="95" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="C48" s="95" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="D48" s="95"/>
       <c r="E48" s="95"/>
@@ -17053,13 +17614,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="95" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="B49" s="95" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="C49" s="95" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="D49" s="95"/>
       <c r="E49" s="95"/>
@@ -17085,226 +17646,226 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="B51" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="C51" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="B52" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="C52" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="B53" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="C53" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="B54" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="C54" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="B55" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="C55" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="B56" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="C56" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="95" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="B58" s="95" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="C58" s="95" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="95" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="B59" s="95" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="C59" s="95" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="95" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="B60" s="95" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="C60" s="95" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="95" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="B61" s="95" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="C61" s="95" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="C63" s="95" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="C64" s="95" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="C65" s="95" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="C66" s="95" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="C67" s="95" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="B69" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="C69" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="B70" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="C70" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="C72" s="96" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="B73" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="C73" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="B74" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="C74" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/child_assessment.xlsx
+++ b/config/default/forms/app/child_assessment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="592">
   <si>
     <t>type</t>
   </si>
@@ -667,7 +667,7 @@
     <t>summary_age</t>
   </si>
   <si>
-    <t>${patient_age_in_years} years ${patient_age_in_months} months</t>
+    <t>${__display_age}</t>
   </si>
   <si>
     <t>summary_symp</t>
@@ -1030,6 +1030,9 @@
   </si>
   <si>
     <t>Explain why the sick needs to go to the health facility</t>
+  </si>
+  <si>
+    <t>li li</t>
   </si>
   <si>
     <t>summary_danger_signs2</t>
@@ -1417,8 +1420,7 @@
     <t>if(
     selected(${__any_danger}, 'no') and 
     ${diarrhea_last} &lt; 14 and
-    selected(${diarrhea_blood}, 'no') and
-    not(selected(${malaria_results}, 'positive'))
+    selected(${diarrhea_blood}, 'no')
     ,"yes", "no"
  )</t>
   </si>
@@ -1462,6 +1464,16 @@
     selected(${two_mo_referred}, 'yes')
     ,"yes", "no"
  )</t>
+  </si>
+  <si>
+    <t>__display_age</t>
+  </si>
+  <si>
+    <t>if(../../patient_age_in_days &lt; 31, 
+concat(../../patient_age_in_days, ' days old'),
+if(../../patient_age_in_months &lt; 12, 
+concat(../../patient_age_in_months, ' months old'), 
+concat(../../patient_age_in_years, ' years old')))</t>
   </si>
   <si>
     <t>list_name</t>
@@ -9030,7 +9042,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="45"/>
       <c r="L134" s="42" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="M134" s="46"/>
       <c r="N134" s="46"/>
@@ -9065,10 +9077,10 @@
         <v>87</v>
       </c>
       <c r="B135" s="42" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C135" s="42" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D135" s="41"/>
       <c r="E135" s="40"/>
@@ -9114,10 +9126,10 @@
         <v>87</v>
       </c>
       <c r="B136" s="42" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C136" s="42" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D136" s="41"/>
       <c r="E136" s="40"/>
@@ -9163,10 +9175,10 @@
         <v>87</v>
       </c>
       <c r="B137" s="42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C137" s="42" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D137" s="41"/>
       <c r="E137" s="40"/>
@@ -9212,10 +9224,10 @@
         <v>87</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C138" s="42" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D138" s="41"/>
       <c r="E138" s="40"/>
@@ -9261,10 +9273,10 @@
         <v>87</v>
       </c>
       <c r="B139" s="42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C139" s="42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D139" s="41"/>
       <c r="E139" s="40"/>
@@ -9353,7 +9365,7 @@
         <v>87</v>
       </c>
       <c r="B141" s="45" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C141" s="45" t="s">
         <v>305</v>
@@ -9404,10 +9416,10 @@
         <v>87</v>
       </c>
       <c r="B142" s="42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C142" s="42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D142" s="46"/>
       <c r="E142" s="44"/>
@@ -9453,7 +9465,7 @@
         <v>87</v>
       </c>
       <c r="B143" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C143" s="45" t="s">
         <v>305</v>
@@ -9504,7 +9516,7 @@
         <v>34</v>
       </c>
       <c r="B144" s="42" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C144" s="40" t="s">
         <v>72</v>
@@ -9555,10 +9567,10 @@
         <v>87</v>
       </c>
       <c r="B145" s="42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C145" s="42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D145" s="46"/>
       <c r="E145" s="44"/>
@@ -9604,10 +9616,10 @@
         <v>87</v>
       </c>
       <c r="B146" s="42" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C146" s="53" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D146" s="41"/>
       <c r="E146" s="40"/>
@@ -9696,7 +9708,7 @@
         <v>34</v>
       </c>
       <c r="B148" s="42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C148" s="40" t="s">
         <v>72</v>
@@ -9747,10 +9759,10 @@
         <v>87</v>
       </c>
       <c r="B149" s="42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C149" s="52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D149" s="41"/>
       <c r="E149" s="40"/>
@@ -9796,10 +9808,10 @@
         <v>87</v>
       </c>
       <c r="B150" s="42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C150" s="42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D150" s="41"/>
       <c r="E150" s="40"/>
@@ -9845,10 +9857,10 @@
         <v>87</v>
       </c>
       <c r="B151" s="42" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C151" s="42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D151" s="41"/>
       <c r="E151" s="40"/>
@@ -9937,7 +9949,7 @@
         <v>34</v>
       </c>
       <c r="B153" s="42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C153" s="40" t="s">
         <v>72</v>
@@ -9988,10 +10000,10 @@
         <v>87</v>
       </c>
       <c r="B154" s="42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C154" s="42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D154" s="46"/>
       <c r="E154" s="44"/>
@@ -10037,10 +10049,10 @@
         <v>87</v>
       </c>
       <c r="B155" s="42" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C155" s="42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D155" s="46"/>
       <c r="E155" s="44"/>
@@ -10086,10 +10098,10 @@
         <v>87</v>
       </c>
       <c r="B156" s="42" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C156" s="42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D156" s="46"/>
       <c r="E156" s="44"/>
@@ -10178,7 +10190,7 @@
         <v>34</v>
       </c>
       <c r="B158" s="42" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C158" s="40" t="s">
         <v>72</v>
@@ -10229,10 +10241,10 @@
         <v>87</v>
       </c>
       <c r="B159" s="42" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C159" s="42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D159" s="41"/>
       <c r="E159" s="40"/>
@@ -10278,10 +10290,10 @@
         <v>87</v>
       </c>
       <c r="B160" s="42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C160" s="42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D160" s="41"/>
       <c r="E160" s="40"/>
@@ -10370,7 +10382,7 @@
         <v>34</v>
       </c>
       <c r="B162" s="42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C162" s="40" t="s">
         <v>72</v>
@@ -10421,10 +10433,10 @@
         <v>87</v>
       </c>
       <c r="B163" s="42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C163" s="42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D163" s="41"/>
       <c r="E163" s="40"/>
@@ -10470,10 +10482,10 @@
         <v>87</v>
       </c>
       <c r="B164" s="42" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D164" s="41"/>
       <c r="E164" s="40"/>
@@ -10562,10 +10574,10 @@
         <v>87</v>
       </c>
       <c r="B166" s="42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C166" s="42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D166" s="41"/>
       <c r="E166" s="40"/>
@@ -10575,7 +10587,7 @@
       <c r="I166" s="41"/>
       <c r="J166" s="40"/>
       <c r="K166" s="42" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L166" s="42" t="s">
         <v>224</v>
@@ -10613,10 +10625,10 @@
         <v>87</v>
       </c>
       <c r="B167" s="42" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D167" s="41"/>
       <c r="E167" s="40"/>
@@ -10664,10 +10676,10 @@
         <v>87</v>
       </c>
       <c r="B168" s="42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C168" s="42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D168" s="41"/>
       <c r="E168" s="40"/>
@@ -10717,7 +10729,7 @@
         <v>34</v>
       </c>
       <c r="B169" s="42" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C169" s="40" t="s">
         <v>72</v>
@@ -10768,10 +10780,10 @@
         <v>87</v>
       </c>
       <c r="B170" s="42" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C170" s="42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D170" s="41"/>
       <c r="E170" s="40"/>
@@ -10817,10 +10829,10 @@
         <v>87</v>
       </c>
       <c r="B171" s="42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C171" s="42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D171" s="41"/>
       <c r="E171" s="40"/>
@@ -10911,7 +10923,7 @@
         <v>34</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C173" s="40" t="s">
         <v>72</v>
@@ -10962,10 +10974,10 @@
         <v>87</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C174" s="42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D174" s="41"/>
       <c r="E174" s="40"/>
@@ -11011,10 +11023,10 @@
         <v>87</v>
       </c>
       <c r="B175" s="42" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C175" s="42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D175" s="41"/>
       <c r="E175" s="40"/>
@@ -11103,7 +11115,7 @@
         <v>34</v>
       </c>
       <c r="B177" s="42" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C177" s="40" t="s">
         <v>72</v>
@@ -11116,7 +11128,7 @@
       <c r="I177" s="41"/>
       <c r="J177" s="40"/>
       <c r="K177" s="42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L177" s="42" t="s">
         <v>38</v>
@@ -11154,10 +11166,10 @@
         <v>87</v>
       </c>
       <c r="B178" s="42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C178" s="42" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D178" s="41"/>
       <c r="E178" s="40"/>
@@ -11203,10 +11215,10 @@
         <v>87</v>
       </c>
       <c r="B179" s="42" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C179" s="42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D179" s="41"/>
       <c r="E179" s="40"/>
@@ -11295,7 +11307,7 @@
         <v>34</v>
       </c>
       <c r="B181" s="42" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C181" s="40" t="s">
         <v>72</v>
@@ -11308,7 +11320,7 @@
       <c r="I181" s="41"/>
       <c r="J181" s="40"/>
       <c r="K181" s="42" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L181" s="42" t="s">
         <v>38</v>
@@ -11346,10 +11358,10 @@
         <v>87</v>
       </c>
       <c r="B182" s="42" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D182" s="41"/>
       <c r="E182" s="40"/>
@@ -11395,10 +11407,10 @@
         <v>87</v>
       </c>
       <c r="B183" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C183" s="42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D183" s="41"/>
       <c r="E183" s="40"/>
@@ -11444,10 +11456,10 @@
         <v>87</v>
       </c>
       <c r="B184" s="42" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C184" s="42" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D184" s="41"/>
       <c r="E184" s="40"/>
@@ -11493,10 +11505,10 @@
         <v>87</v>
       </c>
       <c r="B185" s="42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C185" s="42" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D185" s="41"/>
       <c r="E185" s="40"/>
@@ -11542,10 +11554,10 @@
         <v>87</v>
       </c>
       <c r="B186" s="42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C186" s="42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D186" s="41"/>
       <c r="E186" s="40"/>
@@ -11634,7 +11646,7 @@
         <v>34</v>
       </c>
       <c r="B188" s="42" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C188" s="40" t="s">
         <v>72</v>
@@ -11647,7 +11659,7 @@
       <c r="I188" s="41"/>
       <c r="J188" s="40"/>
       <c r="K188" s="42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L188" s="42" t="s">
         <v>38</v>
@@ -11685,10 +11697,10 @@
         <v>87</v>
       </c>
       <c r="B189" s="42" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C189" s="42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D189" s="41"/>
       <c r="E189" s="40"/>
@@ -11734,10 +11746,10 @@
         <v>87</v>
       </c>
       <c r="B190" s="42" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C190" s="42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D190" s="41"/>
       <c r="E190" s="40"/>
@@ -11826,10 +11838,10 @@
         <v>87</v>
       </c>
       <c r="B192" s="42" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C192" s="42" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D192" s="41"/>
       <c r="E192" s="40"/>
@@ -11877,7 +11889,7 @@
         <v>34</v>
       </c>
       <c r="B193" s="42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C193" s="40" t="s">
         <v>72</v>
@@ -11928,10 +11940,10 @@
         <v>87</v>
       </c>
       <c r="B194" s="42" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C194" s="42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D194" s="41"/>
       <c r="E194" s="40"/>
@@ -11977,10 +11989,10 @@
         <v>87</v>
       </c>
       <c r="B195" s="42" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C195" s="42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D195" s="41"/>
       <c r="E195" s="40"/>
@@ -12026,10 +12038,10 @@
         <v>87</v>
       </c>
       <c r="B196" s="42" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C196" s="42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D196" s="41"/>
       <c r="E196" s="40"/>
@@ -12118,7 +12130,7 @@
         <v>34</v>
       </c>
       <c r="B198" s="42" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C198" s="40" t="s">
         <v>72</v>
@@ -12169,10 +12181,10 @@
         <v>87</v>
       </c>
       <c r="B199" s="42" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C199" s="42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D199" s="46"/>
       <c r="E199" s="44"/>
@@ -12216,10 +12228,10 @@
         <v>87</v>
       </c>
       <c r="B200" s="42" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C200" s="42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D200" s="46"/>
       <c r="E200" s="44"/>
@@ -12263,10 +12275,10 @@
         <v>87</v>
       </c>
       <c r="B201" s="42" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C201" s="42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D201" s="46"/>
       <c r="E201" s="44"/>
@@ -12354,7 +12366,7 @@
       </c>
       <c r="B203" s="44"/>
       <c r="C203" s="45" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D203" s="46"/>
       <c r="E203" s="44"/>
@@ -12365,7 +12377,7 @@
       <c r="J203" s="44"/>
       <c r="K203" s="44"/>
       <c r="L203" s="45" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M203" s="46"/>
       <c r="N203" s="46"/>
@@ -12401,7 +12413,7 @@
       </c>
       <c r="B204" s="40"/>
       <c r="C204" s="42" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D204" s="41"/>
       <c r="E204" s="40"/>
@@ -12570,7 +12582,7 @@
         <v>34</v>
       </c>
       <c r="B208" s="54" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C208" s="55" t="s">
         <v>72</v>
@@ -12621,7 +12633,7 @@
         <v>70</v>
       </c>
       <c r="B209" s="57" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C209" s="55" t="s">
         <v>72</v>
@@ -12644,7 +12656,7 @@
       <c r="S209" s="56"/>
       <c r="T209" s="56"/>
       <c r="U209" s="58" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="V209" s="56"/>
       <c r="W209" s="56"/>
@@ -12659,7 +12671,7 @@
       <c r="AF209" s="55"/>
       <c r="AG209" s="55"/>
       <c r="AH209" s="59" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI209" s="60"/>
       <c r="AJ209" s="55"/>
@@ -12672,7 +12684,7 @@
         <v>70</v>
       </c>
       <c r="B210" s="57" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C210" s="55" t="s">
         <v>72</v>
@@ -12695,7 +12707,7 @@
       <c r="S210" s="56"/>
       <c r="T210" s="56"/>
       <c r="U210" s="58" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="V210" s="56"/>
       <c r="W210" s="56"/>
@@ -12721,7 +12733,7 @@
         <v>70</v>
       </c>
       <c r="B211" s="57" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C211" s="55" t="s">
         <v>72</v>
@@ -12744,7 +12756,7 @@
       <c r="S211" s="56"/>
       <c r="T211" s="56"/>
       <c r="U211" s="58" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="V211" s="56"/>
       <c r="W211" s="56"/>
@@ -12770,7 +12782,7 @@
         <v>70</v>
       </c>
       <c r="B212" s="57" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C212" s="55" t="s">
         <v>72</v>
@@ -12793,7 +12805,7 @@
       <c r="S212" s="56"/>
       <c r="T212" s="56"/>
       <c r="U212" s="58" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V212" s="56"/>
       <c r="W212" s="56"/>
@@ -12819,7 +12831,7 @@
         <v>70</v>
       </c>
       <c r="B213" s="57" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C213" s="55" t="s">
         <v>72</v>
@@ -12842,7 +12854,7 @@
       <c r="S213" s="56"/>
       <c r="T213" s="56"/>
       <c r="U213" s="58" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="V213" s="56"/>
       <c r="W213" s="56"/>
@@ -12868,7 +12880,7 @@
         <v>70</v>
       </c>
       <c r="B214" s="57" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C214" s="55" t="s">
         <v>72</v>
@@ -12891,7 +12903,7 @@
       <c r="S214" s="56"/>
       <c r="T214" s="56"/>
       <c r="U214" s="58" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="V214" s="56"/>
       <c r="W214" s="56"/>
@@ -12917,7 +12929,7 @@
         <v>70</v>
       </c>
       <c r="B215" s="62" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C215" s="55" t="s">
         <v>72</v>
@@ -12940,7 +12952,7 @@
       <c r="S215" s="56"/>
       <c r="T215" s="56"/>
       <c r="U215" s="58" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="V215" s="56"/>
       <c r="W215" s="56"/>
@@ -12966,7 +12978,7 @@
         <v>70</v>
       </c>
       <c r="B216" s="62" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C216" s="55" t="s">
         <v>72</v>
@@ -12989,7 +13001,7 @@
       <c r="S216" s="56"/>
       <c r="T216" s="56"/>
       <c r="U216" s="58" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="V216" s="56"/>
       <c r="W216" s="56"/>
@@ -13015,7 +13027,7 @@
         <v>70</v>
       </c>
       <c r="B217" s="62" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C217" s="55" t="s">
         <v>72</v>
@@ -13038,7 +13050,7 @@
       <c r="S217" s="56"/>
       <c r="T217" s="56"/>
       <c r="U217" s="58" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="V217" s="56"/>
       <c r="W217" s="56"/>
@@ -13064,7 +13076,7 @@
         <v>70</v>
       </c>
       <c r="B218" s="62" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C218" s="55" t="s">
         <v>72</v>
@@ -13087,7 +13099,7 @@
       <c r="S218" s="56"/>
       <c r="T218" s="56"/>
       <c r="U218" s="58" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="V218" s="56"/>
       <c r="W218" s="56"/>
@@ -13113,7 +13125,7 @@
         <v>70</v>
       </c>
       <c r="B219" s="62" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C219" s="55" t="s">
         <v>72</v>
@@ -13136,7 +13148,7 @@
       <c r="S219" s="56"/>
       <c r="T219" s="56"/>
       <c r="U219" s="58" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="V219" s="56"/>
       <c r="W219" s="56"/>
@@ -13162,7 +13174,7 @@
         <v>70</v>
       </c>
       <c r="B220" s="62" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C220" s="55" t="s">
         <v>72</v>
@@ -13185,7 +13197,7 @@
       <c r="S220" s="56"/>
       <c r="T220" s="56"/>
       <c r="U220" s="58" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V220" s="56"/>
       <c r="W220" s="56"/>
@@ -13207,11 +13219,15 @@
       <c r="AM220" s="19"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B221" s="61"/>
-      <c r="C221" s="55"/>
+      <c r="A221" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B221" s="62" t="s">
+        <v>418</v>
+      </c>
+      <c r="C221" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="D221" s="56"/>
       <c r="E221" s="55"/>
       <c r="F221" s="55"/>
@@ -13229,7 +13245,9 @@
       <c r="R221" s="56"/>
       <c r="S221" s="56"/>
       <c r="T221" s="56"/>
-      <c r="U221" s="56"/>
+      <c r="U221" s="58" t="s">
+        <v>419</v>
+      </c>
       <c r="V221" s="56"/>
       <c r="W221" s="56"/>
       <c r="X221" s="56"/>
@@ -13250,41 +13268,44 @@
       <c r="AM221" s="19"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="18"/>
-      <c r="B222" s="18"/>
-      <c r="C222" s="18"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="18"/>
-      <c r="F222" s="18"/>
-      <c r="G222" s="10"/>
-      <c r="H222" s="10"/>
-      <c r="I222" s="10"/>
-      <c r="J222" s="10"/>
-      <c r="K222" s="18"/>
-      <c r="L222" s="18"/>
-      <c r="M222" s="10"/>
-      <c r="N222" s="10"/>
-      <c r="O222" s="10"/>
-      <c r="P222" s="10"/>
-      <c r="Q222" s="10"/>
-      <c r="R222" s="10"/>
-      <c r="S222" s="10"/>
-      <c r="T222" s="10"/>
-      <c r="V222" s="10"/>
-      <c r="W222" s="10"/>
-      <c r="X222" s="10"/>
-      <c r="Y222" s="10"/>
-      <c r="Z222" s="10"/>
-      <c r="AA222" s="10"/>
-      <c r="AB222" s="10"/>
-      <c r="AC222" s="10"/>
-      <c r="AD222" s="10"/>
-      <c r="AE222" s="10"/>
-      <c r="AF222" s="19"/>
-      <c r="AG222" s="19"/>
-      <c r="AH222" s="19"/>
-      <c r="AI222" s="19"/>
-      <c r="AJ222" s="19"/>
+      <c r="A222" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B222" s="61"/>
+      <c r="C222" s="55"/>
+      <c r="D222" s="56"/>
+      <c r="E222" s="55"/>
+      <c r="F222" s="55"/>
+      <c r="G222" s="56"/>
+      <c r="H222" s="56"/>
+      <c r="I222" s="56"/>
+      <c r="J222" s="56"/>
+      <c r="K222" s="55"/>
+      <c r="L222" s="55"/>
+      <c r="M222" s="56"/>
+      <c r="N222" s="56"/>
+      <c r="O222" s="56"/>
+      <c r="P222" s="56"/>
+      <c r="Q222" s="56"/>
+      <c r="R222" s="56"/>
+      <c r="S222" s="56"/>
+      <c r="T222" s="56"/>
+      <c r="U222" s="56"/>
+      <c r="V222" s="56"/>
+      <c r="W222" s="56"/>
+      <c r="X222" s="56"/>
+      <c r="Y222" s="56"/>
+      <c r="Z222" s="56"/>
+      <c r="AA222" s="56"/>
+      <c r="AB222" s="56"/>
+      <c r="AC222" s="56"/>
+      <c r="AD222" s="56"/>
+      <c r="AE222" s="56"/>
+      <c r="AF222" s="55"/>
+      <c r="AG222" s="55"/>
+      <c r="AH222" s="55"/>
+      <c r="AI222" s="55"/>
+      <c r="AJ222" s="55"/>
       <c r="AK222" s="19"/>
       <c r="AL222" s="19"/>
       <c r="AM222" s="19"/>
@@ -13310,7 +13331,6 @@
       <c r="R223" s="10"/>
       <c r="S223" s="10"/>
       <c r="T223" s="10"/>
-      <c r="U223" s="10"/>
       <c r="V223" s="10"/>
       <c r="W223" s="10"/>
       <c r="X223" s="10"/>
@@ -13659,39 +13679,39 @@
       <c r="AM231" s="19"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="63"/>
-      <c r="B232" s="63"/>
-      <c r="C232" s="63"/>
-      <c r="D232" s="64"/>
-      <c r="E232" s="63"/>
-      <c r="F232" s="63"/>
-      <c r="G232" s="64"/>
-      <c r="H232" s="64"/>
-      <c r="I232" s="64"/>
-      <c r="J232" s="64"/>
-      <c r="K232" s="63"/>
-      <c r="L232" s="63"/>
-      <c r="M232" s="64"/>
-      <c r="N232" s="64"/>
-      <c r="O232" s="64"/>
-      <c r="P232" s="64"/>
-      <c r="Q232" s="64"/>
-      <c r="R232" s="64"/>
-      <c r="S232" s="64"/>
-      <c r="T232" s="64"/>
-      <c r="U232" s="64"/>
-      <c r="V232" s="64"/>
-      <c r="W232" s="64"/>
-      <c r="X232" s="64"/>
-      <c r="Y232" s="64"/>
-      <c r="Z232" s="64"/>
-      <c r="AA232" s="64"/>
-      <c r="AB232" s="64"/>
-      <c r="AC232" s="64"/>
-      <c r="AD232" s="64"/>
-      <c r="AE232" s="64"/>
-      <c r="AF232" s="65"/>
-      <c r="AG232" s="65"/>
+      <c r="A232" s="18"/>
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="18"/>
+      <c r="F232" s="18"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="10"/>
+      <c r="K232" s="18"/>
+      <c r="L232" s="18"/>
+      <c r="M232" s="10"/>
+      <c r="N232" s="10"/>
+      <c r="O232" s="10"/>
+      <c r="P232" s="10"/>
+      <c r="Q232" s="10"/>
+      <c r="R232" s="10"/>
+      <c r="S232" s="10"/>
+      <c r="T232" s="10"/>
+      <c r="U232" s="10"/>
+      <c r="V232" s="10"/>
+      <c r="W232" s="10"/>
+      <c r="X232" s="10"/>
+      <c r="Y232" s="10"/>
+      <c r="Z232" s="10"/>
+      <c r="AA232" s="10"/>
+      <c r="AB232" s="10"/>
+      <c r="AC232" s="10"/>
+      <c r="AD232" s="10"/>
+      <c r="AE232" s="10"/>
+      <c r="AF232" s="19"/>
+      <c r="AG232" s="19"/>
       <c r="AH232" s="19"/>
       <c r="AI232" s="19"/>
       <c r="AJ232" s="19"/>
@@ -13792,7 +13812,7 @@
       <c r="H235" s="64"/>
       <c r="I235" s="64"/>
       <c r="J235" s="64"/>
-      <c r="K235" s="64"/>
+      <c r="K235" s="63"/>
       <c r="L235" s="63"/>
       <c r="M235" s="64"/>
       <c r="N235" s="64"/>
@@ -13823,18 +13843,18 @@
       <c r="AM235" s="19"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="66"/>
-      <c r="B236" s="66"/>
-      <c r="C236" s="66"/>
-      <c r="D236" s="67"/>
-      <c r="E236" s="66"/>
-      <c r="F236" s="66"/>
-      <c r="G236" s="67"/>
-      <c r="H236" s="67"/>
-      <c r="I236" s="67"/>
-      <c r="J236" s="67"/>
-      <c r="K236" s="67"/>
-      <c r="L236" s="66"/>
+      <c r="A236" s="63"/>
+      <c r="B236" s="63"/>
+      <c r="C236" s="63"/>
+      <c r="D236" s="64"/>
+      <c r="E236" s="63"/>
+      <c r="F236" s="63"/>
+      <c r="G236" s="64"/>
+      <c r="H236" s="64"/>
+      <c r="I236" s="64"/>
+      <c r="J236" s="64"/>
+      <c r="K236" s="64"/>
+      <c r="L236" s="63"/>
       <c r="M236" s="64"/>
       <c r="N236" s="64"/>
       <c r="O236" s="64"/>
@@ -13864,18 +13884,18 @@
       <c r="AM236" s="19"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="63"/>
-      <c r="B237" s="63"/>
-      <c r="C237" s="63"/>
-      <c r="D237" s="64"/>
-      <c r="E237" s="63"/>
-      <c r="F237" s="63"/>
-      <c r="G237" s="64"/>
-      <c r="H237" s="64"/>
-      <c r="I237" s="64"/>
-      <c r="J237" s="64"/>
-      <c r="K237" s="63"/>
-      <c r="L237" s="63"/>
+      <c r="A237" s="66"/>
+      <c r="B237" s="66"/>
+      <c r="C237" s="66"/>
+      <c r="D237" s="67"/>
+      <c r="E237" s="66"/>
+      <c r="F237" s="66"/>
+      <c r="G237" s="67"/>
+      <c r="H237" s="67"/>
+      <c r="I237" s="67"/>
+      <c r="J237" s="67"/>
+      <c r="K237" s="67"/>
+      <c r="L237" s="66"/>
       <c r="M237" s="64"/>
       <c r="N237" s="64"/>
       <c r="O237" s="64"/>
@@ -14325,7 +14345,7 @@
       <c r="H248" s="64"/>
       <c r="I248" s="64"/>
       <c r="J248" s="64"/>
-      <c r="K248" s="64"/>
+      <c r="K248" s="63"/>
       <c r="L248" s="63"/>
       <c r="M248" s="64"/>
       <c r="N248" s="64"/>
@@ -14356,18 +14376,18 @@
       <c r="AM248" s="19"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="66"/>
-      <c r="B249" s="68"/>
-      <c r="C249" s="66"/>
-      <c r="D249" s="67"/>
-      <c r="E249" s="66"/>
-      <c r="F249" s="66"/>
-      <c r="G249" s="67"/>
-      <c r="H249" s="67"/>
-      <c r="I249" s="67"/>
-      <c r="J249" s="67"/>
-      <c r="K249" s="67"/>
-      <c r="L249" s="66"/>
+      <c r="A249" s="63"/>
+      <c r="B249" s="63"/>
+      <c r="C249" s="63"/>
+      <c r="D249" s="64"/>
+      <c r="E249" s="63"/>
+      <c r="F249" s="63"/>
+      <c r="G249" s="64"/>
+      <c r="H249" s="64"/>
+      <c r="I249" s="64"/>
+      <c r="J249" s="64"/>
+      <c r="K249" s="64"/>
+      <c r="L249" s="63"/>
       <c r="M249" s="64"/>
       <c r="N249" s="64"/>
       <c r="O249" s="64"/>
@@ -14397,18 +14417,18 @@
       <c r="AM249" s="19"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="63"/>
-      <c r="B250" s="63"/>
-      <c r="C250" s="63"/>
-      <c r="D250" s="64"/>
-      <c r="E250" s="63"/>
-      <c r="F250" s="63"/>
-      <c r="G250" s="64"/>
-      <c r="H250" s="64"/>
-      <c r="I250" s="64"/>
-      <c r="J250" s="64"/>
-      <c r="K250" s="63"/>
-      <c r="L250" s="63"/>
+      <c r="A250" s="66"/>
+      <c r="B250" s="68"/>
+      <c r="C250" s="66"/>
+      <c r="D250" s="67"/>
+      <c r="E250" s="66"/>
+      <c r="F250" s="66"/>
+      <c r="G250" s="67"/>
+      <c r="H250" s="67"/>
+      <c r="I250" s="67"/>
+      <c r="J250" s="67"/>
+      <c r="K250" s="67"/>
+      <c r="L250" s="66"/>
       <c r="M250" s="64"/>
       <c r="N250" s="64"/>
       <c r="O250" s="64"/>
@@ -14601,7 +14621,7 @@
       <c r="AL254" s="19"/>
       <c r="AM254" s="19"/>
     </row>
-    <row r="255">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="63"/>
       <c r="B255" s="63"/>
       <c r="C255" s="63"/>
@@ -14612,7 +14632,7 @@
       <c r="H255" s="64"/>
       <c r="I255" s="64"/>
       <c r="J255" s="64"/>
-      <c r="K255" s="64"/>
+      <c r="K255" s="63"/>
       <c r="L255" s="63"/>
       <c r="M255" s="64"/>
       <c r="N255" s="64"/>
@@ -14622,7 +14642,7 @@
       <c r="R255" s="64"/>
       <c r="S255" s="64"/>
       <c r="T255" s="64"/>
-      <c r="U255" s="63"/>
+      <c r="U255" s="64"/>
       <c r="V255" s="64"/>
       <c r="W255" s="64"/>
       <c r="X255" s="64"/>
@@ -14642,7 +14662,7 @@
       <c r="AL255" s="19"/>
       <c r="AM255" s="19"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256">
       <c r="A256" s="63"/>
       <c r="B256" s="63"/>
       <c r="C256" s="63"/>
@@ -14729,8 +14749,8 @@
       <c r="B258" s="63"/>
       <c r="C258" s="63"/>
       <c r="D258" s="64"/>
-      <c r="E258" s="64"/>
-      <c r="F258" s="64"/>
+      <c r="E258" s="63"/>
+      <c r="F258" s="63"/>
       <c r="G258" s="64"/>
       <c r="H258" s="64"/>
       <c r="I258" s="64"/>
@@ -14756,17 +14776,19 @@
       <c r="AC258" s="64"/>
       <c r="AD258" s="64"/>
       <c r="AE258" s="64"/>
-      <c r="AH258" s="69"/>
-      <c r="AI258" s="69"/>
-      <c r="AJ258" s="69"/>
-      <c r="AK258" s="69"/>
-      <c r="AL258" s="69"/>
-      <c r="AM258" s="69"/>
+      <c r="AF258" s="65"/>
+      <c r="AG258" s="65"/>
+      <c r="AH258" s="19"/>
+      <c r="AI258" s="19"/>
+      <c r="AJ258" s="19"/>
+      <c r="AK258" s="19"/>
+      <c r="AL258" s="19"/>
+      <c r="AM258" s="19"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="63"/>
       <c r="B259" s="63"/>
-      <c r="C259" s="64"/>
+      <c r="C259" s="63"/>
       <c r="D259" s="64"/>
       <c r="E259" s="64"/>
       <c r="F259" s="64"/>
@@ -14922,15 +14944,15 @@
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="63"/>
       <c r="B263" s="63"/>
-      <c r="C263" s="63"/>
+      <c r="C263" s="64"/>
       <c r="D263" s="64"/>
-      <c r="E263" s="63"/>
+      <c r="E263" s="64"/>
       <c r="F263" s="64"/>
       <c r="G263" s="64"/>
       <c r="H263" s="64"/>
       <c r="I263" s="64"/>
       <c r="J263" s="64"/>
-      <c r="K263" s="63"/>
+      <c r="K263" s="64"/>
       <c r="L263" s="63"/>
       <c r="M263" s="64"/>
       <c r="N263" s="64"/>
@@ -14940,7 +14962,7 @@
       <c r="R263" s="64"/>
       <c r="S263" s="64"/>
       <c r="T263" s="64"/>
-      <c r="U263" s="64"/>
+      <c r="U263" s="63"/>
       <c r="V263" s="64"/>
       <c r="W263" s="64"/>
       <c r="X263" s="64"/>
@@ -14951,12 +14973,12 @@
       <c r="AC263" s="64"/>
       <c r="AD263" s="64"/>
       <c r="AE263" s="64"/>
-      <c r="AH263" s="70"/>
-      <c r="AI263" s="70"/>
-      <c r="AJ263" s="70"/>
-      <c r="AK263" s="70"/>
-      <c r="AL263" s="70"/>
-      <c r="AM263" s="70"/>
+      <c r="AH263" s="69"/>
+      <c r="AI263" s="69"/>
+      <c r="AJ263" s="69"/>
+      <c r="AK263" s="69"/>
+      <c r="AL263" s="69"/>
+      <c r="AM263" s="69"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="63"/>
@@ -14964,13 +14986,13 @@
       <c r="C264" s="63"/>
       <c r="D264" s="64"/>
       <c r="E264" s="63"/>
-      <c r="F264" s="63"/>
+      <c r="F264" s="64"/>
       <c r="G264" s="64"/>
       <c r="H264" s="64"/>
       <c r="I264" s="64"/>
       <c r="J264" s="64"/>
-      <c r="K264" s="64"/>
-      <c r="L264" s="64"/>
+      <c r="K264" s="63"/>
+      <c r="L264" s="63"/>
       <c r="M264" s="64"/>
       <c r="N264" s="64"/>
       <c r="O264" s="64"/>
@@ -14990,22 +15012,20 @@
       <c r="AC264" s="64"/>
       <c r="AD264" s="64"/>
       <c r="AE264" s="64"/>
-      <c r="AF264" s="65"/>
-      <c r="AG264" s="65"/>
-      <c r="AH264" s="19"/>
-      <c r="AI264" s="19"/>
-      <c r="AJ264" s="19"/>
-      <c r="AK264" s="19"/>
-      <c r="AL264" s="19"/>
-      <c r="AM264" s="19"/>
+      <c r="AH264" s="70"/>
+      <c r="AI264" s="70"/>
+      <c r="AJ264" s="70"/>
+      <c r="AK264" s="70"/>
+      <c r="AL264" s="70"/>
+      <c r="AM264" s="70"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="64"/>
-      <c r="B265" s="64"/>
-      <c r="C265" s="64"/>
+      <c r="A265" s="63"/>
+      <c r="B265" s="63"/>
+      <c r="C265" s="63"/>
       <c r="D265" s="64"/>
-      <c r="E265" s="64"/>
-      <c r="F265" s="64"/>
+      <c r="E265" s="63"/>
+      <c r="F265" s="63"/>
       <c r="G265" s="64"/>
       <c r="H265" s="64"/>
       <c r="I265" s="64"/>
@@ -15031,6 +15051,8 @@
       <c r="AC265" s="64"/>
       <c r="AD265" s="64"/>
       <c r="AE265" s="64"/>
+      <c r="AF265" s="65"/>
+      <c r="AG265" s="65"/>
       <c r="AH265" s="19"/>
       <c r="AI265" s="19"/>
       <c r="AJ265" s="19"/>
@@ -15039,18 +15061,18 @@
       <c r="AM265" s="19"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="63"/>
-      <c r="B266" s="63"/>
-      <c r="C266" s="63"/>
+      <c r="A266" s="64"/>
+      <c r="B266" s="64"/>
+      <c r="C266" s="64"/>
       <c r="D266" s="64"/>
-      <c r="E266" s="63"/>
-      <c r="F266" s="63"/>
+      <c r="E266" s="64"/>
+      <c r="F266" s="64"/>
       <c r="G266" s="64"/>
       <c r="H266" s="64"/>
       <c r="I266" s="64"/>
       <c r="J266" s="64"/>
       <c r="K266" s="64"/>
-      <c r="L266" s="63"/>
+      <c r="L266" s="64"/>
       <c r="M266" s="64"/>
       <c r="N266" s="64"/>
       <c r="O266" s="64"/>
@@ -15070,7 +15092,6 @@
       <c r="AC266" s="64"/>
       <c r="AD266" s="64"/>
       <c r="AE266" s="64"/>
-      <c r="AG266" s="65"/>
       <c r="AH266" s="19"/>
       <c r="AI266" s="19"/>
       <c r="AJ266" s="19"/>
@@ -15080,7 +15101,7 @@
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="63"/>
-      <c r="B267" s="71"/>
+      <c r="B267" s="63"/>
       <c r="C267" s="63"/>
       <c r="D267" s="64"/>
       <c r="E267" s="63"/>
@@ -15090,7 +15111,7 @@
       <c r="I267" s="64"/>
       <c r="J267" s="64"/>
       <c r="K267" s="64"/>
-      <c r="L267" s="64"/>
+      <c r="L267" s="63"/>
       <c r="M267" s="64"/>
       <c r="N267" s="64"/>
       <c r="O267" s="64"/>
@@ -15099,7 +15120,7 @@
       <c r="R267" s="64"/>
       <c r="S267" s="64"/>
       <c r="T267" s="64"/>
-      <c r="U267" s="63"/>
+      <c r="U267" s="64"/>
       <c r="V267" s="64"/>
       <c r="W267" s="64"/>
       <c r="X267" s="64"/>
@@ -15110,9 +15131,8 @@
       <c r="AC267" s="64"/>
       <c r="AD267" s="64"/>
       <c r="AE267" s="64"/>
-      <c r="AF267" s="65"/>
       <c r="AG267" s="65"/>
-      <c r="AH267" s="72"/>
+      <c r="AH267" s="19"/>
       <c r="AI267" s="19"/>
       <c r="AJ267" s="19"/>
       <c r="AK267" s="19"/>
@@ -16288,7 +16308,7 @@
       <c r="R296" s="64"/>
       <c r="S296" s="64"/>
       <c r="T296" s="64"/>
-      <c r="U296" s="71"/>
+      <c r="U296" s="63"/>
       <c r="V296" s="64"/>
       <c r="W296" s="64"/>
       <c r="X296" s="64"/>
@@ -16329,7 +16349,7 @@
       <c r="R297" s="64"/>
       <c r="S297" s="64"/>
       <c r="T297" s="64"/>
-      <c r="U297" s="63"/>
+      <c r="U297" s="71"/>
       <c r="V297" s="64"/>
       <c r="W297" s="64"/>
       <c r="X297" s="64"/>
@@ -16678,40 +16698,40 @@
       <c r="AM305" s="19"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="73"/>
-      <c r="B306" s="73"/>
+      <c r="A306" s="63"/>
+      <c r="B306" s="71"/>
       <c r="C306" s="63"/>
-      <c r="D306" s="10"/>
-      <c r="E306" s="18"/>
-      <c r="F306" s="18"/>
-      <c r="G306" s="10"/>
-      <c r="H306" s="10"/>
-      <c r="I306" s="10"/>
-      <c r="J306" s="10"/>
-      <c r="K306" s="10"/>
-      <c r="L306" s="10"/>
-      <c r="M306" s="10"/>
-      <c r="N306" s="10"/>
-      <c r="O306" s="10"/>
-      <c r="P306" s="10"/>
-      <c r="Q306" s="10"/>
-      <c r="R306" s="10"/>
-      <c r="S306" s="10"/>
-      <c r="T306" s="10"/>
-      <c r="U306" s="18"/>
-      <c r="V306" s="10"/>
-      <c r="W306" s="10"/>
-      <c r="X306" s="10"/>
-      <c r="Y306" s="10"/>
-      <c r="Z306" s="10"/>
-      <c r="AA306" s="10"/>
-      <c r="AB306" s="10"/>
-      <c r="AC306" s="10"/>
-      <c r="AD306" s="10"/>
-      <c r="AE306" s="10"/>
-      <c r="AF306" s="19"/>
-      <c r="AG306" s="19"/>
-      <c r="AH306" s="19"/>
+      <c r="D306" s="64"/>
+      <c r="E306" s="63"/>
+      <c r="F306" s="63"/>
+      <c r="G306" s="64"/>
+      <c r="H306" s="64"/>
+      <c r="I306" s="64"/>
+      <c r="J306" s="64"/>
+      <c r="K306" s="64"/>
+      <c r="L306" s="64"/>
+      <c r="M306" s="64"/>
+      <c r="N306" s="64"/>
+      <c r="O306" s="64"/>
+      <c r="P306" s="64"/>
+      <c r="Q306" s="64"/>
+      <c r="R306" s="64"/>
+      <c r="S306" s="64"/>
+      <c r="T306" s="64"/>
+      <c r="U306" s="63"/>
+      <c r="V306" s="64"/>
+      <c r="W306" s="64"/>
+      <c r="X306" s="64"/>
+      <c r="Y306" s="64"/>
+      <c r="Z306" s="64"/>
+      <c r="AA306" s="64"/>
+      <c r="AB306" s="64"/>
+      <c r="AC306" s="64"/>
+      <c r="AD306" s="64"/>
+      <c r="AE306" s="64"/>
+      <c r="AF306" s="65"/>
+      <c r="AG306" s="65"/>
+      <c r="AH306" s="72"/>
       <c r="AI306" s="19"/>
       <c r="AJ306" s="19"/>
       <c r="AK306" s="19"/>
@@ -16719,39 +16739,39 @@
       <c r="AM306" s="19"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="63"/>
-      <c r="B307" s="71"/>
+      <c r="A307" s="73"/>
+      <c r="B307" s="73"/>
       <c r="C307" s="63"/>
-      <c r="D307" s="64"/>
-      <c r="E307" s="63"/>
-      <c r="F307" s="63"/>
-      <c r="G307" s="64"/>
-      <c r="H307" s="64"/>
-      <c r="I307" s="64"/>
-      <c r="J307" s="64"/>
-      <c r="K307" s="64"/>
-      <c r="L307" s="64"/>
-      <c r="M307" s="64"/>
-      <c r="N307" s="64"/>
-      <c r="O307" s="64"/>
-      <c r="P307" s="64"/>
-      <c r="Q307" s="64"/>
-      <c r="R307" s="64"/>
-      <c r="S307" s="64"/>
-      <c r="T307" s="64"/>
-      <c r="U307" s="71"/>
-      <c r="V307" s="64"/>
-      <c r="W307" s="64"/>
-      <c r="X307" s="64"/>
-      <c r="Y307" s="64"/>
-      <c r="Z307" s="64"/>
-      <c r="AA307" s="64"/>
-      <c r="AB307" s="64"/>
-      <c r="AC307" s="64"/>
-      <c r="AD307" s="64"/>
-      <c r="AE307" s="64"/>
-      <c r="AF307" s="65"/>
-      <c r="AG307" s="65"/>
+      <c r="D307" s="10"/>
+      <c r="E307" s="18"/>
+      <c r="F307" s="18"/>
+      <c r="G307" s="10"/>
+      <c r="H307" s="10"/>
+      <c r="I307" s="10"/>
+      <c r="J307" s="10"/>
+      <c r="K307" s="10"/>
+      <c r="L307" s="10"/>
+      <c r="M307" s="10"/>
+      <c r="N307" s="10"/>
+      <c r="O307" s="10"/>
+      <c r="P307" s="10"/>
+      <c r="Q307" s="10"/>
+      <c r="R307" s="10"/>
+      <c r="S307" s="10"/>
+      <c r="T307" s="10"/>
+      <c r="U307" s="18"/>
+      <c r="V307" s="10"/>
+      <c r="W307" s="10"/>
+      <c r="X307" s="10"/>
+      <c r="Y307" s="10"/>
+      <c r="Z307" s="10"/>
+      <c r="AA307" s="10"/>
+      <c r="AB307" s="10"/>
+      <c r="AC307" s="10"/>
+      <c r="AD307" s="10"/>
+      <c r="AE307" s="10"/>
+      <c r="AF307" s="19"/>
+      <c r="AG307" s="19"/>
       <c r="AH307" s="19"/>
       <c r="AI307" s="19"/>
       <c r="AJ307" s="19"/>
@@ -16834,7 +16854,7 @@
       <c r="AE309" s="64"/>
       <c r="AF309" s="65"/>
       <c r="AG309" s="65"/>
-      <c r="AH309" s="72"/>
+      <c r="AH309" s="19"/>
       <c r="AI309" s="19"/>
       <c r="AJ309" s="19"/>
       <c r="AK309" s="19"/>
@@ -16875,7 +16895,7 @@
       <c r="AE310" s="64"/>
       <c r="AF310" s="65"/>
       <c r="AG310" s="65"/>
-      <c r="AH310" s="19"/>
+      <c r="AH310" s="72"/>
       <c r="AI310" s="19"/>
       <c r="AJ310" s="19"/>
       <c r="AK310" s="19"/>
@@ -16924,39 +16944,39 @@
       <c r="AM311" s="19"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="73"/>
-      <c r="B312" s="73"/>
-      <c r="C312" s="18"/>
-      <c r="D312" s="10"/>
-      <c r="E312" s="18"/>
-      <c r="F312" s="18"/>
-      <c r="G312" s="10"/>
-      <c r="H312" s="10"/>
-      <c r="I312" s="10"/>
-      <c r="J312" s="10"/>
-      <c r="K312" s="10"/>
-      <c r="L312" s="10"/>
-      <c r="M312" s="10"/>
-      <c r="N312" s="10"/>
-      <c r="O312" s="10"/>
-      <c r="P312" s="10"/>
-      <c r="Q312" s="10"/>
-      <c r="R312" s="10"/>
-      <c r="S312" s="10"/>
-      <c r="T312" s="10"/>
-      <c r="U312" s="10"/>
-      <c r="V312" s="10"/>
-      <c r="W312" s="10"/>
-      <c r="X312" s="10"/>
-      <c r="Y312" s="10"/>
-      <c r="Z312" s="10"/>
-      <c r="AA312" s="10"/>
-      <c r="AB312" s="10"/>
-      <c r="AC312" s="10"/>
-      <c r="AD312" s="10"/>
-      <c r="AE312" s="10"/>
-      <c r="AF312" s="19"/>
-      <c r="AG312" s="19"/>
+      <c r="A312" s="63"/>
+      <c r="B312" s="71"/>
+      <c r="C312" s="63"/>
+      <c r="D312" s="64"/>
+      <c r="E312" s="63"/>
+      <c r="F312" s="63"/>
+      <c r="G312" s="64"/>
+      <c r="H312" s="64"/>
+      <c r="I312" s="64"/>
+      <c r="J312" s="64"/>
+      <c r="K312" s="64"/>
+      <c r="L312" s="64"/>
+      <c r="M312" s="64"/>
+      <c r="N312" s="64"/>
+      <c r="O312" s="64"/>
+      <c r="P312" s="64"/>
+      <c r="Q312" s="64"/>
+      <c r="R312" s="64"/>
+      <c r="S312" s="64"/>
+      <c r="T312" s="64"/>
+      <c r="U312" s="71"/>
+      <c r="V312" s="64"/>
+      <c r="W312" s="64"/>
+      <c r="X312" s="64"/>
+      <c r="Y312" s="64"/>
+      <c r="Z312" s="64"/>
+      <c r="AA312" s="64"/>
+      <c r="AB312" s="64"/>
+      <c r="AC312" s="64"/>
+      <c r="AD312" s="64"/>
+      <c r="AE312" s="64"/>
+      <c r="AF312" s="65"/>
+      <c r="AG312" s="65"/>
       <c r="AH312" s="19"/>
       <c r="AI312" s="19"/>
       <c r="AJ312" s="19"/>
@@ -17415,9 +17435,50 @@
       <c r="AL323" s="19"/>
       <c r="AM323" s="19"/>
     </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="A324" s="73"/>
+      <c r="B324" s="73"/>
+      <c r="C324" s="18"/>
+      <c r="D324" s="10"/>
+      <c r="E324" s="18"/>
+      <c r="F324" s="18"/>
+      <c r="G324" s="10"/>
+      <c r="H324" s="10"/>
+      <c r="I324" s="10"/>
+      <c r="J324" s="10"/>
+      <c r="K324" s="10"/>
+      <c r="L324" s="10"/>
+      <c r="M324" s="10"/>
+      <c r="N324" s="10"/>
+      <c r="O324" s="10"/>
+      <c r="P324" s="10"/>
+      <c r="Q324" s="10"/>
+      <c r="R324" s="10"/>
+      <c r="S324" s="10"/>
+      <c r="T324" s="10"/>
+      <c r="U324" s="10"/>
+      <c r="V324" s="10"/>
+      <c r="W324" s="10"/>
+      <c r="X324" s="10"/>
+      <c r="Y324" s="10"/>
+      <c r="Z324" s="10"/>
+      <c r="AA324" s="10"/>
+      <c r="AB324" s="10"/>
+      <c r="AC324" s="10"/>
+      <c r="AD324" s="10"/>
+      <c r="AE324" s="10"/>
+      <c r="AF324" s="19"/>
+      <c r="AG324" s="19"/>
+      <c r="AH324" s="19"/>
+      <c r="AI324" s="19"/>
+      <c r="AJ324" s="19"/>
+      <c r="AK324" s="19"/>
+      <c r="AL324" s="19"/>
+      <c r="AM324" s="19"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J67 K68 J69:J76 K77 R168:R198 J78:J323">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J67 K68 J69:J76 K77 R168:R198 J78:J324">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17445,7 +17506,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="74" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B1" s="74" t="s">
         <v>1</v>
@@ -17487,13 +17548,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="72" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
@@ -17517,13 +17578,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="72" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D3" s="82"/>
       <c r="E3" s="82"/>
@@ -17571,13 +17632,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D5" s="82"/>
       <c r="E5" s="82"/>
@@ -17601,13 +17662,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="72" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D6" s="82"/>
       <c r="E6" s="82"/>
@@ -17631,13 +17692,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="72" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
@@ -17661,13 +17722,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="72" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
@@ -17715,13 +17776,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="72" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D10" s="82"/>
       <c r="E10" s="82"/>
@@ -17745,13 +17806,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="72" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D11" s="82"/>
       <c r="E11" s="82"/>
@@ -17799,13 +17860,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="84" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D13" s="82"/>
       <c r="E13" s="82"/>
@@ -17829,13 +17890,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="84" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D14" s="82"/>
       <c r="E14" s="82"/>
@@ -17859,13 +17920,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="84" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
@@ -17913,13 +17974,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="84" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -17943,13 +18004,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="84" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B18" s="84" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D18" s="82"/>
       <c r="E18" s="82"/>
@@ -17997,13 +18058,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="84" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D20" s="82"/>
       <c r="E20" s="82"/>
@@ -18027,13 +18088,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="84" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D21" s="82"/>
       <c r="E21" s="82"/>
@@ -18057,13 +18118,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="84" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D22" s="82"/>
       <c r="E22" s="82"/>
@@ -18087,13 +18148,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="84" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B23" s="84" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C23" s="84" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D23" s="82"/>
       <c r="E23" s="82"/>
@@ -18117,13 +18178,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="84" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D24" s="82"/>
       <c r="E24" s="82"/>
@@ -18169,13 +18230,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="84" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C26" s="84" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="82"/>
@@ -18199,13 +18260,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="84" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D27" s="82"/>
       <c r="E27" s="82"/>
@@ -18229,13 +18290,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="84" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D28" s="82"/>
       <c r="E28" s="82"/>
@@ -18259,13 +18320,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="84" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C29" s="86" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D29" s="82"/>
       <c r="E29" s="82"/>
@@ -18289,13 +18350,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="84" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C30" s="84" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D30" s="82"/>
       <c r="E30" s="82"/>
@@ -18319,13 +18380,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="84" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C31" s="84" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="82"/>
@@ -18349,13 +18410,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="84" t="s">
+        <v>460</v>
+      </c>
+      <c r="B32" s="84" t="s">
+        <v>456</v>
+      </c>
+      <c r="C32" s="84" t="s">
         <v>457</v>
-      </c>
-      <c r="B32" s="84" t="s">
-        <v>453</v>
-      </c>
-      <c r="C32" s="84" t="s">
-        <v>454</v>
       </c>
       <c r="D32" s="82"/>
       <c r="E32" s="82"/>
@@ -18379,13 +18440,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="84" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B33" s="85" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C33" s="85" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D33" s="82"/>
       <c r="E33" s="82"/>
@@ -18433,24 +18494,24 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="85" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="85" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B36" s="85" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C36" s="85" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
@@ -18463,7 +18524,7 @@
         <v>1.0</v>
       </c>
       <c r="C39" s="85" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -18474,7 +18535,7 @@
         <v>2.0</v>
       </c>
       <c r="C40" s="85" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -18485,7 +18546,7 @@
         <v>3.0</v>
       </c>
       <c r="C41" s="85" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -18496,7 +18557,7 @@
         <v>4.0</v>
       </c>
       <c r="C42" s="85" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -18507,7 +18568,7 @@
         <v>7.0</v>
       </c>
       <c r="C43" s="85" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -18518,7 +18579,7 @@
         <v>14.0</v>
       </c>
       <c r="C44" s="85" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -18531,10 +18592,10 @@
         <v>138</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C46" s="85" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -18542,10 +18603,10 @@
         <v>138</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C47" s="85" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -18553,10 +18614,10 @@
         <v>138</v>
       </c>
       <c r="B48" s="85" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C48" s="85" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1"/>
@@ -18565,10 +18626,10 @@
         <v>141</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -18576,10 +18637,10 @@
         <v>141</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C51" s="85" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1"/>
@@ -18591,7 +18652,7 @@
         <v>1.0</v>
       </c>
       <c r="C53" s="85" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -18602,7 +18663,7 @@
         <v>2.0</v>
       </c>
       <c r="C54" s="85" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -18613,7 +18674,7 @@
         <v>3.0</v>
       </c>
       <c r="C55" s="85" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -18624,7 +18685,7 @@
         <v>4.0</v>
       </c>
       <c r="C56" s="85" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -18635,7 +18696,7 @@
         <v>7.0</v>
       </c>
       <c r="C57" s="85" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -18646,7 +18707,7 @@
         <v>14.0</v>
       </c>
       <c r="C58" s="85" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1"/>
@@ -18658,7 +18719,7 @@
         <v>1.0</v>
       </c>
       <c r="C60" s="85" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -18669,7 +18730,7 @@
         <v>2.0</v>
       </c>
       <c r="C61" s="85" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -18680,7 +18741,7 @@
         <v>3.0</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -18691,7 +18752,7 @@
         <v>4.0</v>
       </c>
       <c r="C63" s="85" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -18702,7 +18763,7 @@
         <v>7.0</v>
       </c>
       <c r="C64" s="85" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -18713,7 +18774,7 @@
         <v>14.0</v>
       </c>
       <c r="C65" s="85" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
@@ -18722,10 +18783,10 @@
         <v>186</v>
       </c>
       <c r="B67" s="85" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C67" s="85" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -18733,10 +18794,10 @@
         <v>186</v>
       </c>
       <c r="B68" s="85" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C68" s="85" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1"/>
@@ -18745,10 +18806,10 @@
         <v>195</v>
       </c>
       <c r="B70" s="85" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -18756,10 +18817,10 @@
         <v>195</v>
       </c>
       <c r="B71" s="85" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C71" s="85" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -18767,10 +18828,10 @@
         <v>195</v>
       </c>
       <c r="B72" s="85" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C72" s="89" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1"/>
@@ -18823,25 +18884,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="74" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
@@ -18865,24 +18926,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="91" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C2" s="92" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-16_19-49</v>
+        <v>2021-01-04_15-49</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E2" s="93" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="94" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -19208,7 +19269,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="74" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B1" s="74" t="s">
         <v>1</v>
@@ -19251,13 +19312,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="82" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
@@ -19282,13 +19343,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="82" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D3" s="82"/>
       <c r="E3" s="82"/>
@@ -19338,13 +19399,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="82" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D5" s="82"/>
       <c r="E5" s="82"/>
@@ -19369,13 +19430,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="82" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D6" s="82"/>
       <c r="E6" s="82"/>
@@ -19400,13 +19461,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="82" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
@@ -19431,13 +19492,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="82" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
@@ -19462,13 +19523,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="82" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D9" s="82"/>
       <c r="E9" s="82"/>
@@ -19518,13 +19579,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="82" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D11" s="82"/>
       <c r="E11" s="82"/>
@@ -19549,13 +19610,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="82" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D12" s="82"/>
       <c r="E12" s="82"/>
@@ -19580,13 +19641,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="82" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D13" s="82"/>
       <c r="E13" s="82"/>
@@ -19611,13 +19672,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="82" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D14" s="82"/>
       <c r="E14" s="82"/>
@@ -19642,13 +19703,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="82" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
@@ -19673,13 +19734,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="82" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D16" s="82"/>
       <c r="E16" s="82"/>
@@ -19729,13 +19790,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="82" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D18" s="82"/>
       <c r="E18" s="82"/>
@@ -19760,13 +19821,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="82" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D19" s="82"/>
       <c r="E19" s="82"/>
@@ -19791,13 +19852,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="82" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D20" s="82"/>
       <c r="E20" s="82"/>
@@ -19822,13 +19883,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="82" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D21" s="82"/>
       <c r="E21" s="82"/>
@@ -19853,13 +19914,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="82" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D22" s="82"/>
       <c r="E22" s="82"/>
@@ -19884,13 +19945,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="82" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B23" s="82" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D23" s="82"/>
       <c r="E23" s="82"/>
@@ -19940,13 +20001,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="82" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D25" s="82"/>
       <c r="E25" s="82"/>
@@ -19971,13 +20032,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="82" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="82"/>
@@ -20002,13 +20063,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="82" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D27" s="82"/>
       <c r="E27" s="82"/>
@@ -20033,13 +20094,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="82" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D28" s="82"/>
       <c r="E28" s="82"/>
@@ -20064,13 +20125,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="82" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D29" s="82"/>
       <c r="E29" s="82"/>
@@ -20120,13 +20181,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="82" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="82"/>
@@ -20151,13 +20212,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="82" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B32" s="82" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D32" s="82"/>
       <c r="E32" s="82"/>
@@ -20207,121 +20268,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B43" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C43" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -20332,26 +20393,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -20362,13 +20423,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="96" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C48" s="96" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D48" s="96"/>
       <c r="E48" s="96"/>
@@ -20393,13 +20454,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="96" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C49" s="96" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D49" s="96"/>
       <c r="E49" s="96"/>
@@ -20425,226 +20486,226 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B51" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C51" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B52" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C52" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B53" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C53" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B54" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C54" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B55" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C55" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B56" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C56" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="96" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B58" s="96" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C58" s="96" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="96" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B59" s="96" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C59" s="96" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="96" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B60" s="96" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C60" s="96" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="96" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B61" s="96" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C61" s="96" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C63" s="96" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C64" s="96" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C65" s="96" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C66" s="96" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C67" s="96" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B69" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C69" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B70" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C70" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B72" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C72" s="97" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B73" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C73" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B74" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C74" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/child_assessment.xlsx
+++ b/config/default/forms/app/child_assessment.xlsx
@@ -18933,7 +18933,7 @@
       </c>
       <c r="C2" s="92" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-04_15-49</v>
+        <v>2021-01-05_14-33</v>
       </c>
       <c r="D2" s="93" t="s">
         <v>508</v>

--- a/config/default/forms/app/child_assessment.xlsx
+++ b/config/default/forms/app/child_assessment.xlsx
@@ -18974,7 +18974,7 @@
       </c>
       <c r="C2" s="90" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-08_06-34</v>
+        <v>2021-01-11_15-48</v>
       </c>
       <c r="D2" s="91" t="s">
         <v>516</v>

--- a/config/default/forms/app/child_assessment.xlsx
+++ b/config/default/forms/app/child_assessment.xlsx
@@ -19026,7 +19026,7 @@
       </c>
       <c r="C2" s="90" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-26_15-27</v>
+        <v>2021-01-28_14-21</v>
       </c>
       <c r="D2" s="91" t="s">
         <v>517</v>

--- a/config/default/forms/app/child_assessment.xlsx
+++ b/config/default/forms/app/child_assessment.xlsx
@@ -19026,7 +19026,7 @@
       </c>
       <c r="C2" s="90" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-28_14-21</v>
+        <v>2021-01-29_15-22</v>
       </c>
       <c r="D2" s="91" t="s">
         <v>517</v>

--- a/config/default/forms/app/child_assessment.xlsx
+++ b/config/default/forms/app/child_assessment.xlsx
@@ -19026,7 +19026,7 @@
       </c>
       <c r="C2" s="90" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-29_15-22</v>
+        <v>2021-02-02_14-49</v>
       </c>
       <c r="D2" s="91" t="s">
         <v>517</v>

--- a/config/default/forms/app/child_assessment.xlsx
+++ b/config/default/forms/app/child_assessment.xlsx
@@ -19026,7 +19026,7 @@
       </c>
       <c r="C2" s="90" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-02-02_14-49</v>
+        <v>2021-02-04_14-28</v>
       </c>
       <c r="D2" s="91" t="s">
         <v>517</v>

--- a/config/default/forms/app/child_assessment.xlsx
+++ b/config/default/forms/app/child_assessment.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="641">
   <si>
     <t>type</t>
   </si>
@@ -571,9 +571,6 @@
   </si>
   <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>submitting_user</t>
   </si>
   <si>
     <t>../../../inputs/user/contact_id</t>
@@ -5483,7 +5480,7 @@
         <v>36</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>53</v>
@@ -5553,7 +5550,7 @@
       <c r="S53" s="31"/>
       <c r="T53" s="31"/>
       <c r="U53" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V53" s="31"/>
       <c r="W53" s="31"/>
@@ -5649,7 +5646,7 @@
       <c r="S55" s="31"/>
       <c r="T55" s="31"/>
       <c r="U55" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V55" s="31"/>
       <c r="W55" s="31"/>
@@ -5782,7 +5779,7 @@
       <c r="S58" s="31"/>
       <c r="T58" s="31"/>
       <c r="U58" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V58" s="31"/>
       <c r="W58" s="31"/>
@@ -5808,7 +5805,7 @@
         <v>77</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="31"/>
@@ -5829,7 +5826,7 @@
       <c r="S59" s="31"/>
       <c r="T59" s="31"/>
       <c r="U59" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V59" s="31"/>
       <c r="W59" s="31"/>
@@ -5876,7 +5873,7 @@
       <c r="S60" s="31"/>
       <c r="T60" s="31"/>
       <c r="U60" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V60" s="31"/>
       <c r="W60" s="31"/>
@@ -5902,7 +5899,7 @@
         <v>77</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" s="31"/>
       <c r="D61" s="31"/>
@@ -5923,7 +5920,7 @@
       <c r="S61" s="31"/>
       <c r="T61" s="31"/>
       <c r="U61" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V61" s="31"/>
       <c r="W61" s="31"/>
@@ -5940,7 +5937,7 @@
       <c r="AH61" s="31"/>
       <c r="AI61" s="31"/>
       <c r="AJ61" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AK61" s="31"/>
       <c r="AL61" s="31"/>
@@ -5948,16 +5945,16 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="C62" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="D62" s="31" t="s">
         <v>134</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
@@ -5965,7 +5962,7 @@
       <c r="H62" s="31"/>
       <c r="I62" s="31"/>
       <c r="J62" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K62" s="31"/>
       <c r="L62" s="31"/>
@@ -5999,13 +5996,13 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="C63" s="38" t="s">
         <v>137</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>138</v>
       </c>
       <c r="D63" s="31"/>
       <c r="E63" s="31"/>
@@ -6014,17 +6011,17 @@
       <c r="H63" s="31"/>
       <c r="I63" s="31"/>
       <c r="J63" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K63" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L63" s="31"/>
       <c r="M63" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="N63" s="39" t="s">
         <v>140</v>
-      </c>
-      <c r="N63" s="39" t="s">
-        <v>141</v>
       </c>
       <c r="O63" s="31"/>
       <c r="P63" s="31"/>
@@ -6054,13 +6051,13 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="C64" s="38" t="s">
         <v>143</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>144</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
@@ -6070,7 +6067,7 @@
       <c r="I64" s="31"/>
       <c r="J64" s="31"/>
       <c r="K64" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L64" s="31"/>
       <c r="M64" s="31"/>
@@ -6103,13 +6100,13 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="40" t="s">
         <v>146</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>147</v>
       </c>
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
@@ -6119,7 +6116,7 @@
       <c r="I65" s="31"/>
       <c r="J65" s="31"/>
       <c r="K65" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L65" s="31"/>
       <c r="M65" s="31"/>
@@ -6152,13 +6149,13 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="C66" s="40" t="s">
         <v>149</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>150</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="42"/>
@@ -6168,7 +6165,7 @@
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
       <c r="K66" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
@@ -6288,7 +6285,7 @@
         <v>36</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" s="46" t="s">
         <v>53</v>
@@ -6337,10 +6334,10 @@
         <v>36</v>
       </c>
       <c r="B70" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="51" t="s">
         <v>153</v>
-      </c>
-      <c r="C70" s="51" t="s">
-        <v>154</v>
       </c>
       <c r="D70" s="49"/>
       <c r="E70" s="49"/>
@@ -6383,13 +6380,13 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B71" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="56" t="s">
         <v>155</v>
-      </c>
-      <c r="C71" s="56" t="s">
-        <v>156</v>
       </c>
       <c r="D71" s="49"/>
       <c r="E71" s="49"/>
@@ -6398,10 +6395,10 @@
       <c r="H71" s="49"/>
       <c r="I71" s="49"/>
       <c r="J71" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K71" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L71" s="49"/>
       <c r="M71" s="49"/>
@@ -6434,13 +6431,13 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="56" t="s">
         <v>158</v>
-      </c>
-      <c r="C72" s="56" t="s">
-        <v>159</v>
       </c>
       <c r="D72" s="49"/>
       <c r="E72" s="49"/>
@@ -6450,7 +6447,7 @@
       <c r="I72" s="49"/>
       <c r="J72" s="49"/>
       <c r="K72" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L72" s="49"/>
       <c r="M72" s="49"/>
@@ -6483,13 +6480,13 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="56" t="s">
         <v>161</v>
-      </c>
-      <c r="C73" s="56" t="s">
-        <v>162</v>
       </c>
       <c r="D73" s="49"/>
       <c r="E73" s="49"/>
@@ -6499,7 +6496,7 @@
       <c r="I73" s="49"/>
       <c r="J73" s="49"/>
       <c r="K73" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L73" s="49"/>
       <c r="M73" s="49"/>
@@ -6619,10 +6616,10 @@
         <v>36</v>
       </c>
       <c r="B76" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="51" t="s">
         <v>164</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>165</v>
       </c>
       <c r="D76" s="49"/>
       <c r="E76" s="49"/>
@@ -6632,7 +6629,7 @@
       <c r="I76" s="49"/>
       <c r="J76" s="49"/>
       <c r="K76" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L76" s="49" t="s">
         <v>40</v>
@@ -6667,13 +6664,13 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B77" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="51" t="s">
         <v>167</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>168</v>
       </c>
       <c r="D77" s="49"/>
       <c r="E77" s="49"/>
@@ -6682,7 +6679,7 @@
       <c r="H77" s="49"/>
       <c r="I77" s="49"/>
       <c r="J77" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K77" s="49"/>
       <c r="L77" s="49"/>
@@ -6716,13 +6713,13 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B78" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="51" t="s">
         <v>169</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>170</v>
       </c>
       <c r="D78" s="49"/>
       <c r="E78" s="49"/>
@@ -6731,7 +6728,7 @@
       <c r="H78" s="49"/>
       <c r="I78" s="49"/>
       <c r="J78" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K78" s="49"/>
       <c r="L78" s="49"/>
@@ -6765,13 +6762,13 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B79" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="51" t="s">
         <v>171</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>172</v>
       </c>
       <c r="D79" s="49"/>
       <c r="E79" s="49"/>
@@ -6780,7 +6777,7 @@
       <c r="H79" s="49"/>
       <c r="I79" s="49"/>
       <c r="J79" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K79" s="49"/>
       <c r="L79" s="49"/>
@@ -6814,13 +6811,13 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B80" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="59" t="s">
         <v>173</v>
-      </c>
-      <c r="C80" s="59" t="s">
-        <v>174</v>
       </c>
       <c r="D80" s="60"/>
       <c r="E80" s="60"/>
@@ -6829,7 +6826,7 @@
       <c r="H80" s="60"/>
       <c r="I80" s="60"/>
       <c r="J80" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K80" s="60"/>
       <c r="L80" s="60"/>
@@ -6863,13 +6860,13 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B81" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="59" t="s">
         <v>175</v>
-      </c>
-      <c r="C81" s="59" t="s">
-        <v>176</v>
       </c>
       <c r="D81" s="60"/>
       <c r="E81" s="60"/>
@@ -6878,7 +6875,7 @@
       <c r="H81" s="60"/>
       <c r="I81" s="60"/>
       <c r="J81" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K81" s="60"/>
       <c r="L81" s="60"/>
@@ -6912,13 +6909,13 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="59" t="s">
         <v>177</v>
-      </c>
-      <c r="C82" s="59" t="s">
-        <v>178</v>
       </c>
       <c r="D82" s="60"/>
       <c r="E82" s="60"/>
@@ -6927,7 +6924,7 @@
       <c r="H82" s="60"/>
       <c r="I82" s="60"/>
       <c r="J82" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K82" s="60"/>
       <c r="L82" s="60"/>
@@ -6961,13 +6958,13 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="59" t="s">
         <v>179</v>
-      </c>
-      <c r="C83" s="59" t="s">
-        <v>180</v>
       </c>
       <c r="D83" s="60"/>
       <c r="E83" s="60"/>
@@ -6976,7 +6973,7 @@
       <c r="H83" s="60"/>
       <c r="I83" s="60"/>
       <c r="J83" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K83" s="60"/>
       <c r="L83" s="60"/>
@@ -7010,13 +7007,13 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B84" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="59" t="s">
         <v>181</v>
-      </c>
-      <c r="C84" s="59" t="s">
-        <v>182</v>
       </c>
       <c r="D84" s="60"/>
       <c r="E84" s="60"/>
@@ -7025,7 +7022,7 @@
       <c r="H84" s="60"/>
       <c r="I84" s="60"/>
       <c r="J84" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K84" s="60"/>
       <c r="L84" s="60"/>
@@ -7059,13 +7056,13 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="59" t="s">
         <v>183</v>
-      </c>
-      <c r="C85" s="59" t="s">
-        <v>184</v>
       </c>
       <c r="D85" s="60"/>
       <c r="E85" s="60"/>
@@ -7074,7 +7071,7 @@
       <c r="H85" s="60"/>
       <c r="I85" s="60"/>
       <c r="J85" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K85" s="60"/>
       <c r="L85" s="60"/>
@@ -7108,13 +7105,13 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B86" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="59" t="s">
         <v>185</v>
-      </c>
-      <c r="C86" s="59" t="s">
-        <v>186</v>
       </c>
       <c r="D86" s="60"/>
       <c r="E86" s="60"/>
@@ -7123,7 +7120,7 @@
       <c r="H86" s="60"/>
       <c r="I86" s="60"/>
       <c r="J86" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K86" s="60"/>
       <c r="L86" s="60"/>
@@ -7244,10 +7241,10 @@
         <v>36</v>
       </c>
       <c r="B89" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="51" t="s">
         <v>187</v>
-      </c>
-      <c r="C89" s="51" t="s">
-        <v>188</v>
       </c>
       <c r="D89" s="49"/>
       <c r="E89" s="49"/>
@@ -7257,7 +7254,7 @@
       <c r="I89" s="49"/>
       <c r="J89" s="49"/>
       <c r="K89" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L89" s="49" t="s">
         <v>40</v>
@@ -7292,11 +7289,11 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B90" s="50"/>
       <c r="C90" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D90" s="52"/>
       <c r="E90" s="52"/>
@@ -7305,7 +7302,7 @@
       <c r="H90" s="52"/>
       <c r="I90" s="49"/>
       <c r="J90" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K90" s="63"/>
       <c r="L90" s="52"/>
@@ -7339,13 +7336,13 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="C91" s="51" t="s">
         <v>192</v>
-      </c>
-      <c r="C91" s="51" t="s">
-        <v>193</v>
       </c>
       <c r="D91" s="52"/>
       <c r="E91" s="52"/>
@@ -7354,15 +7351,15 @@
       <c r="H91" s="52"/>
       <c r="I91" s="49"/>
       <c r="J91" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K91" s="63"/>
       <c r="L91" s="52"/>
       <c r="M91" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="N91" s="50" t="s">
         <v>194</v>
-      </c>
-      <c r="N91" s="50" t="s">
-        <v>195</v>
       </c>
       <c r="O91" s="49"/>
       <c r="P91" s="49"/>
@@ -7392,13 +7389,13 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="C92" s="51" t="s">
         <v>197</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>198</v>
       </c>
       <c r="D92" s="52"/>
       <c r="E92" s="52"/>
@@ -7407,7 +7404,7 @@
       <c r="H92" s="52"/>
       <c r="I92" s="49"/>
       <c r="J92" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K92" s="52"/>
       <c r="L92" s="52"/>
@@ -7441,13 +7438,13 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B93" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="51" t="s">
         <v>199</v>
-      </c>
-      <c r="C93" s="51" t="s">
-        <v>200</v>
       </c>
       <c r="D93" s="64"/>
       <c r="E93" s="64"/>
@@ -7456,7 +7453,7 @@
       <c r="H93" s="64"/>
       <c r="I93" s="64"/>
       <c r="J93" s="64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K93" s="64"/>
       <c r="L93" s="64"/>
@@ -7490,13 +7487,13 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="51" t="s">
         <v>201</v>
-      </c>
-      <c r="C94" s="51" t="s">
-        <v>202</v>
       </c>
       <c r="D94" s="52"/>
       <c r="E94" s="52"/>
@@ -7505,7 +7502,7 @@
       <c r="H94" s="49"/>
       <c r="I94" s="49"/>
       <c r="J94" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K94" s="52"/>
       <c r="L94" s="52"/>
@@ -7539,11 +7536,11 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B95" s="50"/>
       <c r="C95" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D95" s="52"/>
       <c r="E95" s="52"/>
@@ -7553,7 +7550,7 @@
       <c r="I95" s="49"/>
       <c r="J95" s="52"/>
       <c r="K95" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L95" s="49"/>
       <c r="M95" s="49"/>
@@ -7586,13 +7583,13 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="C96" s="51" t="s">
         <v>206</v>
-      </c>
-      <c r="C96" s="51" t="s">
-        <v>207</v>
       </c>
       <c r="D96" s="52"/>
       <c r="E96" s="52"/>
@@ -7601,10 +7598,10 @@
       <c r="H96" s="49"/>
       <c r="I96" s="49"/>
       <c r="J96" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K96" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L96" s="52"/>
       <c r="M96" s="52"/>
@@ -7637,13 +7634,13 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="B97" s="52" t="s">
+      <c r="C97" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="C97" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="D97" s="52"/>
       <c r="E97" s="52"/>
@@ -7652,10 +7649,10 @@
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
       <c r="J97" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K97" s="52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L97" s="52"/>
       <c r="M97" s="52"/>
@@ -7688,13 +7685,13 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="B98" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="C98" s="51" t="s">
         <v>213</v>
-      </c>
-      <c r="C98" s="51" t="s">
-        <v>214</v>
       </c>
       <c r="D98" s="49"/>
       <c r="E98" s="49"/>
@@ -7704,7 +7701,7 @@
       <c r="I98" s="49"/>
       <c r="J98" s="50"/>
       <c r="K98" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L98" s="49"/>
       <c r="M98" s="49"/>
@@ -7737,13 +7734,13 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B99" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="51" t="s">
         <v>216</v>
-      </c>
-      <c r="C99" s="51" t="s">
-        <v>217</v>
       </c>
       <c r="D99" s="49"/>
       <c r="E99" s="49"/>
@@ -7752,10 +7749,10 @@
       <c r="H99" s="49"/>
       <c r="I99" s="49"/>
       <c r="J99" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K99" s="52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L99" s="49"/>
       <c r="M99" s="49"/>
@@ -7875,10 +7872,10 @@
         <v>36</v>
       </c>
       <c r="B102" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="51" t="s">
         <v>218</v>
-      </c>
-      <c r="C102" s="51" t="s">
-        <v>219</v>
       </c>
       <c r="D102" s="49"/>
       <c r="E102" s="49"/>
@@ -7888,7 +7885,7 @@
       <c r="I102" s="49"/>
       <c r="J102" s="49"/>
       <c r="K102" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L102" s="49" t="s">
         <v>40</v>
@@ -7923,13 +7920,13 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B103" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="51" t="s">
         <v>220</v>
-      </c>
-      <c r="C103" s="51" t="s">
-        <v>221</v>
       </c>
       <c r="D103" s="52"/>
       <c r="E103" s="52"/>
@@ -7938,7 +7935,7 @@
       <c r="H103" s="52"/>
       <c r="I103" s="49"/>
       <c r="J103" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K103" s="52"/>
       <c r="L103" s="52"/>
@@ -7972,13 +7969,13 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="B104" s="50" t="s">
+      <c r="C104" s="51" t="s">
         <v>223</v>
-      </c>
-      <c r="C104" s="51" t="s">
-        <v>224</v>
       </c>
       <c r="D104" s="52"/>
       <c r="E104" s="52"/>
@@ -7987,10 +7984,10 @@
       <c r="H104" s="52"/>
       <c r="I104" s="49"/>
       <c r="J104" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K104" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L104" s="52"/>
       <c r="M104" s="52"/>
@@ -8110,10 +8107,10 @@
         <v>36</v>
       </c>
       <c r="B107" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C107" s="51" t="s">
         <v>226</v>
-      </c>
-      <c r="C107" s="51" t="s">
-        <v>227</v>
       </c>
       <c r="D107" s="65"/>
       <c r="E107" s="49"/>
@@ -8123,7 +8120,7 @@
       <c r="I107" s="49"/>
       <c r="J107" s="49"/>
       <c r="K107" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L107" s="49" t="s">
         <v>40</v>
@@ -8158,13 +8155,13 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" s="51" t="s">
         <v>228</v>
-      </c>
-      <c r="C108" s="51" t="s">
-        <v>229</v>
       </c>
       <c r="D108" s="49"/>
       <c r="E108" s="49"/>
@@ -8175,7 +8172,7 @@
       <c r="J108" s="49"/>
       <c r="K108" s="52"/>
       <c r="L108" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M108" s="49"/>
       <c r="N108" s="49"/>
@@ -8207,13 +8204,13 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="B109" s="50" t="s">
+      <c r="C109" s="51" t="s">
         <v>232</v>
-      </c>
-      <c r="C109" s="51" t="s">
-        <v>233</v>
       </c>
       <c r="D109" s="49"/>
       <c r="E109" s="49"/>
@@ -8222,7 +8219,7 @@
       <c r="H109" s="49"/>
       <c r="I109" s="49"/>
       <c r="J109" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K109" s="52"/>
       <c r="L109" s="49"/>
@@ -8256,13 +8253,13 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B110" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="59" t="s">
         <v>234</v>
-      </c>
-      <c r="C110" s="59" t="s">
-        <v>235</v>
       </c>
       <c r="D110" s="49"/>
       <c r="E110" s="49"/>
@@ -8272,7 +8269,7 @@
       <c r="I110" s="49"/>
       <c r="J110" s="49"/>
       <c r="K110" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L110" s="49"/>
       <c r="M110" s="49"/>
@@ -8305,13 +8302,13 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B111" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" s="51" t="s">
         <v>237</v>
-      </c>
-      <c r="C111" s="51" t="s">
-        <v>238</v>
       </c>
       <c r="D111" s="49"/>
       <c r="E111" s="49"/>
@@ -8321,7 +8318,7 @@
       <c r="I111" s="49"/>
       <c r="J111" s="49"/>
       <c r="K111" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L111" s="49"/>
       <c r="M111" s="49"/>
@@ -8354,13 +8351,13 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B112" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="51" t="s">
         <v>240</v>
-      </c>
-      <c r="C112" s="51" t="s">
-        <v>241</v>
       </c>
       <c r="D112" s="49"/>
       <c r="E112" s="49"/>
@@ -8370,7 +8367,7 @@
       <c r="I112" s="49"/>
       <c r="J112" s="49"/>
       <c r="K112" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L112" s="49"/>
       <c r="M112" s="49"/>
@@ -8403,13 +8400,13 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B113" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C113" s="51" t="s">
         <v>243</v>
-      </c>
-      <c r="C113" s="51" t="s">
-        <v>244</v>
       </c>
       <c r="D113" s="49"/>
       <c r="E113" s="49"/>
@@ -8419,7 +8416,7 @@
       <c r="I113" s="49"/>
       <c r="J113" s="49"/>
       <c r="K113" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L113" s="49"/>
       <c r="M113" s="49"/>
@@ -8539,10 +8536,10 @@
         <v>36</v>
       </c>
       <c r="B116" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" s="59" t="s">
         <v>246</v>
-      </c>
-      <c r="C116" s="59" t="s">
-        <v>247</v>
       </c>
       <c r="D116" s="49"/>
       <c r="E116" s="66"/>
@@ -8552,7 +8549,7 @@
       <c r="I116" s="49"/>
       <c r="J116" s="49"/>
       <c r="K116" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L116" s="49" t="s">
         <v>40</v>
@@ -8587,13 +8584,13 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B117" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="51" t="s">
         <v>248</v>
-      </c>
-      <c r="C117" s="51" t="s">
-        <v>249</v>
       </c>
       <c r="D117" s="49"/>
       <c r="E117" s="49"/>
@@ -8602,7 +8599,7 @@
       <c r="H117" s="49"/>
       <c r="I117" s="49"/>
       <c r="J117" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K117" s="52"/>
       <c r="L117" s="52"/>
@@ -8636,13 +8633,13 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="B118" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="B118" s="50" t="s">
+      <c r="C118" s="51" t="s">
         <v>251</v>
-      </c>
-      <c r="C118" s="51" t="s">
-        <v>252</v>
       </c>
       <c r="D118" s="49"/>
       <c r="E118" s="66"/>
@@ -8651,10 +8648,10 @@
       <c r="H118" s="67"/>
       <c r="I118" s="49"/>
       <c r="J118" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K118" s="50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L118" s="49"/>
       <c r="M118" s="49"/>
@@ -8687,13 +8684,13 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="B119" s="50" t="s">
+      <c r="C119" s="51" t="s">
         <v>255</v>
-      </c>
-      <c r="C119" s="51" t="s">
-        <v>256</v>
       </c>
       <c r="D119" s="49"/>
       <c r="E119" s="49"/>
@@ -8702,10 +8699,10 @@
       <c r="H119" s="49"/>
       <c r="I119" s="49"/>
       <c r="J119" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K119" s="50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L119" s="49"/>
       <c r="M119" s="49"/>
@@ -8738,13 +8735,13 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B120" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" s="51" t="s">
         <v>257</v>
-      </c>
-      <c r="C120" s="51" t="s">
-        <v>258</v>
       </c>
       <c r="D120" s="49"/>
       <c r="E120" s="49"/>
@@ -8753,10 +8750,10 @@
       <c r="H120" s="49"/>
       <c r="I120" s="49"/>
       <c r="J120" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K120" s="50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L120" s="49"/>
       <c r="M120" s="49"/>
@@ -8876,10 +8873,10 @@
         <v>36</v>
       </c>
       <c r="B123" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" s="51" t="s">
         <v>259</v>
-      </c>
-      <c r="C123" s="51" t="s">
-        <v>260</v>
       </c>
       <c r="D123" s="49"/>
       <c r="E123" s="52"/>
@@ -8889,7 +8886,7 @@
       <c r="I123" s="49"/>
       <c r="J123" s="49"/>
       <c r="K123" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L123" s="49" t="s">
         <v>40</v>
@@ -8924,11 +8921,11 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B124" s="52"/>
       <c r="C124" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D124" s="49"/>
       <c r="E124" s="52"/>
@@ -8969,13 +8966,13 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B125" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="B125" s="50" t="s">
+      <c r="C125" s="59" t="s">
         <v>264</v>
-      </c>
-      <c r="C125" s="59" t="s">
-        <v>265</v>
       </c>
       <c r="D125" s="52"/>
       <c r="E125" s="68"/>
@@ -8984,7 +8981,7 @@
       <c r="H125" s="52"/>
       <c r="I125" s="52"/>
       <c r="J125" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K125" s="52"/>
       <c r="L125" s="52"/>
@@ -9018,13 +9015,13 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C126" s="51" t="s">
         <v>266</v>
-      </c>
-      <c r="C126" s="51" t="s">
-        <v>267</v>
       </c>
       <c r="D126" s="52"/>
       <c r="E126" s="52"/>
@@ -9033,7 +9030,7 @@
       <c r="H126" s="52"/>
       <c r="I126" s="52"/>
       <c r="J126" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K126" s="52"/>
       <c r="L126" s="52"/>
@@ -9197,7 +9194,7 @@
         <v>36</v>
       </c>
       <c r="B130" s="70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C130" s="71" t="s">
         <v>53</v>
@@ -9211,7 +9208,7 @@
       <c r="J130" s="72"/>
       <c r="K130" s="73"/>
       <c r="L130" s="70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M130" s="72"/>
       <c r="N130" s="72"/>
@@ -9245,13 +9242,13 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B131" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" s="76" t="s">
         <v>270</v>
-      </c>
-      <c r="C131" s="76" t="s">
-        <v>271</v>
       </c>
       <c r="D131" s="72"/>
       <c r="E131" s="70"/>
@@ -9262,7 +9259,7 @@
       <c r="J131" s="72"/>
       <c r="K131" s="70"/>
       <c r="L131" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M131" s="72"/>
       <c r="N131" s="72"/>
@@ -9294,13 +9291,13 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B132" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" s="80" t="s">
         <v>273</v>
-      </c>
-      <c r="C132" s="80" t="s">
-        <v>274</v>
       </c>
       <c r="D132" s="81"/>
       <c r="E132" s="78"/>
@@ -9311,7 +9308,7 @@
       <c r="J132" s="81"/>
       <c r="K132" s="78"/>
       <c r="L132" s="82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M132" s="81"/>
       <c r="N132" s="81"/>
@@ -9343,13 +9340,13 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B133" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="C133" s="76" t="s">
         <v>276</v>
-      </c>
-      <c r="C133" s="76" t="s">
-        <v>277</v>
       </c>
       <c r="D133" s="72"/>
       <c r="E133" s="70"/>
@@ -9360,7 +9357,7 @@
       <c r="J133" s="72"/>
       <c r="K133" s="70"/>
       <c r="L133" s="73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M133" s="72"/>
       <c r="N133" s="72"/>
@@ -9395,7 +9392,7 @@
         <v>36</v>
       </c>
       <c r="B134" s="84" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C134" s="85" t="s">
         <v>53</v>
@@ -9441,13 +9438,13 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B135" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="C135" s="91" t="s">
         <v>280</v>
-      </c>
-      <c r="C135" s="91" t="s">
-        <v>281</v>
       </c>
       <c r="D135" s="92"/>
       <c r="E135" s="92"/>
@@ -9458,7 +9455,7 @@
       <c r="J135" s="92"/>
       <c r="K135" s="89"/>
       <c r="L135" s="89" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M135" s="92"/>
       <c r="N135" s="89"/>
@@ -9490,13 +9487,13 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B136" s="93" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" s="94" t="s">
         <v>283</v>
-      </c>
-      <c r="C136" s="94" t="s">
-        <v>284</v>
       </c>
       <c r="D136" s="92"/>
       <c r="E136" s="92"/>
@@ -9506,10 +9503,10 @@
       <c r="I136" s="92"/>
       <c r="J136" s="92"/>
       <c r="K136" s="93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L136" s="92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M136" s="92"/>
       <c r="N136" s="92"/>
@@ -9541,13 +9538,13 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B137" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" s="94" t="s">
         <v>286</v>
-      </c>
-      <c r="C137" s="94" t="s">
-        <v>287</v>
       </c>
       <c r="D137" s="92"/>
       <c r="E137" s="92"/>
@@ -9557,10 +9554,10 @@
       <c r="I137" s="92"/>
       <c r="J137" s="92"/>
       <c r="K137" s="93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L137" s="92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M137" s="92"/>
       <c r="N137" s="92"/>
@@ -9638,7 +9635,7 @@
         <v>36</v>
       </c>
       <c r="B139" s="79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C139" s="95" t="s">
         <v>53</v>
@@ -9687,7 +9684,7 @@
         <v>36</v>
       </c>
       <c r="B140" s="96" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C140" s="97" t="s">
         <v>53</v>
@@ -9700,7 +9697,7 @@
       <c r="I140" s="98"/>
       <c r="J140" s="99"/>
       <c r="K140" s="96" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L140" s="96"/>
       <c r="M140" s="98"/>
@@ -9733,13 +9730,13 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B141" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" s="97" t="s">
         <v>292</v>
-      </c>
-      <c r="C141" s="97" t="s">
-        <v>293</v>
       </c>
       <c r="D141" s="98"/>
       <c r="E141" s="99"/>
@@ -9750,7 +9747,7 @@
       <c r="J141" s="99"/>
       <c r="K141" s="96"/>
       <c r="L141" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M141" s="98"/>
       <c r="N141" s="98"/>
@@ -9782,13 +9779,13 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="C142" s="103" t="s">
         <v>294</v>
-      </c>
-      <c r="C142" s="103" t="s">
-        <v>295</v>
       </c>
       <c r="D142" s="104"/>
       <c r="E142" s="101"/>
@@ -9798,10 +9795,10 @@
       <c r="I142" s="104"/>
       <c r="J142" s="101"/>
       <c r="K142" s="102" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L142" s="105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M142" s="104"/>
       <c r="N142" s="104"/>
@@ -9833,13 +9830,13 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="C143" s="103" t="s">
         <v>297</v>
-      </c>
-      <c r="C143" s="103" t="s">
-        <v>298</v>
       </c>
       <c r="D143" s="104"/>
       <c r="E143" s="101"/>
@@ -9849,10 +9846,10 @@
       <c r="I143" s="104"/>
       <c r="J143" s="101"/>
       <c r="K143" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L143" s="105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M143" s="104"/>
       <c r="N143" s="104"/>
@@ -9884,13 +9881,13 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B144" s="102" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C144" s="103" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D144" s="104"/>
       <c r="E144" s="101"/>
@@ -9900,10 +9897,10 @@
       <c r="I144" s="104"/>
       <c r="J144" s="101"/>
       <c r="K144" s="107" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L144" s="105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M144" s="104"/>
       <c r="N144" s="104"/>
@@ -9935,13 +9932,13 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B145" s="102" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C145" s="103" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D145" s="104"/>
       <c r="E145" s="101"/>
@@ -9951,10 +9948,10 @@
       <c r="I145" s="104"/>
       <c r="J145" s="101"/>
       <c r="K145" s="107" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L145" s="105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M145" s="104"/>
       <c r="N145" s="104"/>
@@ -9986,13 +9983,13 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="C146" s="103" t="s">
         <v>304</v>
-      </c>
-      <c r="C146" s="103" t="s">
-        <v>305</v>
       </c>
       <c r="D146" s="104"/>
       <c r="E146" s="101"/>
@@ -10002,10 +9999,10 @@
       <c r="I146" s="104"/>
       <c r="J146" s="101"/>
       <c r="K146" s="102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L146" s="105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M146" s="104"/>
       <c r="N146" s="104"/>
@@ -10083,7 +10080,7 @@
         <v>36</v>
       </c>
       <c r="B148" s="96" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C148" s="97" t="s">
         <v>53</v>
@@ -10096,7 +10093,7 @@
       <c r="I148" s="98"/>
       <c r="J148" s="99"/>
       <c r="K148" s="96" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L148" s="96"/>
       <c r="M148" s="98"/>
@@ -10129,13 +10126,13 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="C149" s="97" t="s">
         <v>308</v>
-      </c>
-      <c r="C149" s="97" t="s">
-        <v>309</v>
       </c>
       <c r="D149" s="98"/>
       <c r="E149" s="99"/>
@@ -10146,7 +10143,7 @@
       <c r="J149" s="99"/>
       <c r="K149" s="96"/>
       <c r="L149" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M149" s="98"/>
       <c r="N149" s="98"/>
@@ -10178,13 +10175,13 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="102" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C150" s="103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D150" s="104"/>
       <c r="E150" s="101"/>
@@ -10194,10 +10191,10 @@
       <c r="I150" s="104"/>
       <c r="J150" s="101"/>
       <c r="K150" s="102" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L150" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M150" s="98"/>
       <c r="N150" s="98"/>
@@ -10229,13 +10226,13 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" s="102" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C151" s="103" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D151" s="104"/>
       <c r="E151" s="101"/>
@@ -10245,10 +10242,10 @@
       <c r="I151" s="104"/>
       <c r="J151" s="101"/>
       <c r="K151" s="102" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L151" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M151" s="98"/>
       <c r="N151" s="98"/>
@@ -10280,13 +10277,13 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B152" s="102" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C152" s="103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D152" s="104"/>
       <c r="E152" s="101"/>
@@ -10296,10 +10293,10 @@
       <c r="I152" s="104"/>
       <c r="J152" s="101"/>
       <c r="K152" s="102" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L152" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M152" s="98"/>
       <c r="N152" s="98"/>
@@ -10377,7 +10374,7 @@
         <v>36</v>
       </c>
       <c r="B154" s="102" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C154" s="108" t="s">
         <v>53</v>
@@ -10390,7 +10387,7 @@
       <c r="I154" s="104"/>
       <c r="J154" s="101"/>
       <c r="K154" s="96" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L154" s="102"/>
       <c r="M154" s="98"/>
@@ -10464,13 +10461,13 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B156" s="96" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156" s="97" t="s">
         <v>316</v>
-      </c>
-      <c r="C156" s="97" t="s">
-        <v>317</v>
       </c>
       <c r="D156" s="98"/>
       <c r="E156" s="99"/>
@@ -10481,7 +10478,7 @@
       <c r="J156" s="99"/>
       <c r="K156" s="96"/>
       <c r="L156" s="96" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M156" s="98"/>
       <c r="N156" s="98"/>
@@ -10513,13 +10510,13 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B157" s="102" t="s">
+        <v>318</v>
+      </c>
+      <c r="C157" s="103" t="s">
         <v>319</v>
-      </c>
-      <c r="C157" s="103" t="s">
-        <v>320</v>
       </c>
       <c r="D157" s="104"/>
       <c r="E157" s="101"/>
@@ -10528,7 +10525,7 @@
       <c r="H157" s="104"/>
       <c r="I157" s="104"/>
       <c r="J157" s="102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K157" s="102"/>
       <c r="L157" s="104"/>
@@ -10608,7 +10605,7 @@
         <v>36</v>
       </c>
       <c r="B159" s="96" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C159" s="97" t="s">
         <v>53</v>
@@ -10652,13 +10649,13 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B160" s="96" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" s="97" t="s">
         <v>322</v>
-      </c>
-      <c r="C160" s="97" t="s">
-        <v>323</v>
       </c>
       <c r="D160" s="98"/>
       <c r="E160" s="99"/>
@@ -10668,10 +10665,10 @@
       <c r="I160" s="98"/>
       <c r="J160" s="99"/>
       <c r="K160" s="96" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L160" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M160" s="98"/>
       <c r="N160" s="98"/>
@@ -10703,13 +10700,13 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B161" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="C161" s="103" t="s">
         <v>325</v>
-      </c>
-      <c r="C161" s="103" t="s">
-        <v>326</v>
       </c>
       <c r="D161" s="98"/>
       <c r="E161" s="99"/>
@@ -10719,10 +10716,10 @@
       <c r="I161" s="98"/>
       <c r="J161" s="99"/>
       <c r="K161" s="102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L161" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M161" s="98"/>
       <c r="N161" s="98"/>
@@ -10754,13 +10751,13 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B162" s="102" t="s">
+        <v>327</v>
+      </c>
+      <c r="C162" s="103" t="s">
         <v>328</v>
-      </c>
-      <c r="C162" s="103" t="s">
-        <v>329</v>
       </c>
       <c r="D162" s="104"/>
       <c r="E162" s="101"/>
@@ -10770,10 +10767,10 @@
       <c r="I162" s="104"/>
       <c r="J162" s="101"/>
       <c r="K162" s="102" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L162" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M162" s="98"/>
       <c r="N162" s="98"/>
@@ -10805,13 +10802,13 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B163" s="102" t="s">
+        <v>330</v>
+      </c>
+      <c r="C163" s="103" t="s">
         <v>331</v>
-      </c>
-      <c r="C163" s="103" t="s">
-        <v>332</v>
       </c>
       <c r="D163" s="104"/>
       <c r="E163" s="101"/>
@@ -10821,10 +10818,10 @@
       <c r="I163" s="104"/>
       <c r="J163" s="101"/>
       <c r="K163" s="102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L163" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M163" s="98"/>
       <c r="N163" s="98"/>
@@ -10856,13 +10853,13 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B164" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="C164" s="103" t="s">
         <v>334</v>
-      </c>
-      <c r="C164" s="103" t="s">
-        <v>335</v>
       </c>
       <c r="D164" s="104"/>
       <c r="E164" s="101"/>
@@ -10872,10 +10869,10 @@
       <c r="I164" s="104"/>
       <c r="J164" s="101"/>
       <c r="K164" s="102" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L164" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M164" s="98"/>
       <c r="N164" s="98"/>
@@ -10907,13 +10904,13 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B165" s="102" t="s">
+        <v>336</v>
+      </c>
+      <c r="C165" s="103" t="s">
         <v>337</v>
-      </c>
-      <c r="C165" s="103" t="s">
-        <v>338</v>
       </c>
       <c r="D165" s="104"/>
       <c r="E165" s="101"/>
@@ -10923,10 +10920,10 @@
       <c r="I165" s="104"/>
       <c r="J165" s="101"/>
       <c r="K165" s="102" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L165" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M165" s="98"/>
       <c r="N165" s="98"/>
@@ -10958,13 +10955,13 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B166" s="102" t="s">
+        <v>339</v>
+      </c>
+      <c r="C166" s="103" t="s">
         <v>340</v>
-      </c>
-      <c r="C166" s="103" t="s">
-        <v>341</v>
       </c>
       <c r="D166" s="104"/>
       <c r="E166" s="101"/>
@@ -10974,10 +10971,10 @@
       <c r="I166" s="104"/>
       <c r="J166" s="101"/>
       <c r="K166" s="102" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L166" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M166" s="98"/>
       <c r="N166" s="98"/>
@@ -11009,13 +11006,13 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B167" s="102" t="s">
+        <v>342</v>
+      </c>
+      <c r="C167" s="103" t="s">
         <v>343</v>
-      </c>
-      <c r="C167" s="103" t="s">
-        <v>344</v>
       </c>
       <c r="D167" s="104"/>
       <c r="E167" s="101"/>
@@ -11025,10 +11022,10 @@
       <c r="I167" s="104"/>
       <c r="J167" s="101"/>
       <c r="K167" s="102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L167" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M167" s="98"/>
       <c r="N167" s="98"/>
@@ -11060,13 +11057,13 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B168" s="102" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C168" s="103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D168" s="104"/>
       <c r="E168" s="101"/>
@@ -11076,10 +11073,10 @@
       <c r="I168" s="104"/>
       <c r="J168" s="101"/>
       <c r="K168" s="102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L168" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M168" s="98"/>
       <c r="N168" s="98"/>
@@ -11111,13 +11108,13 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B169" s="102" t="s">
+        <v>347</v>
+      </c>
+      <c r="C169" s="103" t="s">
         <v>348</v>
-      </c>
-      <c r="C169" s="103" t="s">
-        <v>349</v>
       </c>
       <c r="D169" s="104"/>
       <c r="E169" s="101"/>
@@ -11127,10 +11124,10 @@
       <c r="I169" s="104"/>
       <c r="J169" s="101"/>
       <c r="K169" s="102" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L169" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M169" s="98"/>
       <c r="N169" s="98"/>
@@ -11162,13 +11159,13 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B170" s="102" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C170" s="103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D170" s="104"/>
       <c r="E170" s="101"/>
@@ -11178,10 +11175,10 @@
       <c r="I170" s="104"/>
       <c r="J170" s="101"/>
       <c r="K170" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L170" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M170" s="98"/>
       <c r="N170" s="98"/>
@@ -11213,13 +11210,13 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B171" s="102" t="s">
+        <v>352</v>
+      </c>
+      <c r="C171" s="103" t="s">
         <v>353</v>
-      </c>
-      <c r="C171" s="103" t="s">
-        <v>354</v>
       </c>
       <c r="D171" s="104"/>
       <c r="E171" s="101"/>
@@ -11229,10 +11226,10 @@
       <c r="I171" s="104"/>
       <c r="J171" s="101"/>
       <c r="K171" s="102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L171" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M171" s="98"/>
       <c r="N171" s="98"/>
@@ -11264,13 +11261,13 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B172" s="102" t="s">
+        <v>355</v>
+      </c>
+      <c r="C172" s="103" t="s">
         <v>356</v>
-      </c>
-      <c r="C172" s="103" t="s">
-        <v>357</v>
       </c>
       <c r="D172" s="104"/>
       <c r="E172" s="101"/>
@@ -11280,10 +11277,10 @@
       <c r="I172" s="104"/>
       <c r="J172" s="101"/>
       <c r="K172" s="102" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L172" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M172" s="98"/>
       <c r="N172" s="98"/>
@@ -11315,13 +11312,13 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B173" s="102" t="s">
+        <v>358</v>
+      </c>
+      <c r="C173" s="103" t="s">
         <v>359</v>
-      </c>
-      <c r="C173" s="103" t="s">
-        <v>360</v>
       </c>
       <c r="D173" s="104"/>
       <c r="E173" s="101"/>
@@ -11331,10 +11328,10 @@
       <c r="I173" s="104"/>
       <c r="J173" s="101"/>
       <c r="K173" s="102" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L173" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M173" s="98"/>
       <c r="N173" s="98"/>
@@ -11366,13 +11363,13 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B174" s="102" t="s">
+        <v>361</v>
+      </c>
+      <c r="C174" s="103" t="s">
         <v>362</v>
-      </c>
-      <c r="C174" s="103" t="s">
-        <v>363</v>
       </c>
       <c r="D174" s="104"/>
       <c r="E174" s="101"/>
@@ -11382,10 +11379,10 @@
       <c r="I174" s="104"/>
       <c r="J174" s="101"/>
       <c r="K174" s="102" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L174" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M174" s="98"/>
       <c r="N174" s="98"/>
@@ -11417,13 +11414,13 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B175" s="102" t="s">
+        <v>364</v>
+      </c>
+      <c r="C175" s="103" t="s">
         <v>365</v>
-      </c>
-      <c r="C175" s="103" t="s">
-        <v>366</v>
       </c>
       <c r="D175" s="104"/>
       <c r="E175" s="101"/>
@@ -11433,10 +11430,10 @@
       <c r="I175" s="104"/>
       <c r="J175" s="101"/>
       <c r="K175" s="102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L175" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M175" s="98"/>
       <c r="N175" s="98"/>
@@ -11468,13 +11465,13 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B176" s="102" t="s">
+        <v>367</v>
+      </c>
+      <c r="C176" s="103" t="s">
         <v>368</v>
-      </c>
-      <c r="C176" s="103" t="s">
-        <v>369</v>
       </c>
       <c r="D176" s="104"/>
       <c r="E176" s="101"/>
@@ -11484,10 +11481,10 @@
       <c r="I176" s="104"/>
       <c r="J176" s="101"/>
       <c r="K176" s="102" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L176" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M176" s="98"/>
       <c r="N176" s="98"/>
@@ -11519,13 +11516,13 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B177" s="102" t="s">
+        <v>370</v>
+      </c>
+      <c r="C177" s="103" t="s">
         <v>371</v>
-      </c>
-      <c r="C177" s="103" t="s">
-        <v>372</v>
       </c>
       <c r="D177" s="104"/>
       <c r="E177" s="101"/>
@@ -11535,10 +11532,10 @@
       <c r="I177" s="104"/>
       <c r="J177" s="101"/>
       <c r="K177" s="102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L177" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M177" s="98"/>
       <c r="N177" s="98"/>
@@ -11570,13 +11567,13 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B178" s="102" t="s">
+        <v>372</v>
+      </c>
+      <c r="C178" s="103" t="s">
         <v>373</v>
-      </c>
-      <c r="C178" s="103" t="s">
-        <v>374</v>
       </c>
       <c r="D178" s="104"/>
       <c r="E178" s="101"/>
@@ -11586,10 +11583,10 @@
       <c r="I178" s="104"/>
       <c r="J178" s="101"/>
       <c r="K178" s="102" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L178" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M178" s="98"/>
       <c r="N178" s="98"/>
@@ -11667,7 +11664,7 @@
         <v>36</v>
       </c>
       <c r="B180" s="102" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C180" s="108" t="s">
         <v>53</v>
@@ -11680,7 +11677,7 @@
       <c r="I180" s="98"/>
       <c r="J180" s="99"/>
       <c r="K180" s="96" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L180" s="102"/>
       <c r="M180" s="98"/>
@@ -11713,13 +11710,13 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B181" s="96" t="s">
+        <v>376</v>
+      </c>
+      <c r="C181" s="97" t="s">
         <v>377</v>
-      </c>
-      <c r="C181" s="97" t="s">
-        <v>378</v>
       </c>
       <c r="D181" s="98"/>
       <c r="E181" s="99"/>
@@ -11730,7 +11727,7 @@
       <c r="J181" s="99"/>
       <c r="K181" s="96"/>
       <c r="L181" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M181" s="98"/>
       <c r="N181" s="98"/>
@@ -11762,13 +11759,13 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B182" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="C182" s="103" t="s">
         <v>379</v>
-      </c>
-      <c r="C182" s="103" t="s">
-        <v>380</v>
       </c>
       <c r="D182" s="104"/>
       <c r="E182" s="101"/>
@@ -11779,7 +11776,7 @@
       <c r="J182" s="101"/>
       <c r="K182" s="96"/>
       <c r="L182" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M182" s="98"/>
       <c r="N182" s="98"/>
@@ -11811,13 +11808,13 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B183" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="C183" s="103" t="s">
         <v>381</v>
-      </c>
-      <c r="C183" s="103" t="s">
-        <v>382</v>
       </c>
       <c r="D183" s="104"/>
       <c r="E183" s="101"/>
@@ -11828,7 +11825,7 @@
       <c r="J183" s="101"/>
       <c r="K183" s="96"/>
       <c r="L183" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M183" s="98"/>
       <c r="N183" s="98"/>
@@ -11860,13 +11857,13 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B184" s="102" t="s">
+        <v>382</v>
+      </c>
+      <c r="C184" s="103" t="s">
         <v>383</v>
-      </c>
-      <c r="C184" s="103" t="s">
-        <v>384</v>
       </c>
       <c r="D184" s="104"/>
       <c r="E184" s="101"/>
@@ -11877,7 +11874,7 @@
       <c r="J184" s="101"/>
       <c r="K184" s="96"/>
       <c r="L184" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M184" s="98"/>
       <c r="N184" s="98"/>
@@ -11909,13 +11906,13 @@
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B185" s="102" t="s">
+        <v>384</v>
+      </c>
+      <c r="C185" s="103" t="s">
         <v>385</v>
-      </c>
-      <c r="C185" s="103" t="s">
-        <v>386</v>
       </c>
       <c r="D185" s="104"/>
       <c r="E185" s="101"/>
@@ -11926,7 +11923,7 @@
       <c r="J185" s="101"/>
       <c r="K185" s="96"/>
       <c r="L185" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M185" s="98"/>
       <c r="N185" s="98"/>
@@ -11958,13 +11955,13 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B186" s="102" t="s">
+        <v>386</v>
+      </c>
+      <c r="C186" s="103" t="s">
         <v>387</v>
-      </c>
-      <c r="C186" s="103" t="s">
-        <v>388</v>
       </c>
       <c r="D186" s="104"/>
       <c r="E186" s="101"/>
@@ -11975,7 +11972,7 @@
       <c r="J186" s="101"/>
       <c r="K186" s="96"/>
       <c r="L186" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M186" s="98"/>
       <c r="N186" s="98"/>
@@ -12007,13 +12004,13 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B187" s="102" t="s">
+        <v>388</v>
+      </c>
+      <c r="C187" s="103" t="s">
         <v>389</v>
-      </c>
-      <c r="C187" s="103" t="s">
-        <v>390</v>
       </c>
       <c r="D187" s="104"/>
       <c r="E187" s="101"/>
@@ -12024,7 +12021,7 @@
       <c r="J187" s="101"/>
       <c r="K187" s="96"/>
       <c r="L187" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M187" s="98"/>
       <c r="N187" s="98"/>
@@ -12102,7 +12099,7 @@
         <v>36</v>
       </c>
       <c r="B189" s="96" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C189" s="97" t="s">
         <v>53</v>
@@ -12146,13 +12143,13 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B190" s="96" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C190" s="97" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D190" s="98"/>
       <c r="E190" s="99"/>
@@ -12162,10 +12159,10 @@
       <c r="I190" s="98"/>
       <c r="J190" s="99"/>
       <c r="K190" s="96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L190" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M190" s="98"/>
       <c r="N190" s="98"/>
@@ -12197,13 +12194,13 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B191" s="102" t="s">
+        <v>392</v>
+      </c>
+      <c r="C191" s="103" t="s">
         <v>393</v>
-      </c>
-      <c r="C191" s="103" t="s">
-        <v>394</v>
       </c>
       <c r="D191" s="98"/>
       <c r="E191" s="99"/>
@@ -12213,7 +12210,7 @@
       <c r="I191" s="98"/>
       <c r="J191" s="99"/>
       <c r="K191" s="102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L191" s="102"/>
       <c r="M191" s="98"/>
@@ -12292,7 +12289,7 @@
         <v>36</v>
       </c>
       <c r="B193" s="96" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C193" s="97" t="s">
         <v>53</v>
@@ -12336,13 +12333,13 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B194" s="96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C194" s="97" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D194" s="98"/>
       <c r="E194" s="99"/>
@@ -12352,10 +12349,10 @@
       <c r="I194" s="98"/>
       <c r="J194" s="99"/>
       <c r="K194" s="96" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L194" s="96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M194" s="98"/>
       <c r="N194" s="98"/>
@@ -12390,7 +12387,7 @@
         <v>36</v>
       </c>
       <c r="B195" s="102" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C195" s="108" t="s">
         <v>53</v>
@@ -12403,7 +12400,7 @@
       <c r="I195" s="98"/>
       <c r="J195" s="99"/>
       <c r="K195" s="102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L195" s="102"/>
       <c r="M195" s="98"/>
@@ -12436,13 +12433,13 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B196" s="102" t="s">
+        <v>397</v>
+      </c>
+      <c r="C196" s="103" t="s">
         <v>398</v>
-      </c>
-      <c r="C196" s="103" t="s">
-        <v>399</v>
       </c>
       <c r="D196" s="98"/>
       <c r="E196" s="99"/>
@@ -12453,7 +12450,7 @@
       <c r="J196" s="99"/>
       <c r="K196" s="98"/>
       <c r="L196" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M196" s="98"/>
       <c r="N196" s="98"/>
@@ -12485,13 +12482,13 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B197" s="102" t="s">
+        <v>399</v>
+      </c>
+      <c r="C197" s="109" t="s">
         <v>400</v>
-      </c>
-      <c r="C197" s="109" t="s">
-        <v>401</v>
       </c>
       <c r="D197" s="104"/>
       <c r="E197" s="101"/>
@@ -12502,7 +12499,7 @@
       <c r="J197" s="101"/>
       <c r="K197" s="98"/>
       <c r="L197" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M197" s="98"/>
       <c r="N197" s="98"/>
@@ -12580,7 +12577,7 @@
         <v>36</v>
       </c>
       <c r="B199" s="102" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C199" s="108" t="s">
         <v>53</v>
@@ -12593,7 +12590,7 @@
       <c r="I199" s="98"/>
       <c r="J199" s="99"/>
       <c r="K199" s="102" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L199" s="102"/>
       <c r="M199" s="98"/>
@@ -12626,13 +12623,13 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B200" s="102" t="s">
+        <v>402</v>
+      </c>
+      <c r="C200" s="103" t="s">
         <v>403</v>
-      </c>
-      <c r="C200" s="103" t="s">
-        <v>404</v>
       </c>
       <c r="D200" s="104"/>
       <c r="E200" s="101"/>
@@ -12643,7 +12640,7 @@
       <c r="J200" s="101"/>
       <c r="K200" s="98"/>
       <c r="L200" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M200" s="98"/>
       <c r="N200" s="98"/>
@@ -12675,13 +12672,13 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B201" s="102" t="s">
+        <v>404</v>
+      </c>
+      <c r="C201" s="103" t="s">
         <v>405</v>
-      </c>
-      <c r="C201" s="103" t="s">
-        <v>406</v>
       </c>
       <c r="D201" s="104"/>
       <c r="E201" s="101"/>
@@ -12692,7 +12689,7 @@
       <c r="J201" s="101"/>
       <c r="K201" s="98"/>
       <c r="L201" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M201" s="98"/>
       <c r="N201" s="98"/>
@@ -12724,13 +12721,13 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B202" s="102" t="s">
+        <v>406</v>
+      </c>
+      <c r="C202" s="103" t="s">
         <v>407</v>
-      </c>
-      <c r="C202" s="103" t="s">
-        <v>408</v>
       </c>
       <c r="D202" s="104"/>
       <c r="E202" s="101"/>
@@ -12741,7 +12738,7 @@
       <c r="J202" s="101"/>
       <c r="K202" s="102"/>
       <c r="L202" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M202" s="98"/>
       <c r="N202" s="98"/>
@@ -12819,7 +12816,7 @@
         <v>36</v>
       </c>
       <c r="B204" s="102" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C204" s="108" t="s">
         <v>53</v>
@@ -12832,7 +12829,7 @@
       <c r="I204" s="104"/>
       <c r="J204" s="101"/>
       <c r="K204" s="102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L204" s="102"/>
       <c r="M204" s="98"/>
@@ -12865,13 +12862,13 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B205" s="102" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C205" s="103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D205" s="98"/>
       <c r="E205" s="99"/>
@@ -12882,7 +12879,7 @@
       <c r="J205" s="99"/>
       <c r="K205" s="98"/>
       <c r="L205" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M205" s="98"/>
       <c r="N205" s="98"/>
@@ -12914,13 +12911,13 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B206" s="102" t="s">
+        <v>410</v>
+      </c>
+      <c r="C206" s="103" t="s">
         <v>411</v>
-      </c>
-      <c r="C206" s="103" t="s">
-        <v>412</v>
       </c>
       <c r="D206" s="98"/>
       <c r="E206" s="99"/>
@@ -12931,7 +12928,7 @@
       <c r="J206" s="99"/>
       <c r="K206" s="98"/>
       <c r="L206" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M206" s="98"/>
       <c r="N206" s="98"/>
@@ -12963,13 +12960,13 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B207" s="102" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C207" s="103" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D207" s="98"/>
       <c r="E207" s="99"/>
@@ -12980,7 +12977,7 @@
       <c r="J207" s="99"/>
       <c r="K207" s="98"/>
       <c r="L207" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M207" s="98"/>
       <c r="N207" s="98"/>
@@ -13058,7 +13055,7 @@
         <v>36</v>
       </c>
       <c r="B209" s="102" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C209" s="108" t="s">
         <v>53</v>
@@ -13071,7 +13068,7 @@
       <c r="I209" s="98"/>
       <c r="J209" s="99"/>
       <c r="K209" s="102" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L209" s="102"/>
       <c r="M209" s="98"/>
@@ -13104,13 +13101,13 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B210" s="102" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C210" s="103" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D210" s="104"/>
       <c r="E210" s="101"/>
@@ -13121,7 +13118,7 @@
       <c r="J210" s="101"/>
       <c r="K210" s="98"/>
       <c r="L210" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M210" s="98"/>
       <c r="N210" s="98"/>
@@ -13153,13 +13150,13 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B211" s="102" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C211" s="103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D211" s="104"/>
       <c r="E211" s="101"/>
@@ -13170,7 +13167,7 @@
       <c r="J211" s="101"/>
       <c r="K211" s="98"/>
       <c r="L211" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M211" s="98"/>
       <c r="N211" s="98"/>
@@ -13248,7 +13245,7 @@
         <v>36</v>
       </c>
       <c r="B213" s="102" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C213" s="108" t="s">
         <v>53</v>
@@ -13261,7 +13258,7 @@
       <c r="I213" s="104"/>
       <c r="J213" s="101"/>
       <c r="K213" s="102" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L213" s="102"/>
       <c r="M213" s="98"/>
@@ -13294,13 +13291,13 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B214" s="102" t="s">
+        <v>417</v>
+      </c>
+      <c r="C214" s="103" t="s">
         <v>418</v>
-      </c>
-      <c r="C214" s="103" t="s">
-        <v>419</v>
       </c>
       <c r="D214" s="104"/>
       <c r="E214" s="101"/>
@@ -13311,7 +13308,7 @@
       <c r="J214" s="101"/>
       <c r="K214" s="102"/>
       <c r="L214" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M214" s="98"/>
       <c r="N214" s="98"/>
@@ -13343,13 +13340,13 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B215" s="102" t="s">
+        <v>419</v>
+      </c>
+      <c r="C215" s="103" t="s">
         <v>420</v>
-      </c>
-      <c r="C215" s="103" t="s">
-        <v>421</v>
       </c>
       <c r="D215" s="104"/>
       <c r="E215" s="101"/>
@@ -13360,7 +13357,7 @@
       <c r="J215" s="101"/>
       <c r="K215" s="102"/>
       <c r="L215" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M215" s="98"/>
       <c r="N215" s="98"/>
@@ -13435,13 +13432,13 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B217" s="102" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C217" s="103" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D217" s="104"/>
       <c r="E217" s="101"/>
@@ -13451,10 +13448,10 @@
       <c r="I217" s="104"/>
       <c r="J217" s="101"/>
       <c r="K217" s="102" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L217" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M217" s="98"/>
       <c r="N217" s="98"/>
@@ -13486,13 +13483,13 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B218" s="102" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C218" s="103" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D218" s="104"/>
       <c r="E218" s="101"/>
@@ -13502,10 +13499,10 @@
       <c r="I218" s="104"/>
       <c r="J218" s="101"/>
       <c r="K218" s="102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L218" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M218" s="98"/>
       <c r="N218" s="98"/>
@@ -13537,13 +13534,13 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B219" s="102" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C219" s="103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D219" s="104"/>
       <c r="E219" s="101"/>
@@ -13553,10 +13550,10 @@
       <c r="I219" s="104"/>
       <c r="J219" s="101"/>
       <c r="K219" s="102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L219" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M219" s="101"/>
       <c r="N219" s="104"/>
@@ -13565,7 +13562,7 @@
       <c r="Q219" s="104"/>
       <c r="R219" s="101"/>
       <c r="S219" s="102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T219" s="98"/>
       <c r="U219" s="98"/>
@@ -13593,7 +13590,7 @@
         <v>36</v>
       </c>
       <c r="B220" s="102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C220" s="108" t="s">
         <v>53</v>
@@ -13606,7 +13603,7 @@
       <c r="I220" s="104"/>
       <c r="J220" s="101"/>
       <c r="K220" s="102" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L220" s="102"/>
       <c r="M220" s="101"/>
@@ -13639,13 +13636,13 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B221" s="102" t="s">
+        <v>426</v>
+      </c>
+      <c r="C221" s="103" t="s">
         <v>427</v>
-      </c>
-      <c r="C221" s="103" t="s">
-        <v>428</v>
       </c>
       <c r="D221" s="104"/>
       <c r="E221" s="101"/>
@@ -13656,7 +13653,7 @@
       <c r="J221" s="101"/>
       <c r="K221" s="102"/>
       <c r="L221" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M221" s="101"/>
       <c r="N221" s="104"/>
@@ -13688,13 +13685,13 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B222" s="102" t="s">
+        <v>428</v>
+      </c>
+      <c r="C222" s="103" t="s">
         <v>429</v>
-      </c>
-      <c r="C222" s="103" t="s">
-        <v>430</v>
       </c>
       <c r="D222" s="104"/>
       <c r="E222" s="101"/>
@@ -13705,7 +13702,7 @@
       <c r="J222" s="101"/>
       <c r="K222" s="102"/>
       <c r="L222" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M222" s="101"/>
       <c r="N222" s="104"/>
@@ -13750,7 +13747,7 @@
       <c r="J223" s="101"/>
       <c r="K223" s="102"/>
       <c r="L223" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M223" s="101"/>
       <c r="N223" s="104"/>
@@ -13785,7 +13782,7 @@
         <v>36</v>
       </c>
       <c r="B224" s="102" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C224" s="108" t="s">
         <v>53</v>
@@ -13798,7 +13795,7 @@
       <c r="I224" s="104"/>
       <c r="J224" s="101"/>
       <c r="K224" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L224" s="102"/>
       <c r="M224" s="101"/>
@@ -13831,13 +13828,13 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B225" s="102" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C225" s="103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D225" s="104"/>
       <c r="E225" s="101"/>
@@ -13848,7 +13845,7 @@
       <c r="J225" s="101"/>
       <c r="K225" s="102"/>
       <c r="L225" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M225" s="101"/>
       <c r="N225" s="104"/>
@@ -13880,13 +13877,13 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B226" s="102" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C226" s="103" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D226" s="104"/>
       <c r="E226" s="101"/>
@@ -13897,7 +13894,7 @@
       <c r="J226" s="101"/>
       <c r="K226" s="102"/>
       <c r="L226" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M226" s="101"/>
       <c r="N226" s="104"/>
@@ -13975,7 +13972,7 @@
         <v>36</v>
       </c>
       <c r="B228" s="102" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C228" s="108" t="s">
         <v>53</v>
@@ -13988,7 +13985,7 @@
       <c r="I228" s="104"/>
       <c r="J228" s="101"/>
       <c r="K228" s="102" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L228" s="102"/>
       <c r="M228" s="101"/>
@@ -14021,13 +14018,13 @@
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B229" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="C229" s="103" t="s">
         <v>436</v>
-      </c>
-      <c r="C229" s="103" t="s">
-        <v>437</v>
       </c>
       <c r="D229" s="104"/>
       <c r="E229" s="101"/>
@@ -14038,7 +14035,7 @@
       <c r="J229" s="101"/>
       <c r="K229" s="102"/>
       <c r="L229" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M229" s="101"/>
       <c r="N229" s="104"/>
@@ -14070,13 +14067,13 @@
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B230" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="C230" s="103" t="s">
         <v>438</v>
-      </c>
-      <c r="C230" s="103" t="s">
-        <v>439</v>
       </c>
       <c r="D230" s="104"/>
       <c r="E230" s="101"/>
@@ -14087,7 +14084,7 @@
       <c r="J230" s="101"/>
       <c r="K230" s="102"/>
       <c r="L230" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M230" s="101"/>
       <c r="N230" s="104"/>
@@ -14165,7 +14162,7 @@
         <v>36</v>
       </c>
       <c r="B232" s="102" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C232" s="108" t="s">
         <v>53</v>
@@ -14178,7 +14175,7 @@
       <c r="I232" s="104"/>
       <c r="J232" s="101"/>
       <c r="K232" s="102" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L232" s="102"/>
       <c r="M232" s="101"/>
@@ -14211,13 +14208,13 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B233" s="102" t="s">
+        <v>441</v>
+      </c>
+      <c r="C233" s="103" t="s">
         <v>442</v>
-      </c>
-      <c r="C233" s="103" t="s">
-        <v>443</v>
       </c>
       <c r="D233" s="104"/>
       <c r="E233" s="101"/>
@@ -14228,7 +14225,7 @@
       <c r="J233" s="101"/>
       <c r="K233" s="102"/>
       <c r="L233" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M233" s="101"/>
       <c r="N233" s="104"/>
@@ -14260,13 +14257,13 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B234" s="102" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C234" s="103" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D234" s="104"/>
       <c r="E234" s="101"/>
@@ -14277,7 +14274,7 @@
       <c r="J234" s="101"/>
       <c r="K234" s="102"/>
       <c r="L234" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M234" s="101"/>
       <c r="N234" s="104"/>
@@ -14309,13 +14306,13 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B235" s="102" t="s">
+        <v>444</v>
+      </c>
+      <c r="C235" s="103" t="s">
         <v>445</v>
-      </c>
-      <c r="C235" s="103" t="s">
-        <v>446</v>
       </c>
       <c r="D235" s="104"/>
       <c r="E235" s="101"/>
@@ -14326,7 +14323,7 @@
       <c r="J235" s="101"/>
       <c r="K235" s="102"/>
       <c r="L235" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M235" s="101"/>
       <c r="N235" s="104"/>
@@ -14358,13 +14355,13 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B236" s="102" t="s">
+        <v>446</v>
+      </c>
+      <c r="C236" s="103" t="s">
         <v>447</v>
-      </c>
-      <c r="C236" s="103" t="s">
-        <v>448</v>
       </c>
       <c r="D236" s="104"/>
       <c r="E236" s="101"/>
@@ -14375,7 +14372,7 @@
       <c r="J236" s="101"/>
       <c r="K236" s="102"/>
       <c r="L236" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M236" s="101"/>
       <c r="N236" s="104"/>
@@ -14407,13 +14404,13 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B237" s="102" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C237" s="103" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D237" s="104"/>
       <c r="E237" s="101"/>
@@ -14424,7 +14421,7 @@
       <c r="J237" s="101"/>
       <c r="K237" s="102"/>
       <c r="L237" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M237" s="101"/>
       <c r="N237" s="104"/>
@@ -14502,7 +14499,7 @@
         <v>36</v>
       </c>
       <c r="B239" s="102" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C239" s="108" t="s">
         <v>53</v>
@@ -14515,7 +14512,7 @@
       <c r="I239" s="104"/>
       <c r="J239" s="101"/>
       <c r="K239" s="102" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L239" s="102"/>
       <c r="M239" s="101"/>
@@ -14548,13 +14545,13 @@
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B240" s="102" t="s">
+        <v>451</v>
+      </c>
+      <c r="C240" s="103" t="s">
         <v>452</v>
-      </c>
-      <c r="C240" s="103" t="s">
-        <v>453</v>
       </c>
       <c r="D240" s="104"/>
       <c r="E240" s="101"/>
@@ -14565,7 +14562,7 @@
       <c r="J240" s="101"/>
       <c r="K240" s="102"/>
       <c r="L240" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M240" s="101"/>
       <c r="N240" s="104"/>
@@ -14597,13 +14594,13 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B241" s="102" t="s">
+        <v>453</v>
+      </c>
+      <c r="C241" s="103" t="s">
         <v>454</v>
-      </c>
-      <c r="C241" s="103" t="s">
-        <v>455</v>
       </c>
       <c r="D241" s="104"/>
       <c r="E241" s="101"/>
@@ -14614,7 +14611,7 @@
       <c r="J241" s="101"/>
       <c r="K241" s="102"/>
       <c r="L241" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M241" s="101"/>
       <c r="N241" s="104"/>
@@ -14689,13 +14686,13 @@
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B243" s="102" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C243" s="103" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D243" s="104"/>
       <c r="E243" s="101"/>
@@ -14705,10 +14702,10 @@
       <c r="I243" s="104"/>
       <c r="J243" s="101"/>
       <c r="K243" s="102" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L243" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M243" s="101"/>
       <c r="N243" s="104"/>
@@ -14743,7 +14740,7 @@
         <v>36</v>
       </c>
       <c r="B244" s="102" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C244" s="108" t="s">
         <v>53</v>
@@ -14756,7 +14753,7 @@
       <c r="I244" s="104"/>
       <c r="J244" s="101"/>
       <c r="K244" s="102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L244" s="102"/>
       <c r="M244" s="101"/>
@@ -14789,13 +14786,13 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B245" s="102" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C245" s="103" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D245" s="104"/>
       <c r="E245" s="101"/>
@@ -14806,7 +14803,7 @@
       <c r="J245" s="101"/>
       <c r="K245" s="102"/>
       <c r="L245" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M245" s="101"/>
       <c r="N245" s="104"/>
@@ -14838,13 +14835,13 @@
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B246" s="102" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C246" s="103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D246" s="104"/>
       <c r="E246" s="101"/>
@@ -14855,7 +14852,7 @@
       <c r="J246" s="101"/>
       <c r="K246" s="102"/>
       <c r="L246" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M246" s="101"/>
       <c r="N246" s="104"/>
@@ -14887,13 +14884,13 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B247" s="102" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C247" s="103" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D247" s="104"/>
       <c r="E247" s="101"/>
@@ -14904,7 +14901,7 @@
       <c r="J247" s="101"/>
       <c r="K247" s="102"/>
       <c r="L247" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M247" s="101"/>
       <c r="N247" s="104"/>
@@ -14982,7 +14979,7 @@
         <v>36</v>
       </c>
       <c r="B249" s="102" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C249" s="108" t="s">
         <v>53</v>
@@ -14995,7 +14992,7 @@
       <c r="I249" s="104"/>
       <c r="J249" s="101"/>
       <c r="K249" s="102" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L249" s="102"/>
       <c r="M249" s="101"/>
@@ -15028,13 +15025,13 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B250" s="102" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C250" s="103" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D250" s="98"/>
       <c r="E250" s="99"/>
@@ -15075,13 +15072,13 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B251" s="102" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C251" s="103" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D251" s="98"/>
       <c r="E251" s="99"/>
@@ -15122,13 +15119,13 @@
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B252" s="102" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C252" s="103" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D252" s="98"/>
       <c r="E252" s="99"/>
@@ -15258,7 +15255,7 @@
         <v>36</v>
       </c>
       <c r="B255" s="96" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C255" s="102" t="s">
         <v>53</v>
@@ -15302,13 +15299,13 @@
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B256" s="110" t="s">
+        <v>465</v>
+      </c>
+      <c r="C256" s="97" t="s">
         <v>466</v>
-      </c>
-      <c r="C256" s="97" t="s">
-        <v>467</v>
       </c>
       <c r="D256" s="98"/>
       <c r="E256" s="99"/>
@@ -15319,7 +15316,7 @@
       <c r="J256" s="99"/>
       <c r="K256" s="99"/>
       <c r="L256" s="96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M256" s="98"/>
       <c r="N256" s="98"/>
@@ -15351,13 +15348,13 @@
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B257" s="102" t="s">
+        <v>468</v>
+      </c>
+      <c r="C257" s="103" t="s">
         <v>469</v>
-      </c>
-      <c r="C257" s="103" t="s">
-        <v>470</v>
       </c>
       <c r="D257" s="104"/>
       <c r="E257" s="101"/>
@@ -15612,7 +15609,7 @@
         <v>36</v>
       </c>
       <c r="B263" s="112" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C263" s="113" t="s">
         <v>53</v>
@@ -19898,7 +19895,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="130" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B1" s="130" t="s">
         <v>1</v>
@@ -19940,13 +19937,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="129" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="129" t="s">
         <v>473</v>
-      </c>
-      <c r="B2" s="129" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="129" t="s">
-        <v>474</v>
       </c>
       <c r="D2" s="138"/>
       <c r="E2" s="138"/>
@@ -19970,13 +19967,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="129" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" s="129" t="s">
+        <v>474</v>
+      </c>
+      <c r="C3" s="129" t="s">
         <v>475</v>
-      </c>
-      <c r="C3" s="129" t="s">
-        <v>476</v>
       </c>
       <c r="D3" s="138"/>
       <c r="E3" s="138"/>
@@ -20024,13 +20021,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="129" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="129" t="s">
         <v>477</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="C5" s="129" t="s">
         <v>478</v>
-      </c>
-      <c r="C5" s="129" t="s">
-        <v>479</v>
       </c>
       <c r="D5" s="138"/>
       <c r="E5" s="138"/>
@@ -20054,13 +20051,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="129" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B6" s="139" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6" s="139" t="s">
         <v>480</v>
-      </c>
-      <c r="C6" s="139" t="s">
-        <v>481</v>
       </c>
       <c r="D6" s="138"/>
       <c r="E6" s="138"/>
@@ -20084,13 +20081,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="129" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B7" s="129" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="129" t="s">
         <v>482</v>
-      </c>
-      <c r="C7" s="129" t="s">
-        <v>483</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -20114,13 +20111,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="129" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B8" s="129" t="s">
+        <v>483</v>
+      </c>
+      <c r="C8" s="129" t="s">
         <v>484</v>
-      </c>
-      <c r="C8" s="129" t="s">
-        <v>485</v>
       </c>
       <c r="D8" s="138"/>
       <c r="E8" s="138"/>
@@ -20168,13 +20165,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="129" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" s="139" t="s">
         <v>486</v>
       </c>
-      <c r="B10" s="139" t="s">
+      <c r="C10" s="129" t="s">
         <v>487</v>
-      </c>
-      <c r="C10" s="129" t="s">
-        <v>488</v>
       </c>
       <c r="D10" s="138"/>
       <c r="E10" s="138"/>
@@ -20198,13 +20195,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="129" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B11" s="139" t="s">
+        <v>488</v>
+      </c>
+      <c r="C11" s="129" t="s">
         <v>489</v>
-      </c>
-      <c r="C11" s="129" t="s">
-        <v>490</v>
       </c>
       <c r="D11" s="138"/>
       <c r="E11" s="138"/>
@@ -20252,13 +20249,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="140" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" s="141" t="s">
         <v>491</v>
       </c>
-      <c r="B13" s="141" t="s">
+      <c r="C13" s="140" t="s">
         <v>492</v>
-      </c>
-      <c r="C13" s="140" t="s">
-        <v>493</v>
       </c>
       <c r="D13" s="138"/>
       <c r="E13" s="138"/>
@@ -20282,13 +20279,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="140" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B14" s="141" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" s="140" t="s">
         <v>494</v>
-      </c>
-      <c r="C14" s="140" t="s">
-        <v>495</v>
       </c>
       <c r="D14" s="138"/>
       <c r="E14" s="138"/>
@@ -20312,13 +20309,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="140" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B15" s="141" t="s">
+        <v>495</v>
+      </c>
+      <c r="C15" s="140" t="s">
         <v>496</v>
-      </c>
-      <c r="C15" s="140" t="s">
-        <v>497</v>
       </c>
       <c r="D15" s="138"/>
       <c r="E15" s="138"/>
@@ -20366,13 +20363,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="140" t="s">
+        <v>497</v>
+      </c>
+      <c r="B17" s="140" t="s">
+        <v>474</v>
+      </c>
+      <c r="C17" s="140" t="s">
         <v>498</v>
-      </c>
-      <c r="B17" s="140" t="s">
-        <v>475</v>
-      </c>
-      <c r="C17" s="140" t="s">
-        <v>499</v>
       </c>
       <c r="D17" s="138"/>
       <c r="E17" s="138"/>
@@ -20396,13 +20393,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="140" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B18" s="140" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="140" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D18" s="138"/>
       <c r="E18" s="138"/>
@@ -20450,13 +20447,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="140" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" s="138" t="s">
         <v>501</v>
       </c>
-      <c r="B20" s="138" t="s">
+      <c r="C20" s="140" t="s">
         <v>502</v>
-      </c>
-      <c r="C20" s="140" t="s">
-        <v>503</v>
       </c>
       <c r="D20" s="138"/>
       <c r="E20" s="138"/>
@@ -20480,13 +20477,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="140" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B21" s="138" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" s="140" t="s">
         <v>504</v>
-      </c>
-      <c r="C21" s="140" t="s">
-        <v>505</v>
       </c>
       <c r="D21" s="138"/>
       <c r="E21" s="138"/>
@@ -20510,13 +20507,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="140" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B22" s="138" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" s="140" t="s">
         <v>506</v>
-      </c>
-      <c r="C22" s="140" t="s">
-        <v>507</v>
       </c>
       <c r="D22" s="138"/>
       <c r="E22" s="138"/>
@@ -20540,13 +20537,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="140" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B23" s="140" t="s">
+        <v>507</v>
+      </c>
+      <c r="C23" s="140" t="s">
         <v>508</v>
-      </c>
-      <c r="C23" s="140" t="s">
-        <v>509</v>
       </c>
       <c r="D23" s="138"/>
       <c r="E23" s="138"/>
@@ -20570,13 +20567,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="140" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B24" s="141" t="s">
+        <v>509</v>
+      </c>
+      <c r="C24" s="141" t="s">
         <v>510</v>
-      </c>
-      <c r="C24" s="141" t="s">
-        <v>511</v>
       </c>
       <c r="D24" s="138"/>
       <c r="E24" s="138"/>
@@ -20622,13 +20619,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="140" t="s">
+        <v>511</v>
+      </c>
+      <c r="B26" s="142" t="s">
         <v>512</v>
       </c>
-      <c r="B26" s="142" t="s">
+      <c r="C26" s="140" t="s">
         <v>513</v>
-      </c>
-      <c r="C26" s="140" t="s">
-        <v>514</v>
       </c>
       <c r="D26" s="138"/>
       <c r="E26" s="138"/>
@@ -20652,13 +20649,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B27" s="140" t="s">
+        <v>514</v>
+      </c>
+      <c r="C27" s="140" t="s">
         <v>515</v>
-      </c>
-      <c r="C27" s="140" t="s">
-        <v>516</v>
       </c>
       <c r="D27" s="138"/>
       <c r="E27" s="138"/>
@@ -20682,13 +20679,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B28" s="140" t="s">
+        <v>516</v>
+      </c>
+      <c r="C28" s="140" t="s">
         <v>517</v>
-      </c>
-      <c r="C28" s="140" t="s">
-        <v>518</v>
       </c>
       <c r="D28" s="138"/>
       <c r="E28" s="138"/>
@@ -20712,13 +20709,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B29" s="138" t="s">
+        <v>501</v>
+      </c>
+      <c r="C29" s="142" t="s">
         <v>502</v>
-      </c>
-      <c r="C29" s="142" t="s">
-        <v>503</v>
       </c>
       <c r="D29" s="138"/>
       <c r="E29" s="138"/>
@@ -20742,13 +20739,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B30" s="138" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" s="140" t="s">
         <v>504</v>
-      </c>
-      <c r="C30" s="140" t="s">
-        <v>505</v>
       </c>
       <c r="D30" s="138"/>
       <c r="E30" s="138"/>
@@ -20772,13 +20769,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B31" s="138" t="s">
+        <v>505</v>
+      </c>
+      <c r="C31" s="140" t="s">
         <v>506</v>
-      </c>
-      <c r="C31" s="140" t="s">
-        <v>507</v>
       </c>
       <c r="D31" s="138"/>
       <c r="E31" s="138"/>
@@ -20802,13 +20799,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B32" s="140" t="s">
+        <v>507</v>
+      </c>
+      <c r="C32" s="140" t="s">
         <v>508</v>
-      </c>
-      <c r="C32" s="140" t="s">
-        <v>509</v>
       </c>
       <c r="D32" s="138"/>
       <c r="E32" s="138"/>
@@ -20832,13 +20829,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B33" s="141" t="s">
+        <v>509</v>
+      </c>
+      <c r="C33" s="141" t="s">
         <v>510</v>
-      </c>
-      <c r="C33" s="141" t="s">
-        <v>511</v>
       </c>
       <c r="D33" s="138"/>
       <c r="E33" s="138"/>
@@ -20886,92 +20883,92 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="141" t="s">
+        <v>518</v>
+      </c>
+      <c r="B35" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="C35" s="141" t="s">
         <v>520</v>
-      </c>
-      <c r="C35" s="141" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="141" t="s">
+        <v>521</v>
+      </c>
+      <c r="B36" s="141" t="s">
         <v>522</v>
       </c>
-      <c r="B36" s="141" t="s">
+      <c r="C36" s="141" t="s">
         <v>523</v>
-      </c>
-      <c r="C36" s="141" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="141">
         <v>1.0</v>
       </c>
       <c r="C39" s="141" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" s="141">
         <v>2.0</v>
       </c>
       <c r="C40" s="141" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" s="141">
         <v>3.0</v>
       </c>
       <c r="C41" s="141" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="141">
         <v>4.0</v>
       </c>
       <c r="C42" s="141" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="143" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="141">
         <v>7.0</v>
       </c>
       <c r="C43" s="141" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="144" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B44" s="144">
         <v>14.0</v>
       </c>
       <c r="C44" s="141" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -20981,261 +20978,261 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B46" s="141" t="s">
+        <v>530</v>
+      </c>
+      <c r="C46" s="141" t="s">
         <v>531</v>
-      </c>
-      <c r="C46" s="141" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B47" s="141" t="s">
+        <v>532</v>
+      </c>
+      <c r="C47" s="141" t="s">
         <v>533</v>
-      </c>
-      <c r="C47" s="141" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B48" s="141" t="s">
+        <v>534</v>
+      </c>
+      <c r="C48" s="141" t="s">
         <v>535</v>
-      </c>
-      <c r="C48" s="141" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B50" s="141" t="s">
+        <v>536</v>
+      </c>
+      <c r="C50" s="141" t="s">
         <v>537</v>
-      </c>
-      <c r="C50" s="141" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B51" s="141" t="s">
+        <v>538</v>
+      </c>
+      <c r="C51" s="141" t="s">
         <v>539</v>
-      </c>
-      <c r="C51" s="141" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1"/>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="141" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B53" s="141">
         <v>1.0</v>
       </c>
       <c r="C53" s="141" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="141" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B54" s="141">
         <v>2.0</v>
       </c>
       <c r="C54" s="141" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="141" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B55" s="141">
         <v>3.0</v>
       </c>
       <c r="C55" s="141" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="141" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B56" s="141">
         <v>4.0</v>
       </c>
       <c r="C56" s="141" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="141" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" s="141">
         <v>7.0</v>
       </c>
       <c r="C57" s="141" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="141" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B58" s="144">
         <v>14.0</v>
       </c>
       <c r="C58" s="141" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="145" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B60" s="141">
         <v>1.0</v>
       </c>
       <c r="C60" s="141" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="145" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B61" s="141">
         <v>2.0</v>
       </c>
       <c r="C61" s="141" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="145" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B62" s="141">
         <v>3.0</v>
       </c>
       <c r="C62" s="141" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="145" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B63" s="141">
         <v>4.0</v>
       </c>
       <c r="C63" s="141" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="145" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B64" s="141">
         <v>7.0</v>
       </c>
       <c r="C64" s="141" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="145" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B65" s="144">
         <v>14.0</v>
       </c>
       <c r="C65" s="141" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="141" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B67" s="141" t="s">
+        <v>540</v>
+      </c>
+      <c r="C67" s="141" t="s">
         <v>541</v>
-      </c>
-      <c r="C67" s="141" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="141" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B68" s="141" t="s">
+        <v>542</v>
+      </c>
+      <c r="C68" s="141" t="s">
         <v>543</v>
-      </c>
-      <c r="C68" s="141" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B70" s="141" t="s">
+        <v>544</v>
+      </c>
+      <c r="C70" s="141" t="s">
         <v>545</v>
-      </c>
-      <c r="C70" s="141" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B71" s="141" t="s">
+        <v>546</v>
+      </c>
+      <c r="C71" s="141" t="s">
         <v>547</v>
-      </c>
-      <c r="C71" s="141" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B72" s="141" t="s">
+        <v>548</v>
+      </c>
+      <c r="C72" s="145" t="s">
         <v>549</v>
-      </c>
-      <c r="C72" s="145" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1"/>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="B74" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="C74" s="18" t="s">
         <v>552</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>553</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
@@ -21262,13 +21259,13 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>554</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>555</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
@@ -21340,25 +21337,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="130" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" s="130" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="C1" s="130" t="s">
         <v>557</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="D1" s="130" t="s">
         <v>558</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="E1" s="130" t="s">
         <v>559</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="F1" s="130" t="s">
         <v>560</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="G1" s="146" t="s">
         <v>561</v>
-      </c>
-      <c r="G1" s="146" t="s">
-        <v>562</v>
       </c>
       <c r="H1" s="130"/>
       <c r="I1" s="130"/>
@@ -21382,24 +21379,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="147" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B2" s="147" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="148" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-03-05_19-55</v>
+        <v>2021-03-05_20-24</v>
       </c>
       <c r="D2" s="149" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E2" s="149" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="150" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -21725,7 +21722,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="130" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B1" s="130" t="s">
         <v>1</v>
@@ -21768,13 +21765,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="138" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="138" t="s">
         <v>473</v>
-      </c>
-      <c r="B2" s="138" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="138" t="s">
-        <v>474</v>
       </c>
       <c r="D2" s="138"/>
       <c r="E2" s="138"/>
@@ -21799,13 +21796,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="138" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" s="138" t="s">
+        <v>474</v>
+      </c>
+      <c r="C3" s="138" t="s">
         <v>475</v>
-      </c>
-      <c r="C3" s="138" t="s">
-        <v>476</v>
       </c>
       <c r="D3" s="138"/>
       <c r="E3" s="138"/>
@@ -21855,13 +21852,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B5" s="138" t="s">
+        <v>565</v>
+      </c>
+      <c r="C5" s="138" t="s">
         <v>566</v>
-      </c>
-      <c r="C5" s="138" t="s">
-        <v>567</v>
       </c>
       <c r="D5" s="138"/>
       <c r="E5" s="138"/>
@@ -21886,13 +21883,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B6" s="138" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" s="138" t="s">
         <v>568</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>569</v>
       </c>
       <c r="D6" s="138"/>
       <c r="E6" s="138"/>
@@ -21917,13 +21914,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B7" s="138" t="s">
+        <v>569</v>
+      </c>
+      <c r="C7" s="138" t="s">
         <v>570</v>
-      </c>
-      <c r="C7" s="138" t="s">
-        <v>571</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -21948,13 +21945,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B8" s="138" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" s="138" t="s">
         <v>572</v>
-      </c>
-      <c r="C8" s="138" t="s">
-        <v>573</v>
       </c>
       <c r="D8" s="138"/>
       <c r="E8" s="138"/>
@@ -21979,13 +21976,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B9" s="138" t="s">
+        <v>573</v>
+      </c>
+      <c r="C9" s="138" t="s">
         <v>574</v>
-      </c>
-      <c r="C9" s="138" t="s">
-        <v>575</v>
       </c>
       <c r="D9" s="138"/>
       <c r="E9" s="138"/>
@@ -22035,13 +22032,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="138" t="s">
+        <v>575</v>
+      </c>
+      <c r="B11" s="138" t="s">
         <v>576</v>
       </c>
-      <c r="B11" s="138" t="s">
+      <c r="C11" s="138" t="s">
         <v>577</v>
-      </c>
-      <c r="C11" s="138" t="s">
-        <v>578</v>
       </c>
       <c r="D11" s="138"/>
       <c r="E11" s="138"/>
@@ -22066,13 +22063,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="138" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B12" s="138" t="s">
+        <v>578</v>
+      </c>
+      <c r="C12" s="138" t="s">
         <v>579</v>
-      </c>
-      <c r="C12" s="138" t="s">
-        <v>580</v>
       </c>
       <c r="D12" s="138"/>
       <c r="E12" s="138"/>
@@ -22097,13 +22094,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="138" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B13" s="138" t="s">
+        <v>580</v>
+      </c>
+      <c r="C13" s="138" t="s">
         <v>581</v>
-      </c>
-      <c r="C13" s="138" t="s">
-        <v>582</v>
       </c>
       <c r="D13" s="138"/>
       <c r="E13" s="138"/>
@@ -22128,13 +22125,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="138" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B14" s="138" t="s">
+        <v>582</v>
+      </c>
+      <c r="C14" s="138" t="s">
         <v>583</v>
-      </c>
-      <c r="C14" s="138" t="s">
-        <v>584</v>
       </c>
       <c r="D14" s="138"/>
       <c r="E14" s="138"/>
@@ -22159,13 +22156,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="138" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B15" s="138" t="s">
+        <v>584</v>
+      </c>
+      <c r="C15" s="138" t="s">
         <v>585</v>
-      </c>
-      <c r="C15" s="138" t="s">
-        <v>586</v>
       </c>
       <c r="D15" s="138"/>
       <c r="E15" s="138"/>
@@ -22190,13 +22187,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="138" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B16" s="138" t="s">
+        <v>586</v>
+      </c>
+      <c r="C16" s="138" t="s">
         <v>587</v>
-      </c>
-      <c r="C16" s="138" t="s">
-        <v>588</v>
       </c>
       <c r="D16" s="138"/>
       <c r="E16" s="138"/>
@@ -22246,13 +22243,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="138" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B18" s="138" t="s">
+        <v>576</v>
+      </c>
+      <c r="C18" s="138" t="s">
         <v>577</v>
-      </c>
-      <c r="C18" s="138" t="s">
-        <v>578</v>
       </c>
       <c r="D18" s="138"/>
       <c r="E18" s="138"/>
@@ -22277,13 +22274,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="138" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B19" s="138" t="s">
+        <v>578</v>
+      </c>
+      <c r="C19" s="138" t="s">
         <v>579</v>
-      </c>
-      <c r="C19" s="138" t="s">
-        <v>580</v>
       </c>
       <c r="D19" s="138"/>
       <c r="E19" s="138"/>
@@ -22308,13 +22305,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="138" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B20" s="138" t="s">
+        <v>580</v>
+      </c>
+      <c r="C20" s="138" t="s">
         <v>581</v>
-      </c>
-      <c r="C20" s="138" t="s">
-        <v>582</v>
       </c>
       <c r="D20" s="138"/>
       <c r="E20" s="138"/>
@@ -22339,13 +22336,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="138" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B21" s="138" t="s">
+        <v>582</v>
+      </c>
+      <c r="C21" s="138" t="s">
         <v>583</v>
-      </c>
-      <c r="C21" s="138" t="s">
-        <v>584</v>
       </c>
       <c r="D21" s="138"/>
       <c r="E21" s="138"/>
@@ -22370,13 +22367,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="138" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B22" s="138" t="s">
+        <v>586</v>
+      </c>
+      <c r="C22" s="138" t="s">
         <v>587</v>
-      </c>
-      <c r="C22" s="138" t="s">
-        <v>588</v>
       </c>
       <c r="D22" s="138"/>
       <c r="E22" s="138"/>
@@ -22401,13 +22398,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="138" t="s">
+        <v>588</v>
+      </c>
+      <c r="B23" s="138" t="s">
         <v>589</v>
       </c>
-      <c r="B23" s="138" t="s">
+      <c r="C23" s="138" t="s">
         <v>590</v>
-      </c>
-      <c r="C23" s="138" t="s">
-        <v>591</v>
       </c>
       <c r="D23" s="138"/>
       <c r="E23" s="138"/>
@@ -22457,13 +22454,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="138" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B25" s="138" t="s">
+        <v>501</v>
+      </c>
+      <c r="C25" s="138" t="s">
         <v>502</v>
-      </c>
-      <c r="C25" s="138" t="s">
-        <v>503</v>
       </c>
       <c r="D25" s="138"/>
       <c r="E25" s="138"/>
@@ -22488,13 +22485,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="138" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B26" s="138" t="s">
+        <v>503</v>
+      </c>
+      <c r="C26" s="138" t="s">
         <v>504</v>
-      </c>
-      <c r="C26" s="138" t="s">
-        <v>505</v>
       </c>
       <c r="D26" s="138"/>
       <c r="E26" s="138"/>
@@ -22519,13 +22516,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="138" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B27" s="138" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" s="138" t="s">
         <v>506</v>
-      </c>
-      <c r="C27" s="138" t="s">
-        <v>507</v>
       </c>
       <c r="D27" s="138"/>
       <c r="E27" s="138"/>
@@ -22550,13 +22547,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="138" t="s">
+        <v>591</v>
+      </c>
+      <c r="B28" s="138" t="s">
         <v>592</v>
       </c>
-      <c r="B28" s="138" t="s">
+      <c r="C28" s="138" t="s">
         <v>593</v>
-      </c>
-      <c r="C28" s="138" t="s">
-        <v>594</v>
       </c>
       <c r="D28" s="138"/>
       <c r="E28" s="138"/>
@@ -22581,13 +22578,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="138" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B29" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="C29" s="138" t="s">
         <v>539</v>
-      </c>
-      <c r="C29" s="138" t="s">
-        <v>540</v>
       </c>
       <c r="D29" s="138"/>
       <c r="E29" s="138"/>
@@ -22637,13 +22634,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="138" t="s">
+        <v>594</v>
+      </c>
+      <c r="B31" s="138" t="s">
         <v>595</v>
       </c>
-      <c r="B31" s="138" t="s">
-        <v>596</v>
-      </c>
       <c r="C31" s="138" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D31" s="138"/>
       <c r="E31" s="138"/>
@@ -22668,13 +22665,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="138" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C32" s="138" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D32" s="138"/>
       <c r="E32" s="138"/>
@@ -22724,121 +22721,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B43" t="s">
+        <v>538</v>
+      </c>
+      <c r="C43" t="s">
         <v>539</v>
-      </c>
-      <c r="C43" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -22849,26 +22846,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -22879,13 +22876,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="152" t="s">
+        <v>550</v>
+      </c>
+      <c r="B48" s="152" t="s">
         <v>551</v>
       </c>
-      <c r="B48" s="152" t="s">
+      <c r="C48" s="152" t="s">
         <v>552</v>
-      </c>
-      <c r="C48" s="152" t="s">
-        <v>553</v>
       </c>
       <c r="D48" s="152"/>
       <c r="E48" s="152"/>
@@ -22910,13 +22907,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="152" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B49" s="152" t="s">
+        <v>553</v>
+      </c>
+      <c r="C49" s="152" t="s">
         <v>554</v>
-      </c>
-      <c r="C49" s="152" t="s">
-        <v>555</v>
       </c>
       <c r="D49" s="152"/>
       <c r="E49" s="152"/>
@@ -22942,226 +22939,226 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
+        <v>610</v>
+      </c>
+      <c r="B51" t="s">
         <v>611</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>612</v>
-      </c>
-      <c r="C51" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B52" t="s">
+        <v>613</v>
+      </c>
+      <c r="C52" t="s">
         <v>614</v>
-      </c>
-      <c r="C52" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B53" t="s">
+        <v>615</v>
+      </c>
+      <c r="C53" t="s">
         <v>616</v>
-      </c>
-      <c r="C53" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B54" t="s">
+        <v>617</v>
+      </c>
+      <c r="C54" t="s">
         <v>618</v>
-      </c>
-      <c r="C54" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B55" t="s">
+        <v>619</v>
+      </c>
+      <c r="C55" t="s">
         <v>620</v>
-      </c>
-      <c r="C55" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B56" t="s">
+        <v>538</v>
+      </c>
+      <c r="C56" t="s">
         <v>539</v>
-      </c>
-      <c r="C56" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="152" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B58" s="152" t="s">
         <v>101</v>
       </c>
       <c r="C58" s="152" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="152" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B59" s="152" t="s">
+        <v>623</v>
+      </c>
+      <c r="C59" s="152" t="s">
         <v>624</v>
-      </c>
-      <c r="C59" s="152" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="152" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B60" s="152" t="s">
+        <v>625</v>
+      </c>
+      <c r="C60" s="152" t="s">
         <v>626</v>
-      </c>
-      <c r="C60" s="152" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="152" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B61" s="152" t="s">
+        <v>538</v>
+      </c>
+      <c r="C61" s="152" t="s">
         <v>539</v>
-      </c>
-      <c r="C61" s="152" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="C63" s="152" t="s">
         <v>629</v>
-      </c>
-      <c r="C63" s="152" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B64" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="C64" s="152" t="s">
         <v>631</v>
-      </c>
-      <c r="C64" s="152" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B65" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="C65" s="152" t="s">
         <v>633</v>
-      </c>
-      <c r="C65" s="152" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="C66" s="152" t="s">
         <v>635</v>
-      </c>
-      <c r="C66" s="152" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="C67" s="152" t="s">
         <v>510</v>
-      </c>
-      <c r="C67" s="152" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B69" t="s">
+        <v>530</v>
+      </c>
+      <c r="C69" t="s">
         <v>531</v>
-      </c>
-      <c r="C69" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B70" t="s">
+        <v>532</v>
+      </c>
+      <c r="C70" t="s">
         <v>533</v>
-      </c>
-      <c r="C70" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
+        <v>637</v>
+      </c>
+      <c r="B72" t="s">
         <v>638</v>
       </c>
-      <c r="B72" t="s">
-        <v>639</v>
-      </c>
       <c r="C72" s="153" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B73" t="s">
+        <v>639</v>
+      </c>
+      <c r="C73" t="s">
         <v>640</v>
-      </c>
-      <c r="C73" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B74" t="s">
+        <v>538</v>
+      </c>
+      <c r="C74" t="s">
         <v>539</v>
-      </c>
-      <c r="C74" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>
